--- a/User_test_data.xlsx
+++ b/User_test_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewFolder\Univ\2019\2\오픈SW플랫폼\팀플\data\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE0EEA-83B4-4B65-89B3-C79BEFFF91EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView minimized="1" xWindow="2190" yWindow="2790" windowWidth="21630" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,36 +41,6 @@
   <si>
     <t>profile</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGBgYGBcYFxgYFhgYGBgWGBoaGBUYHSggGBolHRcXITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAMMBAgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xAA+EAABAwIEBAMHAgUDAgcAAAABAAIRAyEEEjFBBVFhcQYigRORobHB0fAy4QcUQlLxFSNicoIWFyQlkqKy/8QAGQEAAwEBAQAAAAAAAAAAAAAAAQIDBAAF/8QAJREAAgICAgIDAAIDAAAAAAAAAAECEQMhEjEiQRNRYTKBBEJx/9oADAMBAAIRAxEAPwDjj65JOqL4Y/ziQp8LgJMQrFwfw091RrSyQVnlkSIKfJ1FFw8I4F7y0imCOa63hqOVglKfB/BvYUgCITfGP8pAN1Dpcmb+6igPG4gGwUOGwMy5zjETA1UWApZnSbKDxHxF1Nhy+hHyKz3fkzVTXhEbMqUQJ25kqKrhcO/eDzBIXL8b4vL2QRktqdDsYPQrZ/iNuQQ6J0IO8aJ9+0gcK6kzo5wBFmnMO9/3Qz8I4nW3JVLhvi8tbDiCQy19TP8AhWDhXiKnVbDTDtD68lOUEPGUkeVX0mEmJ/u9PmpHY0lgNMeXpyXlegDVysEkgg8u5Pv96a4fhhaBfK0CI3U1F9IpKcVti6tiyC0ukAkCRpfRGio0bnci/wBUWcMzS5AAgbWKjrVaemQTeBEo8Gu2T+RS6QIMUI/VH+LKF+Lyz5gSLxPO+qPxWKY1rS5gIA0gGOv5zS2txLCuIBptkmLC8kHlvsucf0MZX6BhxJsuBqC5AE31P7ohlYPMix59t/mlmJ4TQqsIoPLPNpNpmfMDcpjhOAU6bc1d+YNbo0kagkye6Xi2Uc4olpuZ7Sxlos4nTt7x8VJi8Y5odkB0EWMSTHuU9FlNoNOmyS463INwdT3TdwMWYqRx2iM8tPoRVcfPlh1gSSGm0C5n6dUprcQqCpkaxwEta0mbkggnsIKtrnuJy5YsNuf7qDFsiLAGI5wjLH7BDKlqitYjjHs3ubMxexm/+UMzxI0jNfLcev4QpsfwGkS57WEVCD5yTExc/K3RVGjw6pRoupvBPnJBgltom/ZckmU5L6OgYavSIFWPMRInfqouK+JxRlu4I+IJVN4pxsNpte8ZbZQNDpMjsqPi+POqkS7Y9zcW+YTRxyYspRW2XLjPi17s5zEC4F+xP0SjhfjCsADnJvYz1IPyVPx1Z4e5rjobDczt7/omdOmGUj5gIGUA/wBzuXYRpurfFFIn8smdZ4F4q9plE33+5OkbKyVXivTc0G8ELgvBeJmm8RJ/NO66Z4e44GXdebGNL/ZclxYsqkv05h4iwxp13tvYpO+oea6J/ETAtNQ1WCc4E9Fz/F4ctEnfRetiyKUUeLlxcZM1bUML1DtmFiryE4l74X4b9obOgzp/ldb8LcE9mwFwBPNU/wAPAF4Lm77LqWGMNFtl4sFyds34scccfH2R4hxFx7kJWeCCd0Ri3g6JHi8UWf1BTzTo24cfINa7KwnmqD4r405os0uvpr+6voOaiCfeudeJAynmzHLOh/UPcpPtGjH7KnW4hTcDl8mYyWP/AEzzaTcTyVe4hUNBxaCIJBAmRbkdiOvNa+Ia7S4kBruZEgnu07qHA4Z1dzaebNOgP6mz1nQdStkYqrZmk90EUeIyZF3Hy+XcHeOdl1XwN4VrBjKlXytMEN/q/uk9Fv4E8E08M1tWowOqyQQYMDZXyk8mwEKE5xbpDpSWyVrWUxDWwVhcXb/nNZpcmUDXxnSQfgpylR0YNhIpN0Ljz1j8Cw5QdENTeTrpC1c8RGhnQ/dJZTj9k9SrT/qGnRJuK1cN7N3lABMAt16yfopqrmuaYcfprsdCoW8KpvESI6HcbdQDCFsZRS2UbjNCtTJNB5LJDQb2gbiOyuvhLBPr0v8A1IBlmUzILswIFu26Z4Pg1JsGXPkNGUmQcpcc19/NryhPsPkcTBBy2toNvorwjyqyOTJSdG+EY0NADYA8o9LBFStGlotoo6uIA3noLrYqijE7kyaxtKhqUAdkBjcaWNLrNM3nYe+5S2vx0NMB+c6kASB66D80U5ZIvtFI45docYnBSNgkmP4bTIDS6Jmx0n9ioneKWNj2jrE6mw9N3LZ3F6FQS5uYDf8AfvChPi+jRBTXZznx94arPbnpTUAmANYGsD4eq5difaU8pLYidd/TpZfQGOpPJmi8NYI8rpmL/pHLvqqvjOG0KlR3tWAvIjWctt+22wT48vHTDPHe0cYdiTmLtSd/zdNMLjS6AdQLH+wc++nuTPxH4R9gHPpkvbNo/pG881WfbwIAj6rV4zVoz+UXscDFXEaC3c6k/nJXLh2K/wBtpmwK53hZc4BdLp4YU6dMAGA0SepupZFRWDse4bECqMrm5lXPGHDDkBiAdEx4VivZPzAT3VlxuF9vSLw2XQYGwQxzaZPNjUkcYFA9Vi6NS8JPgTEwJ7r1bPmRi+BnQPCPh3JFR/oFasQYELMKA0IbH4iNFidRgaoRbaSBi/mllSix74NzyRdNudbUaIDvKB1KxtcjanxsJfhmikWNG1u64543rhwfTJIe0kxEH912LMYJnRU/jHh9tdxc4CTYuuD8E8mrTOx3TOJ8D4FVrvMS0g67nsF2DwT4Dbhw2tUcS8iYItJ+SN8N+ERRqe0cQ4C7efrzVoqvTTyuX/BVBJ67NG0ySBNkQ92RvNeNbFybJZjsXGYtMxt0UrpDJcmS4nEu1BHZJanGTmhrDM9I15b+iC4nxP2gA/TeI0Pu+q2pEDWf+Tw6WyNBLgAfeuUbKaQ9ohx8xdFtA2fqIQXE8RlAcTYG7rxbnbmgKvHS92SkwuG5DhM+tifWUL/qLqbgHkAEmQbHTcHQwjwYvL2aV8e6MrNDBzxYzeOoiDtcofDcQqNIbkdJ5SZHTdG0qwzBxygEhpEw2csk3/S0C55AFc88a/xFe9zqOBcaNAGDVbLatY6E5hdlPWGg9StGPDyJZM3E67hxWFOagNOn/c+KZHqYKJ4Dx7CspNYcTS9qSXOyumTJjzaTEb7r5q/1zE1IY+vVeLABz3EchElQV8S4AAEi/r71ph/jQjsyzzylo+rcZVc8gUz5TMkOEjS1tOu+qX8Sq1abbQTEkjUCATbQ62XzHw7jWIoPFSlWex4MyHH48/Vdf4N48ONptdUgVWwx4Gl9XgdReOYU8mGlaKYsluhvjMXiS0EyB+oA69DJ9TOqRYjEknzOh17NJ+M6DoAvOM8fa9wAceYAPUwI7R8Ujxj3Fsh4HPr3I1PqpxgVcwyvlmcxB65jlHSRbvK3w3ESwiH25kiT6/skLMaHavMi2k/E6rWs0anzNP8Ax+yZwFU2i9UuLuqC+ZwiBtbczASvEU3TmzgSZA52j7JHg8WAcpmEfXxAAkQ4/nNT4FOYWcflaQ4azM3n9uqpPHeEefM0eXkBvGiffz39zb/D1J0UTak6nVPBuPQs6kV/hdANcHkGx5WXTeHcRFellAIAFr3J5lUXGUQAdR1R3AOJZNL9l2RclYuN1oZ0XOzkGbFWvgXFg1pZcpbSyVgXN/WeZt6BD4en7Iz1i5HwASRZSUdDt/itoJGXQwvUhfw9pJNr396xXtGbjI7ViagCAccxst8diQTlhR0cS1gkwT8lmk1J/hWMXGN+wqjhMjZdqdAoalSO6HrYtz3WNlJlkyllJdRGUX3I1rVXBm3yW2CpBw096H4jRBygm86DfumdAhjAN+SWKt7Gm6jr2aYgRYRZAU6ZJku7cvVSYx8AnTvohhUcBmmB8PQpZPY0E1E14xiABDi1vKZHuuq3jqjmnyvMxI8s+kl0KHjnFpdkMz0kn0vBVcx+M18zr7Ezfo0fUpox5Ox74qj3iXEHGP0xyDrk9gTZI+J43MMokDoQAfTVR4h/mIzOc75dLW93ql9WqZ8s29fefstUY0Z5SstXD+NtwtI1HGDGg7WBIglVzg2JxnE8Y2nRFyZJNmsbu5xv9ylfEsPicRUawCRtMBo3JPJd6/g94bbhMJmF3VDLnbmPwj0VYwX9kZzYq8W+Df5bhteoH1a2IFMtBBMAPIa/JT/6SdZML53eYOnvsvtPF4umz9bg0HmV88fxKq4D+aqVKDWn2nnJywHPP6oi0fGSVeMUtIhKTe2c64fRlwfHlYQ5x7aDuTZavMiN9VPxHGl4AAAaLgAZRvt6oIPT9aFq9mrwr7/B6tQ/nXU8RTzUqlMsOsNdILXWuNCPVVHDAPkFsmLHr9VbPCnHG0g5jWU2yHAFzZIndrhdp9UHG0dzpjH+KHhA4XLisK81MM8mdS6m7kTy76Kl8L4y4ODXGxt7+YXYaWLZiKL27PEPbsCbB4Hdcc4jwVzKjmtgZXEETpHI9VCDTVMvK1tDSu0Bxt6/tv6KWgDpMz/bA+tvUIOm51g4X3PP1RDY6dtPnM/BLQ9hjHneHd5B/dS1NNB8fklZqgatM+hHxRja4gaweUx+eiRoZM1eyRIPx+5W1CsGm9ydP2UlN7N5PWVC5ozWmOcyf/klGGbgHCN4SSiSx5DiY2n6JphjyhAcUY/Nnt2F/eUUBjrA41gIgjtujMQJh09gDp8NVW8LUJ5J1hqpLYJSNUx0xgyqYF9li1Y8QNFiNsU69xukAS4e5CYSmSRMQjOJVZkBRYJjoE6rM6ci8W1AaCi3YLzIAdI7qWi0LWs6ATYd1VpdmdN3Qpr4X2lVpzGAddJ6Jw2mBuLc0nwhe6sSYIHX7fJT8c4h7OmbE9gfpopwaScis021ED4ji2zlgk6W1STj+LJYWMcQQLiDYc82g9UE2uXOL5qDnZwMT1hDccr8yQHaN3PMm0nRTim3svSitFd9qxptd5tmMknsCbJdicO58lpibTcn36I7CYZz3y0EN0sAJ/7iUwxGDcREkQIiYgbybe7fqtS0Qk7KpiwWsyyY3OjnRyHLbl9JuF4HPFoaLkxYeqNqYYF2UQYuY6cydB190LH4ltJoZYuJki8Acvhc8rKl/ROgjD4FzgS0QXWaR/baIB1Ll3bgOD9jhqVOZLWCTrJiT6SSuQeF3mpWbm3LXRazZIFtALFdtdYKmH2yObVHJ/4u47M3JtNjvNhHvXE+JOMNDrFulwZ01A0+sLrX8TaozEEgl0+USTbUl02uQAB1XI+In9Wx1GmnYDVHGwTSF8i9rrVg1EIptVuWZEjoZJ5/JaYGoA6Nj+C6vZKjWiDPVMaOIAu0EDf82CDqECoCCL6/nNGNZeY1/NUjYySLh4ZxxnXUER0WeIcL/uCoP6rH/rbafVLOCOIcO/qPuFYuNGKWlswPvaQY9wKlLTKx6oUVMOHtkXOn7dEpfQ80C3Q/up6VdzHSNCZvp+xW+IcXaieu47oBAXUzuDykafA3UTH2LZMHtHzUr3OZEEEHQE/ePgpfYCoOvSPoETiLCsi1ginVbEbKIUcmok9x9dVpM8vdCmxkbYfFNmJ+CYYnEEsJIkdB+6RS1ruXa6Y0q3ksZ9wXNBsGwryTYAeolPMC+OSq2EqDMe/ZPcM4C90ZI5MsTWiBqsQTMWIH2XiShrO012k6ayiqFEgSbn4JfRf5iSd/imQplxBmyzRKT0EUriUm45UflLWmPSSnNNo3sOc/BKeL1Khn2TfkPnqmyfxFxPzszgeF9mIaJc65Ljvz3UXiXFCmyXEnadvRecJrvb5XvGc+4895SvxZWL7B09RoPhdJ/rRRJ/JbElPFEm5OvlBOvS36dtUm4vSeXuLiMz7WdJyi5A6adERmym7pcBbUHsdueoRQw0PbVqAgubebk8g0bXvJ5ck8FR03ZvgZw9OHhlMOFiSAQL3zEfID1UFSlTAlgc4ESXta0T2cTPqAtXYWkagdVaazjozVrR/y2nnpylEYqvTY0kU6VMD9IDsgHdjdXd1QmJOI0i2mP6QdGanu941PS6VnCtbAJIkgkn9Tt/KDqI5mPrmLxDqzsrXFp5zpfYXM20ssweBEgyTJg1HSSYu6Cfd6HoqromOuG4t1R7WsGRvtGmJmQwgAudbNBHQCbDUnu2I/SfouGcKP+4wxAsTyABkNt2I966R/E3xD/KYIvafM+zeZGrojoqY32Tyro45/EjigGKfTbo2QADO8XJ63lc+qZ6jgNzp/lWfwPmr4qq6ocxNGo697+Vo1/wCpK/EDfY1fLYzNto3RjKpcfY0oXHkD4bh7gfMAZ0/IRH+njWLnabegUOH8QvbILGOboBEEdi2FmJ42HA/7TRIbcEy2DMt79VTf0Sv6Z43gjnNe8GzWlxtYR1Q1GvU6HvYx6Jo3xKPY1qfsodUAAIdYaTaOiO8I4NtRwBiCDNvRJKbStoeMFJ6ZHwXGNeReCI9PuFZuOEuoAg3lvrr91zVlQ03yDcE39VfMLj/a4ZpMfqPqIP3XTQse6ErHm4JAFzBFpkg25TNuRW2c70/cSR6HWO6lxVE3i/IHfeCdVFhqxyyw2H6mnVuwcJ1Gn5qo4R/JseJAynvPwOqkbTyi5k8ufuBWlMkXgEbi3wlRVKvms+OiVhQTAeILR20S7JBLT8P309Ea4uIt9ELWZuR+fRBBFxptzGL9Zsimh2Xcdrj9kM/Ul3zW+GxJk5Rb0TABqlIDQXTXA1SGwZ+qXmS6+v5yRGFqxIv9FzOGzSI1WKFpMaL1AJ37D4eHEdU5putb87Je1ri47I2gyFkx6K5NmuLr5bAA9/uq9xri5YJJOXmIAnlJTvizSQBudBKr3HfD7qrGtL4jUDQDkOZXStsOPjViXglapVrPcIIMSdco2Gfc6eUWUHimkGHyuL36+Z0Na4xtu5G12tw1OKOVgaZduSeZ3J5KkcT42ytUHmvvu4nvseyEVb0UbrsL4PR8xdWc4kGcolodH/KZI/CrFRwz3uzEgbNaLNbaQJi5+/UBbeF8O11Jr8hdJj9TSYE6gCSmmMxdNrXUm3c6zWiwbElxJ2A35pr2IVHF55IFTKBEkHToAN+/Xqg8VjWgEsDyNM7o9YJEIfjuKAEusyYAGrnE8uX7kpLj8awXlxI0AMABVihG6J6mLBeGNMTrH63dC8gZe49Ebn9iBmI9o4xTpCd/jAge7uq1gXONVrzmDv6Gi5cT0MwOsJrgqcO9q90vLtQZgCZvsB8+yrVE7HbK12NAkNOU3jM4xMc9Poj/AOOWJfVweCqOgGXZmtMtFrX9CJ7pEyo0EkGAxoygbkzrzMzZMPHTTV4VQJiWEaaciT1j8sli6kGStFV/hnWDcdSadKralP1c0lvxaEB4+bGLc3k1vxk/UISi59HLVpmH03Ne08nNII7oPi3EqmIqurVSC98TAAFgAIAsBACsoXk5/lCTnUOAGsXsLFYznivv8Nn+WoTow5ieTcpd7vKVQkXguI1aTajaby0VG5XgR5mkERfSxOnNJkhyjRTFPhKyKpcTzv71cMLSyYWjFryf+7mq06iA2TyBVoFScKzo2fdskm9FFGmQGtPl3sWum0g276j3oM2dymSOh3HzHoF77WxaRvp0J2Prbsom1HDyuEzodfeEpxJ/NAGLg7xbsYutRWE2BJPNoHxACGrMANzHK6kokaAz/wB1vVc0FDCjUi1/h9FMKstMe4hLBIEsgEbDfkjcNWcWzABSUEVNd5jMx2PyWmIqBp8s9f8ACx7yahkhpn8ut61MObJiRaWkfFUFB8xP9Q+/7onCPG8+9Lg2CZHZM6FIWN4RkBD5lOw00WLVgMDXRYp0MfRdTTy6lR4OoJyTp6rYSJ1QrcSGvDW7nzH6LL7srVok4mdDuNNrdUpx/E2saSPM7SBpPUfROeJNlsC82VJ4zhnUiYAkiBO07zzPNCXY8FaKT4lxlYF9MG9SXPj9RGwJB06dFUsDRaDmJl0kT16T81buM0g2YMiDmeJu42hs+++qoTqRbVEyGzJGttgtGJaonkezqPCH1XU20wYYJzOJvzPm+izHYhrWn2ZNhdxtINpM6C2iqvh3E+0MZsoJtJO2mn17ovxBXZTbLPM64BM5RbUTYm+qm4eQyloW1a+clzpc6YbOjRIknrp7kvr12l9hIHPS25+3RSDM4NExP+ffcXWmJota4NBuXX9BcqyRJk+CxeUFxBc9+gGpGl+Q6b7o+hib3aAYIIE6m0T0HS09Upa4hxG+5tYDl8vRHcPrC4YQ5++lhtHKPzRFgR7TrOJgC5dAF7XkesGfUK3+I6f/ALbkGwH1Px+qVcC4YHVC9zhkaLuMRfluSUw8YY9vsPY05jVx9IgeinJ7KRRzvWi4/wDGUjT7hjZY9huL23j6JHUZBI5HYz8QtcDPk3RM3DyzNutalPcaRZH8PafZne4t0M/ZaCnIy7idvzZOkxHQuLVjGyQOdlO5u2yzA0c1QCAeYJAt3nXouegJB/FWxA3MD3J5hH/7AG0QR0OvwlJOMgZmiRYXvoeqZ8HxAEMJBBtrB9CoT6RoTtsBLC2BrMt7jX5wvaVcG0gjlofQGb9lvj2BjnMMiHSCeR5IbFYbcEXvI58/zmuQD1xOkmORuhajhoCRGtlPTLib9uvdRPbfmfyyKAHYRny05jp70X7XK0qHC0/K3ppKi4hXAuk7YwrxUEyCOttF6apHL85hava0mWn0+y9rUbyLt/NVYmGhkiPht6IrBsmxQoqmAI7HkmPDnSdPupMccMoGB2WKdrjCxTGO4VC/NpAvdLMRUbTIe4GAdBv3TLE6mXW5Kv8AibFg0nZRYfFZWaIKy1NPtWB/6RE9YVYxzWuL9TYgOPW0N5/5XngfjBq0zTfyOu/7I3jFKfKB09Og3Rl1Z0NOikHDipScBrcN+8AR6rm/GML7NxnW8n6QuvYp7RmY2A4frOzRcxIu6AuS+LXtzPDZsbk2uemyth7Ey9WKuEYzI6YlWGjWFaQ5wDrmNPU22VMpVS3RFjEZXh7TFoPvutM4WZozLDi6fsmyCXOItyAGnx+aT18ZDmHUiCe83+yaUHggGQZEmTq63vhLK1CSXdBHUykjS7He+gWvVcS5xt07yp+C0HVHhgdlBNz81pjcsx6nv+FGcGq5ASBB5k7G9/cqN6F9l3GIp0GCkDcQTFz0lQcQfTNMxYnocx+NvVVh1Z5cCXEuJ1aHD/8AI+qs/DsOzJmd5nc4vP0WaSrZeDvRV+DH/fLYIBN9rG0rzGcK9k5pYz9Ti2SHFutoc4RPQLXFVMmJDhpItbmLKyYzDBzX5pPmJkCWhxA1edTY3HwWqLuKZD20U+Ie6IBBiPdK8c1xqXB0B6RdMzhwRcXgAxqDMFDVhBhl4bGvVVJ8fsGfQaSdmSQOvVTcHwwLqhAJALRMNI3/AKjceiPo0A4sa8zO/wDxHyC3fRa0nKIHmdAaIDojUfdLJ+hoxrYqptzYh5sRKK4hgmgTT9W3+HJQ8MoGC+DBM2PPoiDiYMTbS/VQk25aKRXiR4zEA5S4SI9R6IYCR5dvz3KfFgDSCD/TyncHkg6LcrrW9babIroBsakgGRI6X/cKICTIjnH5yU9akC7l0WrqWUZl1nUT1qxDOo5apNXrlxkrfE4kuQypCNE5yvo2zIvCEaEx169UG0IhlG3RGQI2HUrugxykaJ/w+kZBKScLw0kg6bKyYWAI3UJFkMmsssXrM0CyxLR1nZMTQkZiewKrnGqIcx3mg89ld6tLMCYVC8S4J5ccvoOqyzjTNGKVlV4ZxU4WoXAF0kBznf2zePRdDq4vOxtVphpuJETaxgrnnFaBltN5E9Nk04D4hDago1Hl1xlm8mIjoAuatDezXxG6oHQywqTPOBe55Tsuc8SwbvNm5k9z911TxRRjz/LS8Se653x14yzMFx0OwAt+c1TExci9lQrYW99fyFHXw0CUU8yH79ekWXrTZoOkSVr5MytIDbVc0RMA/IbJpSxLYAzXImOQj5pXiiT2Fh2QzXEGUzjyF5cWOa2HEzt94TDBYYBhcBJOg/O6XYMmr0I9wEfEpua7P0tBJ3IClK1ooqZ5h6tQcx7vmCYTzhVUvBDnHNy3y8r2HcSq3UycjPXb3WRnBsQ0PyFxHWT+e9I1aHToH41QcazLCA4W13+JV0w/h6tVpsxYexuGc5wyOu4BhcM9RthctgQTeOaGwuCaK+axcKbnNkeUPlrZNiLBxNwRvGisbsfSp4YYXIcobLmuB87KskuuBIJzbWt3L8nDEpfoIrll4o51xKllMtIIkgx0uD12St2LAsBNr231urnQ4O1zXim0mk2AHQS0GNCd9QoWeGmiDYnlNp3tuVoi+SsRqmKqGGf7NpDdQJnkdp9Uw4h4dezBnFOytD5YGx53TLQ5ttJEXPNOX4cMyeUgZoEAgOdyLzaLbXsUP444tnY2gSAWlpyj9IDAQABtcz6KU8lTUUNw8HJlTwdIhgul2I/VBuDzhM8dWy+W8Rsl1MS62nI2+imvs5kVWkQ4Nk5dp1g7IksZFyJXhpee2nSPkoMdiut/kU3bF6IMfWA016aJc6qTqVj3Em68DVaMaJNtnkL0NW4avQidxNi2I5ojCgm2xt8l5Qw5JTfBUAFKUiiiE4CjlCmpOMyOei1LxopMMbqYw6ZWMCx0WLZhEDssXUKfQVQiCqj4jZYnTsm2LxTxI0+aVYoB7TJ09yzZJ8tF8UOO2c34nVaakOtGh6qrYzifsqmZo8zTry/dXTxNh25CWx3+y5xjxcwE2PY+TR0bwzx/+cbkqQCLRNzy7ndVPxdwVzHEiY/PekfC+Nuw7g5uoPRP/wDxM2rTIqSXE+mv2T8HF2hFJNUym16b2yPeiKDJAdzke6ys/E+FCoMzNImOiQVqTqb2gCzfmdVVT5Im40QU6YlwPKfol72CLLbEucCeuq1bU8vqqpNE2/R7hK2R0+nomWFxRDHEazHL8CVMbvyRNF0W7W7wukrOiPKdOWiR3O/5EKfAuFP9IIM9x/8AZeYPENLZ1MXnt9VNTrkXjeb/AGWdlUPsY1z6TarLPpEOIEtzCLzEHkbckF4lxRr5f9wteGjKbwARJBJ/ucSSfTZecL8QQ6S0BtwZuSCbxJAk80H4t4S1w9rQJAP9OYx1P7dlTHJfxYk015IgwviTE4doa0ODQQZYczHFpmSR15oj/wAxK51ImDfK3NdwcbxzH0VSGNq07Gyl/wBZeRBAPoD8wrcI+ifyP2WHE+K8RiW5fM4Zi4icrASbmRog3TmicxcQCddjb4lJq/EXv1JjSBYEeiOwFBzG5321yNPXUlClHaObclRNxOqcwGaEMwRce9QcR0nclRsreX3fnyU0tFL2HVa+STuYSl7ple4iuXGSoCU8Y0LKRKGr0KFrl6SmoXkjYuXjXLSV6EReQ1oYgCEc2qJlVwEopldynKBRTH4dK3w8h1zKWYCuZ1TRj5U6C2N2VDAWIVgsLr1dQLOxY7EuJJdYfFL8dxNoZBbHMTc+5K+J8UqkkDRV7iOPLiMzw0DU7+iwRVnpSpIK8VYoQA2HE7CwH7qjcVdAMamFYMfxGkG2k9/mVTqtQ1HlaccTNNi+o2LleUqxtyCMx9Lyt9ZS5zosFri+SM0tMe0uMVAYGhtA+61xfEpN/X5JIHmFoSh8asHyDerlc0TYkWQxw1rIMvNr6KVmKcBCPFro7mn2bRAgd16Br2uos262D5CNBtBGDxBBJ7JzhMZmtvEJJhxYhbAyYG+vZJKKYyY2flBH9Rv29B/V6276oqliyLCCJFtfj+BJ3EyOxU1J5Cm0OEYukHXj8lCswoR9NwM90Liq7ReVyk+haRlBrWnQShsZjSXX5i3zQ+JxNxGn3QtQzcqsY+2K39G2Iqlx6LRrtlpK9CpROz16jXsrxEVuzFI1yjWLjrPSsaV4vVwCRut1PRah8ylwz7pWOmGMF7WKIdiC2CUOwyvcS2yQaxtT4jYdgsQdKkMo7D5LF1As6njG2PXVVDjNIDZerFggejPoQVOWy8o0hOixYtXozAuJbZyWFgWLFaHRHIZkC1LAsWKhEzIFmQLFi449DApKDBK9WIMaPZuxuvZb4NozehWLEr6Y4cWCJ3hR4NtnL1YpeihNU37hKcQLlYsTYxZmgYFhYFixVJmnswtgwLFi45GppheezCxYiIZ7MLMgWLFxxnswvfZhYsXHGezC9awLFi44IwzBKYmmI0WLFOQ66GVGkMotsPksWLEpx//Z</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEBISEhEQEBAVEBASEhUQEg8QDxAQFRUWFhUSFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGysfHR0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0rLSstLS0tLSstLS0tNy0rLTcrK//AABEIAOEA4QMBIgACEQEDEQH/xAAbAAEAAwEBAQEAAAAAAAAAAAAAAwQFAgEGB//EADIQAAIBAwMDAgUCBQUAAAAAAAABAgMEESExQQUSUXGREyIyYYEGwQcUobHwI0JS0eH/xAAYAQEAAwEAAAAAAAAAAAAAAAAAAQIDBP/EACERAQEBAQACAgIDAQAAAAAAAAABAhEDIRIxE1FBYXEy/9oADAMBAAIRAxEAPwD9xAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABzKWCKVUCds8cis5nnxCOp4s96PUyopDvHTi4Cuq2N1kmjJMlDoAAAAAAAAAAAAAAAAAAAAAAAAA5nUS3A6OKlVIq1bhvbRFbv11K3SZFuU8nHcV3VIncryUuovIuNniIFWR78Uj5J4nGSD4h73iaOJnMQqYZVdU8VUtNK3LZjLKyj0zba4w8cGjGWVk0UegAAAAAAAAAAAAAAAAAAA2ULq4zpHbkCatc8IqueTjB16FbVpHkmUri47Tu8uow3evjkzpVe7ZZMda9tZlZhcKWzKPUuo0qSzUnGEfMpKK92eqi0nrh7o/K/4k3c4XNJ9iqwUW+yf0tvOfzt7FsSWe1dXlfqNl1CFVd1OcakfMWpLPjQ0YT03PwH9C9bqUbvMk1CpPtlGOife8LRaaPH4yfu1nTbim3zkpvHL6WzrrRpSJe4gjNLdYLNFJ6ifoqNwOJ5WxaZDVfLNM54pahpyefuadjV4Pn7us4zi/wDa1/U0LW45Qzv3w1n11uA4o1O5ZOzVmAAAAAAAAAAAAAABzUnhAVrytwipjCPZPVs4bI6mR6mQXdxhEsqmDJvq2jfC29TDyb42xlmV5ylUbzsbFhFdqPn5V8act5Zv9Pl8q5MfH9td/S1OgvUxOs/pKjdRxVjnw02pL0ZvqR5Kqzb6Yvj+nfw/tKE1OMJTknlOcnLD8+D7CjQSxp6E1LDWXueylgnn7OulCONVkiq1FHXg5lM4rU1NY3T08aD/AAn9rVOsmtDmaXJiQqTpScGu5auLTWUs7P0NKzk2syxknOv4NZ/lH1aj/pZXDTKvTqxqXP0SzhaPfYwbSaUt8+m3uU8nrUqce82PqbCfHkvmLbVNmbEHlJnRL2MbOV0ACUAAAAAAAAAAAFO7nrgttmZOWrYHMpHEnjc9TK1zUMt641zHE62v7GV1Wrwi69E29zGuW5Nv7nNq2xtme1ONPLyz6Dpk8pLOqMmjTL1vLGCPH69rb9+m32ZO/gv/ABkVvVykWZS0OqcrmvY4jHHoRzqeSRzeCKcM7ojn6TEFStw8ndKvtqe1IETpvhalZL1bs4hup5q8YSS4NCnJY0Rl2vTnTbkm3luTTbabe7WdjThtqWzL32jVnPTy9kvhyzjZ7nz1NNYL/V7tY7Fq8rPgo2zMPNqXXP008csnW5Y1so3LSWYnztmb1hLRnR4r2MfJ9rYANWYAAAAAAAAAAIrmWIszZeC5fS0SM+pLBFvItmI7iWEVUnu9+Ceq84Pbenz7f9nPz5aa95EF7Htjjl7mPOkavUHllQjc9rZvpUpLDw9C7SizlRTJoacspIm1JRymXIVvJS+7OI1Hn8F5riLnrS/mEdxmmZM6jOPisvPJFPg3GkRtpatpGM6z8s81b1J/LEfjacruOcLX78HfZmL+6ZUoUi9GOgmrr7LJGFfdMlTSm9Yy2f7MitY6n2s7aNSkoSWjivVPyj5itYypSaa04fDXkw8ni+N7PppjydnKmtFrk3umrRmJabI37CniPqdHinIy8l9rIANWYAAAAAAAAAAKF89fwZ1WTyaF/wDV+ChORTU6vlBkuw2XoUqiLdJ/KimJxbSjeR1KygXLpFSJFntaDgdxidxa5O1ErxbqNnlOG4qk0FoivPaVerDX8ESpFqcdTzsHEdRRpE0KR3GJ3GJaZRa7pxLEY7IhpovWVPMs8L+5rmMtVoRWEkR3FFTi01/4Sg0UZdPprT4aNNI9A4m3oAAgAAAAAAAAAAFHqS0TMeo29jY6rViopOSUm8RXLfoYddSWxn5PTTD2W2pNRq/KZNxVqJcMvWbzTT559TPOu1prKSpIgwc1pkMa/kfKHxXYRRIzOd8ky1CpkmWX6RypI0ss7aOoPQMfE6hlIKR20O0jievUdHiR7OaW7LyKWp7eDbSNmlBRSSM3pElJt+EappGdAASgAAAAAAAAAAAAAAAB8h1Gi/5nMm21P5dE9Hj2LtZam7K3j3d2F3Yxn7GHd6Mp5fcXxfahXp+x3YP5ZLOzO2yOyesl9snNj/pvr6eXEdChcGlcIzb3TBGvsyqyWDq1uXF5bbRSrzfdjXBHXq/Lp6EZvFrH01teRezRbVZeT8/hcNN/3NGyvG1vnU1z5ZVLh9h8VeUcVLmC5RhdTXaoSi2lOOceGtypGTfknXk+N4iY63p9TWWorJVhUc3zkpUlqaVhjuXqvyVmrq+1rJPp9V0q17ILP1PVl05g9FjbB0dUcoAAAAAAAAAAAAAAAAAABg9Vh2z9dTeK93aRqLEkn4yiNTsTm8r5Cvc+mF52RWV6oyi8p66peHoz6Gv0CnuqcX+Cs+mQi8qlBP7RWTL8Tb8kdSWdd0Urykmti5UqKO+iKtSqns8lfJlOKyKlFLX0KXUp47Uot5by/Bp3LX9TNu221jbGfJnIvWHVlLu+mWPQ0ujx1SlmKb184O1bNlihZSJzjl6i69PoL6lCrTUU8OK+Tx+TDWYtxa2NWjbywtCC+oPDaXzY8PU13nvtTN56cUMP3LtGBj2t008ThNcZ7JNZ9jUo125YjCctlntaXuZTN60r7DplXupx8rRlsp9KodtNZ3er+xcOqfTlv2AAlAAAAAAAAAAAAAAAAAAABzKmnujoAVLjp0JrDSaMut+mqeMR7kvClJfub4Is6mWx8s/0tDZqbS/5TqP9yaP6fitoo+jA5E/KsGPQ/QsUejRW5rAniO1Tj0+J4+nQ8F0BHVSPT4LgmjbxXBKAPEj0AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//9k=</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhIVFRUXFxUVFRUVFRUVFRUVFRUWFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDQ0OFQ8PFS0ZFRktKy0rLS0tLSsrLS0rKy0rLSs3KzcrLS0rNysrKy0tNzctLS0rLSsrLS0rLSsrLS0rK//AABEIAQMAwgMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAAEDBAYFB//EADkQAAIBAgQEBAUCBQIHAAAAAAABAgMRBBIhMQVBUWEGcYGhEyKR0fAysUJSYsHhFJIHIzNyssLx/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAdEQEBAQEAAgMBAAAAAAAAAAAAARECITEDMkES/9oADAMBAAIRAxEAPwD3EQhAIQhAIQhAIQhAIQhAIjrvQkK+LloBycWzlV5HQxcjmVpbkrcVarK8mTVEQvTUxWkMkRTZJUkVakjKmnIrVJByZFORBBNELJZsjZFA0C0GwWEBYQ9hBXu4hCPQ4EIQgEIQgEIQgEIQgEc7HVeReqysjjYustQsUq7KFWRNXq31ZRrVLma0jqSK1SQdRleczFUNRlacg6kiCTMtBmyGTCmyOTACQDCYDIGGY7BCmEIchj3URDQrqRMelwIQhAIQhAIQhAIGc0tyOtiVE5GLx1yaJsdjDjYitcHEVylVrktakFWmVKlQGpUK85mdaPUmQTmNORFKRmqaTIZSHlIikyKaTI2x5MBsgZsFjgNgPcG4hgpxA3HIPVsPiTo0scZmnWLMa531jGop4iL5h511M1DEk3+t7jWcd/Ouozqx6ozssawHjGNMaGeLiihieI9DjzxbK9TEE0xcr4vuc+viSCrVKs6hNVJUrEE6gEpEMpkUc5kMpjSkRSkQPKRFKQpMjbIpSkRtjtkbYCbAbE2C2RSbBE2CwHuNca41wFcQNxEG5hMsQqFGEw1M6ou/FG+KVfiCdQIsuqRusV3MjlUAsuqRzqldzAlUIiScyGUwJTI5TCnlIilITkRykQO2RyYnIjcgHbAchmwGyBNgMDH8Qo0FH4rbk1dU4Wzu+zbekI25vXTRMHA4+nXg8kZRnFZnGWt4bNpreza5LfsRRtgNikwGwHbGuM2C2FPcZsa41wHuOR3EE1sYyDUiumFmNifMNnIXMFyCJnICUyNzAlMCRyBndbph8Pd6ivru/VJ297HRxVCSV7vXfV6/cx11iznXGciOTJq8ddFr05Py6PsVKjLLqWYeUgJSBkwXIqHbBbBcgXIgdsr4zFxpQc5bLl1/xu32TJGzKeJ8c5SdNbRUYvvOfzf+MberCqkKkqs5VZbybk/Nnb4HFxrQmtk1mXWEvlmteqbORg6dlqdbDVMvPV8jNdJHXqKza6Nr6EdyXGP52907STdtVJJp2W25XuVgVwWxrgtgFcZsG4zYCuIG4gNbmFmI7iuaB5gXMByBbCDcwXIByI5SAu8OqWqx87fVNGpxULwv2MRCpaSfRp/RmwhiLpROXy/jp8flnsZKzdzlLHRlL4b0nq49JJav1tr6M7nFqVrmK41SaanF2lFqSfdO+pOK13z4dqTBbKuDxiqRTv8AMt12eqa/bzTJJVVprudnAbYDZHWxEYq8pJebOZi+O0oNLMnfoMHSxNdQhKctoxb87bL1enqY2MW3mlrKUpTtzbvljf6N27o6mL4sqsXGCT+ZN3/it80Fbu4t255e5y69XJJxvmaWXNe97fq16t3bfe3UuLF+lG/O/fcVSdppXIMPiLLVgQqZpORzrrGnVTNGD/oV/NXX9kDcCkllj5ITZpyorjNkbkCQG5AtjNgthT3EBccDXNgtjgMoTkA5DMBsqHlIBsZsBsAmzr4bGPKrb2v6rf7nEuWsG001fK180ZW5pbPs7fsY7mxv47ldbFcRhOnd2vs+v0MPxbHQV0noWsbj9ZT/AE9TEcWxeed7v01v9zHHDr33J4iwsc0nkesNU/6Xv6J3/wBw3x6zlCdSTyt6OL/TfRbeZQxMrU24q3LRfT9jrV5XpQpR6035uNn/AOp6HmXeGYFSr01Juccy0b7u/wCyNPjvC1OdellUY043+It72cctvPW5z+GUcsYtrXT67nSni31H9L/LMcSwEKGIyRTUbOUb6ptRjFW9Zu/+DhYrCK7WZq3e7v6a6/Y1vHLTSlzjz/PQxnEMTGMn83onr20/Oo3UzB/FlGybvflzWnPp5bl3h2ItNbWelji0a0Jdn3HWKyPe/T85EsWVvozvFW7+zaFY4XCuLpq0nzt5HazGQVwWxmwWwHbBbGbAbAK4iO4graMCQbI5AAyOTCkRyYAtgNjyYDZUJsmwkXJuK5or3NdguGKjhfiS1lUV1pbKuhZNPTyXjeOtN0c2275f5Rna2Iim7vT+/oafxD4eTnKcE7tt/Xe32MfKhaUlPdO1n5FkhddXB4qk/lclryd/Tc0eAwqcoy3S19jB4Wnmbv5mw8JV3klBu+V6f9rWn9yWHNaa4U4aFb4pYo1E9Lkxqs/4mxLhRaW7tFebe5h6sHFrvuzdeLsHKUI5Fd507dtV/cz9fgdeWjpPs042+tzU8MVzKkE4ppWlda9U7Kx0Fg4xWqV/zqdXhXh1pqdVrT9MVsnybfPyLWJ4HKTbWt+uiRNWRlIK0lJbdDWcLxLlGz3XfdFalwVxVrXff7FvhvDJx0s9PUVFtsFsGTsA5GVE2A5DNgNlBZhEeYQG8ZFIlkRSIqKRFJkkiGTACTI5MeciJsC7wuKdWCkrptaJZr9rJm78aVrZaa0SikkYrwtG+LpaX+ZPsu70NL4rr5qjvydjc9M/rI4qFzgcV4JTrayVpfzR0f8An1NPViUalMxrpjHw8MKLdqjtzulcs8N4V8Kq5Rk7OOVp83vdmglAjjRLqYq311LNJqxQxUtXlKcsQ4puUrLm9rDXScWxpaWqVyRQOVwfiLm7Rjmja+flflbmdmYcr4AkiWKRAp9R81jKpPhroTwpLcqwkW6cioznEoZZuxTbOrx6CzJ33W34jkN917/YqE2C5DPzQLT/ACwD5hAjAeiSRDURZZTniVJ5YJ1JdI7estjLSCoyvORFxarVpSjnjFRe6jrbs315kcqtyoOUiNyBcgXIo0HgukniYOTWl2vmSd7d9/I6fiSaVWSvfX3ZxPDOJUK0W3z2S1fn8ux2+OayvlS7vVv88jV+qT242cCcbgVZJcwadVXObaKpGxGuhYqwRBYK4/EuBwkm43T30bSv18zlVKLm/hyW9vZ7mrqzsjgYqtFVMz31RW+es8O3g6SpxtFFj4v9LOdhsUn+llqM31DlVmKT5MbEq1ldCpSf8xHiJOT+1n7EDQff2ZcoeZRhr0/YvYZWEKpcdp6X7Gcl3NRx6XyfmplnU7W/OhpkLYLY8pdvpoA7dfqEPcQOV/jQgPTaHBnPWtNy/pWkV9zrU6EacdEklySsSYenNtt2St8q537+xX4lJpKF7veT215KwkbrOcTSqKSls/xWM3Rk4t05bx27o1GMp2dnzV15Xtf2ODxWl/HFXlHVdLeXMIGKb2268vqFeK3ebstF9SpHEZ0nf06dh0wL1DGNSWW0fJXfubTHU81KEm3KVlmbWu3SyPP1US2u/Y1fBcU6kHBpJpXaSS+tv7l/EUsTEpyZ0MWtbHPqu3mc3RKq3JgTkim58yOVYAcVXlJ5Y+r6FL/R8zoxqRsNOSsXRTWCV9NCxRU46PVdwnWVtyKWKb0SGpV6NfSwlfkDg8Mn+p/Q6dHBxCKkO/15lyj9QauFtsSUIAU+Px/5e9va5k3JrT2f2ZvsZhVUg1zMFiHlk4tbO1tdPK5tkGb0/OgzBkua29/UG4QriF8QRB75O0IuX08zh1NW231bfRLVs6PFcRrlXL8Zl/FnEVSoKMXaVV23taCervyu/wBiqznEuJynXdZXyJ5Irk4x3Xnzv2LDkpK62YMaEHSUU7xtpJdf5l6lDBVnCTpy66dn27MkrViriI/Cn/RL2f5+aEly3jaCnFp//H1OZRqON4P9a0fZdPPqEWs1tFv16dl37m48E4FxpzqtK3dJu/RSvdehh8NSbkor9T2528kt2et0sJ8HBwprW0Vme13zSRrmJWO4jUu3Y41aLudXHR1ZzZo510irUTIJwkXHEFoyOdKnIBwqHScEM6aZRWo4NfxNt/Qu1aCyZdrbNbjwwUX1+pHJypy1d4+4Q2EnbRvU6+Hmc/4Wt0WqLsB1oST3GdK2xDQmW0aQUEZLxRgcssyjaL5p7PujXJEHEcIqkHFliPNZXX+AW7+ZPjqDpycJcipIqFcQ2d9RBHt9SGaWui1bfRLVnlfiviDxOJsr5do9FFaLX372Rv8Axfjfg0FTj/1K2mm6gn/d29jOvhsYxhe14XbfVvWXpcnVbkA5NRiktIxWa3JbJL6P6FHiVDMsy3XuvutzuOOWlqtajvryWll9Le5zY0nlzfw3aXmt0uxmKrYTEZo3f6l+KRQ4hRyv4qWq5dV38gqydOpmX6Xv26x+xby/EtbW+1tdDTLu/wDD3hn+pq5mlkXzSbW/bM+fY9D4/lUcsdElZJHH/wCHHDVQoyaavJ7vkvR2XqWfENdJu937anT1GZ5rIcQjqc6SOji6lyhUZxrrELQMkSWGRlUUabH+H3JbDIA4X5CxFHMtSSOgakmrbFRRw9XeLLkKZE8Onp7k1NOPkBap6FqnIpompyLEXIMIgUiVSNIyHi7B2lntv9TLOR6TxrCKrTaa1WqPNsRDK2is0OnURGIqPRquJeKxU6z/AEQ+WC5K2kbfv/tJ8RG6aYuH4b4cIx57y83v9vQgqYtObj9Gc7XbEOMxE29dXtHTm9l7j8RSio0ltCKT7yerZNRnFTjKSuk7+vL3sUMTU3k99X6hFKulJOP18+3kQ8Km4y+HJrXbRbdddk/uXcTh7ONt1H5u93+5e4Fwl1sRDZaq/OWVcu3qa5Yr1Lwxhvh4WKfPUz/Hnmlu2avGVLU7Ll+WMbxTFJXS3OnXpOWexisUpMtYid3e5UkcK6muMKIpEUUWMDFWHRBJFiTsRQnyYp1ElqEWoNbk8bM5uHxN9C3Sdi6LKhYOGjI4yJoamozUjloHTmBGI6RpBykedcfsqsrK3ax6FJcjzrjcXCrKPK7trf2NJXPt3EBmHDL07F1ssW+b0Rnak3f80L/EMQ5SfSOi8+b/ADoc/NmXe+xyeiOjTq5lruRyesb7XTfpr+6RVnVcfMmjUUldFTvnEsX8StGyus13pfSGuq9EjdeC8O7TqyVm3pffrty+hiuFYZyc8t7tKCSf8z1ftuel8MwaoUo0+iu+7e/mdOI5U/FsT8tuXsZHiMNe3I0XENe39vIzuMux0vLlVirNFuu7FaRyraF6BRlccGxFHlI56aiq11HcCnXjNaMA000RuP8AC9n+5Cm4zt/C/wBy243IK6ovRrfZl+nPTUjpInjEsQ0Kl+RZpTK0HYUby52LEXP9RbRE1PUpRwsS5Sp22ZqIkSMB4og1Xl03XbzPQrGH8Z02ql+25uM1mhAjlZbZ6p+pRcmmIRyjvVnFx/5cn0tb1v8AYr8Pk7tdhCJCfVtPBlGLxC0/hb9VY29f9QhHfn041ycc7uz2ODjtEIRnpuOPW3IJiEcq0juPEQiKhxK0OHTm41kk7Xvf0EIRHbltcnkIRFSUtywhCNQqNEtEQgiaJPFiEajI4sy/jPen6iEbjNY6S1HEIrL/2Q==</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTExMVFhUXGBgXFRcYFxgXGBcXGBcXGBcWFRcYHSggGBolHRUVJTEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0mICUtLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLy0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xAA7EAABAwIEBAQEBAUEAgMAAAABAAIRAyEEEjFBBSJRYQYTcYEyQpGhFLHB0QcjUvDxYoKS4TNyFVPS/8QAGgEAAgMBAQAAAAAAAAAAAAAAAgMAAQQFBv/EAC0RAAICAgEDAwQCAQUBAAAAAAABAhEDIRIEEzEiQVEyYXHwkbGBFEKhwdEF/9oADAMBAAIRAxEAPwBCcLYk+ypmJwxdUc46beivnEXBrAOoVW4qIYYGoXKxZGnXyZoS0V/zeZOMA+UvwOElwlNKlINe0NNt1qyNPQcq8G6uEc53X9kPiaDgcoF1cqNJjWh2vX9EurEZsxCz82hal7FYpcMqZvVEV8KW2cmmMxhDgQAAlmIx2Z10alKTCuxVN7I7ClZTwkkkI44UAJkprwW2NeF1Zsm1WgIkG6rWHcQmGGxJBus/b3YtomfRdKJw5e30U9KXkBqYs4ZUFiB+yLhJ+wIsxmOskz62c2CccRwuUw6wQLKtOm4Te6OMLfq0XFAOIwjQZcIQWMxQIhv2T3i2KpPbb7/kqu+owHorpN6GRdgtRsIOqUzzgoauwJ0ZDExaVsBdOXJCcGRrorRCwFQh0AuXBS01tzVCA6nouELRoKRlFQlkLgpsMSHLcQsa+6hTG/nLp2IkQUsdVXEmEntg0SPIBU2GvqgblS06pCNrRGgx1JqxAGsViri/knFnobgamUH/AAhcfgSTEbBM6bIygdpRrsNAzHUyVyVLYDhTKJiqJa6w3Rf4eGZjqn2GwgLrhZVwGeWjSUzuPSZaTsU4PEEsuf72CLpw9t9bqV/A3sbYKLC4YteApyT0ipY2L8bTBGVB08I2QN0z4qzK7Nsq6cefNkaAp0INrRFBpB9VppvE6IzEODgC1RYzEhzRZZgoawouOi+O9nWHGY2Rf4V03XHB6XNmR2OfJ5dR0VJbBaaVlz8E8IaKZxFS98rGnciJJjZWWtQFRsCmKbtiDLSe83HqheAUIwmHnTJmPqTN0c2rBt9NfQhGnPl6XpHQx44LGk1tnlPiJ1V9RzC0tLCQR3FlW61F880r2LxXhg8tc1svgdiW3kEHcGPYqhcfAaLtgoO5KbcqMebG8cqfuVHHAtGqUEEmytfDPD+IxMua3kvE2k9uqsPgvgFJtdzazRnGjTp6rbhxSoGJ5xRBFoKIfTtdep/xE4VRbT/lgeZFg0X+ypOB8OYp2V3kuM7AfnKueJpkptlWqUj0Q7gvZuHeBmMAdiSHvNxTaYA/9ni5/wBseqmq+H8M8+W7C0Q02LmshwHUPHNbuSkS6iEXRsh002jxArYCZeIeG/h8TVo/0PIHpqNdbEJdBWgQbp6qeq1QAXR1VstQtl1YIHldGqVw2y5lWVRhfK3TWFi2wwrISZTKYUWDLBS9tVTeegkmwHZFX5So/OXFZ0lRlWWTZ1iiWlZdnsWGAHqEbGdh90va+5hSYDF6hcBOmGqbDKFGGE7wo8DROYSoMbXMcqY4CoMrSdUTl8BJK7HOIwgLAqpjuHw+3dWPFY4hsDoEBnBBJ1RY5DnTKzxTBchJ6Kt4DhjSfdXXiNTMCPZJsNhspWmE6Qhx2Qs4IXxAMJhiOBZaatXC6TRT02WPZmBsg7zsb2lRROHu8uQVJWG43T5nBczp7qPjHCw1tk9ZFZmlibRe/Cjw/B0iCSWggz2JH7KHiuNZRIc4Atm8a/mCgP4bktpVJktDrjUhrgATG4sjPE3Dw+GgSXbza3VNTVNmzErpML4ljmk0wzKZ5g46BvrvPRKuIeDxiqzXBzS2OaNJSfhppiS+qxuGocpqvcA0uk2aTrckAevUK9+EeOYaqweU4P5i0EEGYMTYoMKUZtv3/gZnipw4/Ax4X4ebSZlgWFoVE8ecKqUnis1jgN3NvA62uvV6lSASdrqt8W4lSeA2eZ3wj8vRb59RwWzFDDzZ53wTDmtNWq4ilTIzOIu7sP76K3SXiWCKYHKBv3cd/RV7jfE6tD+U/wD8bjzNtabTJ1SrF8Zq0WNo0iQ43Ltw35Q3p6rD1GSeaSV+k3YMUcadfUPKtd5qG31n9UdAIANukb/uk/AHZ7vknc/9lG+LOJfhaFSqSMwaMjYm5sxvuSJ7AoJrXEu+Lv4PJfF1dtXF13gyM5APZtv0SKtlhQPrOJJJkkkk9zqtNbK18aOY/Ns1CaUqcsQIATnh9EubYSqlKw8btiCq26iJR3EKcOKCIRp2Rms5XGZTGkonNhEUdgrRepG0TEqFzVRTNkrmV1C1lUKOpWlsBYoQ9NpvcCQdF25xmylxBB0QjyWkLzilstse0wMl9URgWhuvsl1XEBzWxr+iLdUhohXOQyLpjynlIlLsRFyVvC4mURiMrgFUZWtDPKATgAWSghhIITKtUgABc0agRd6mDaGGEgNAUzwMqWPrwbaLWIxZcLIYZOTG91UG03gBCVhnkFCU6xzIgVBKepbFdzY18JVzRc5o309Rt9JS7jviQYoVqOHH8xwLREgCSGzIFtfuiKOJDSDMXCJ4BwMUq2Ir5eXN/L3JzXJ9pR8pSaNmCUeLEtfwmGYanQfUksdNM/CQ865GiR2699lLwnjWA4Q91LMK2KJ/nOJ+EgAZLTcAAEkzK9JwrqIBfYvYBO5YSJgdDBC+ff4ocKDMZUrUwCKpzu1zNcTBEaEE3kdY9etghKKuTszZMilqKPcfDfjrDYx2QFuY2ADg68EwemhXnnjjwpiRjC8EupEcg8x7AwxqAwgyD672Sr+EfA2NqtxjjBEhrAc19C82tabSdZsvbsXh6eIpw4wdnA3aeo/YpmRNq4rYMJJOn4PG/ENXEfgm06xNaqyIqsa4ksE/GSLkf1bydN5PC4bicM1xMVWS0kdBoCvR6nCPKAzQ7/V1VC8Y4X8G7zabSPNcQ4N0O4dGloP/ACXKnOcY01u/1HQx8XJNPRbOFcLexoe9r6jrQ0RHbWBG6oP8XC8sYSbF2YgHUxAntEx6qw0fFb6WHpSeZzTymxjqdwOypHjPinntjX9FrwSU1zkq+DB1WRRk4J/koCIphb8ldtZoBqdE5yTMknY28K+HH42tkbZo+Ir0zjfA8PgMMAAJ07k9VJ/DrhbsLQL3CCb91SvHfHKlesQTYGAExJKP3HY1SsrfGWB3MErw1MEppi/gSZr4KD8EmtjStTASqvqp/OJCgdTUiq8gpjTAOBZBQWIpXK5oBwsN0xrcOf0QVxldlNMUhi04J/wng7nOkiynxnh8l1hZTuq6LUW0VeCsV4w3hM5RP93WIe/ELty+CwVqeVbwtDMbhM6uFzESpa2GgANC8/BVsGMd2K6eBMqenRIsU1wtCyx7OyqfyFSBa1GGyFlKpZdmmSIW/IhSLCuwas6TdbrOgAharMIQ+ImFmk25UxcnSCHVuWyEFYrrDTCifTKbFuPgC2S0X3up828oAyF02or5tCm2mNOHUPOrMYSQCdr6XhXerVOSIhs9dBpeyrngWi11cOdENEiTv1CvHEME4tmmRfbULrdLilLFzRtwTpNM8y8UcZrYOoa1PmpVGczSdXMiCO8ZvovO/FHE8a8tqO5Gva17YAs14DmgmOhC9j4twXzaRo1GtcTJYDYEyJE7EiQDsTKg4l4eo1adOi7mDGtbmOpDREmN4C6uKNxsbjx87PKfCvi+vRcA+nnZ/pAB+gsr4P4im9GlRf5kExUIa0CAZMSYhE8RoYTBUS80hYgAWk9bneJulHCOFfjqlWqGGnSqANqVDbkAjyqA2sILzcyYiykk09ByxQh9RbvBvEa2LwodVkZudl9GkE767I3jeEbWogESWOaWz6wfaCpMLg8sMpuyMaMsAaiLR0hS125AA64kXB79lg6hJl9PaZ5l4tptGIcRbSQevaNlVsc2V6D4z/DCvUYXNzWN7ESNFQ8WxoNitOPD7NmGeO22KqlA7BF+HmsGJZ5osDMFFtBEEQu8LRa6pmdHQI3i47TsDtNMvviXxnTbR8ujcxFtl5RUqGpULjuVbv8A49hBSHF4XK4wpKdbZpkuMbZFWw5c2Aq/iKJaSCrW15Fx7pfjaIcUiGb5FOVqxHRbKa4DAFzhZG8G4TmcrzwngAbBIS8vUpeCoxvbE+G8PglphPWcEFgeifUaIap2tCxPqGzTJprQko8MDG2G37qathG5dO6cOIAhBvMgoO6yRdAdCzRIWlM1tltDzY7kZUpnVdubZP6uACFdhNkDxyiY6SAadOAuXiEyOEUGIwTglyjOtEYtqGAoxKYHhziJWU8Ad0isl+ALYnrNkrmnh5F0xx2AcPhSxgqAwQUHFp+oCU68mzTy6KJ4lT5D0K1HYoeewe4gKuVqlRkompTHRDOqQi5cvAEppjngFVtOtfQiJvv6K4+FOJOLalFxl1N5E3u03bE62t7Lzeljm0/5jvl0HUqV38RnNqUy/L5YID4EuM9Daw6ALvf/AC2+3v50acSbi37HpXEXNHOYkfD6qrfiXZz1vH2/7U/Fa7qwp1qUPyj4Js9pvY6Bw721CV1OKAEhtGu550b5bm7a5iMo+sLrxkkdnoYw7dp79/sH4rh9Ko6i6tz+WXHy4kPJAADuw1TrAcNc6HPIj5WNs1o6d0D4ca8jPVDQ4n4RByiTALtyrIaoGhS3UnZg6qSeV09BNLCNsSFwaTHGwED7qoce8YOFb8NhhneBNR1+QdLakq1cBaXUx5gkkX6X6IklZm3R88/xFzPx9ZzZF4sSRa0jp6KrHONZXuPifwxTp4ghwkO5mE3JHQnqP2VJ8ScFbIyhZn1KjPiwHNLRRBiqn9RRHDqtQvm5TqrwEtplxCL8M8McTdu6r/VY6bIsiCcBXLiAQZTLEcMzDRPaHCQ2DATM5S240WLqOoUlUSZcqlGkUhvCC0aIGrgxmuFdcVVAEwgMPhGvMndZFla9LZmU34FPC2BjpCtDcXCCZwwTIU1VkCEGV2rQ3noOOJWhiIQ1NvVdVohc+eSSkHBsNpV51UdR90JRxGymzByfDLehnMjlYt5FibzkVzkWkVwSuPNEwEJWqaLimSDI90Us7uhbbGVOqFzUrhA03OzQu6Ql11azctFbYwpVBC0agmIQ7aYBsfZae4gpjm0gthDnDSFEabDqAuKuJhs7reDZnuVOSbpA78BYwbI0Cgfg6XQLKzTNitMppjrxRH+CL8HTOyhfw6kflTCnQAuVsUUPbT9iuJ5r/ElopNY1gEGXEdxpMLzFry53Nbt/17le1eNuECqQSYgWXmmM4QaddocOUuAP13PVdLp5xjBRRsjjfBMtPAHYujh8zn/ym/CCIkm4aCdlrifHseWt8trcpaCSDLr7aQFYvFeCP8g5SaAZFml2V2vwwfiht42PVMPCPAmjDguaRmc4tBEHJPLbZMSbk0MlCKgp3/j+SvcK8YVGMpsNCoXE5SLbNDsw7fF/xTjDY7G4nlaGMbbNGaY3AMi+t7eisuH4FSa7PlExbt6ey27hTmvBpnL22KOpITaC+EeHaDACxoGh7kkXJJuT3Kf0KIaICX4AkATP99U0pmQnoBle8f0x+F8wgk03NNtYJh35z7Ki/g/MDXzINwVfPGGZ+EeBrqBeTF/rZeR4fib8E/L8dB/M1pNx1g9fsVj6vpu5uH1f2Lnh5Lkiz/g6Z5XBdnDsZZoUvDsTRrjNTdPUaEeoRgw7TcrhyWRemSpiVGhUcQTYbLrUQnLcOzYLunQabEKu3L5JwEdfDAtgBcMwZECFZBhGM0XIIJiEztP3JwE7ME4aLTcAbkp65wUNd4AR8IoLihDTw5mCujw1xNkbWaRdE4eoUlY4SdNEXwKX8JIXTOGubdN21TusGIMwQiXT4rJSFP4F52WKwtZ2W03/AEsQqExqtGpWB/dR0KLSdJjVStotIkeq5alkdaCptaO21BnF1zUc6CRr+i2YAzD3UzOeSP8ACupS1eyqZyypDWyLkojFVoJgQALrhlIGOy7fTizvmBWyKaVWSmDfimmB1Erp3EgBYGyibTBGmllK0EDLltGqGLk35KVkmD4gHOgAld0sfleZCT4SjUBL2mO3ZOPw4awOcZc5Nxzckvathb8hhr5hMKGjXLiR0XGCYRmJ6WC4p0yHwOibbdMtMD8QO+AWEkwTsY27qqcc4IaoEOAA03IHpoJV+xfBm4nD1G6Paf5bujrGypvDcNWFU0XAucTe2u2vT91scGoKaNuCaa4lx8NvLsNSdF8gEfaf76o+tMdNkXgeHtp02Uxq0X9V06mAbroq+KszurdC6nWP+UZSfMHpYhYaE6DVTCmGepH7KJFMmw+UW/v3HVTOqgSTYDX2S8y4201n9iosfUtkn17+6tyUVbIo8nQgxvFXVa8jMKTbAHc6E+hC848WsDGZIFnEiNgdvy+y9BxdcNGWBOYADcdV5t4/xQ84t6N+oLRCz4cjnks1ziowoScK4q+k4PY6CN/0PUL07w74np14Y+GP2M8rvToey8aw9SbJhhcQRZOy4YZV6v5Mbime+UmtC0ae8qjeEvERgU6rsw+VxNx2PUK51GuMdFyc2KWN00KlFx8hMgqOodwhnUTpdSUgQElyvQFmwJlSOoNtdcCVzUfcKk0iaCaeGBmVumxo0UFN91y6uAmcl5L0SVGW0uucOZ1Gi0MTLjCgNe5IsFXJXdlXEaEFaQTcWYWJvP7h6F7fM+INElawdJ0Enlbe53PZEsc/mA+HTTfsei2yr5gGaA0NFh9iuXxTkvPuOsGdS5JneLdVvA4ktBnUW9kacOI5djJG3rCgw5Ly4uAAgRG99UXbqaoHjvR24kAtEjeVjcdcB1hFifyUbMZLiGyNr6FC4pj3TMC+iucq1EF+LQ0w0lxgW3RTKgMylHC6mTPLibQN1qnXzgX1PMe/ZTFkUEvvZaqrDatIaRYzEdAuqVIFpMnM3qoqOJmqxuYAXAnsEXhyxxNxrB/dNhjUnr8f8EVMjpVzmnaI0RbaQ+I6lb/ENa5zctrQeoQj+IAghtpkz0A1T1FQ+p2RtIKxlQsptdTvDpgfcxujG8UoZpLIJ+aB9yk1biNOnTD5m+m90OwNa7Jcio1z26wI+Js7arb0+dfSmFF2qLlSqtIkb+6xjAbqmYHjPknKDyk77foisb4gqEEMAaP6iZNytfejVsuiz1MQ1guR6pZU45SzWBeOug9R1VWdSL3SXudF4OnsPRGsDRrYoO7J+C6RYm8Vpu5Wggna2vqkPF8U9rjzEEaWke6WPqOdUAZm6mIkD3tsosdPnZS6+lz2SOpyvhTNPTY7kQ0s9V+d0gtJ/IzP0H0Xlfimq6riKjteaG+gC9twUODuzb/8Tf8AL6LynieCDDVJEwTBGsk6/wB9EHTSpjeoVqipYcEG4ROFElc4qpFt9EXw5gzCTruulZjSLZ4YwwLwHNttJkH2XrrcOBRbBuBb9lSPBnD+cPFxlna+ok+4Ku5xLZDQJE83ZY8uRSdGjt3GhWXkyZU4qtgKGsA0ka5iY9eiiZGUm5i3qSubfF0cuSp0bFc3n2UL5EAm5RFCrEZgL3HtspCymHNqObMiw/VVVoryaFExrcrrD4IkX309VK4h5noDCx2IgCLXTeMPcJQQOMO5lzvosp0JN11icTIZvButipIBB+aCB6TCFKCdIrijsUJ3CxZ5jRsVpM9IVIW0cXUDQHE3F7wDp+c7KHCYp9OnVBdJa22mheJ9wHKSpIZdocWiCAIP/kgfT02UTcAHNcXuAzy05fmAIcI92Fc7hNv9/fIW34D8BjQ8OMiYEgiLGPzUWLrtYQ0yTpA+32XNdsk5GtyOaAADDjLhkJn/ANSOxkIBz3eby/G2A1x0OUlhJ9MvqJKa00qf8kcvYaUqOd0SAZPKRsBquvIDpiQJDYNtAJifZKq2LqtDjkMi9SZL4m5tsR+SJrcXFSD/APW0Al+8REfUTKLjD/cCpx8MZvohjDlyh5Bk3nL/APqEC3Dg05YLi8HoTY97KbD4hriCHSTmzOiwhoJB6SD7rqu4tiBIdczJ1EDKR8t2lMeOMvwE9+AOvhxLR80OkXk2BEfdbptc1+sMs2Cd+33+i5qF4cyo1wdliZMA+nZT1HSGuMnM7LEWEWEemtu6Ssau1oBEVUEGzgZIgz/pGp2W30msykz3PQyYbG60yoM8FpMzM2IcABobA2+qFrYlzy5picrOadDmyyANLEKUtluSJXYAvIdp83+VNiQW0qnzQJ9CRcDtotvx5pSHakiIMx00Gv5otuIaSJAOax01Jj97JmGEYvWmFjcYys8/pcQDpY4806p3wvGBwNM2EXnb0Va49wjJVdBIAcYO+punnhSq2qDm+NrSD6jf6fqtmO2ackeLHFKmWuBj4gDrdHURfr9lxjGBrWnMQI06dPdD1MQ1tPNMepuVqiqAsaYd7WuIb8du9oS3HYMlxDiQf6o9wm3hOm1zTUN3uiZ2BEgfQhO+J4VtRkOn1EKZcPdjaY3Fm4S2VgEsolwNxGY9QbWVC4pgn1qmWk2XPdfoN5XonGQxrG0Kcy4hzj07fVR4AUqbHwLNa4kxeW5pv0lpWfFi4Sp/5GZc6aPCuK8OdTrVGEh2T4nAyASYAlWXwrw2mRLhJtYjY6kf31XdbhxrOzBs53OqSDOYkgSR6W/7mPQ/C3h1rGte/wCIiSO2ydLK5L0g4kvqYXw+mWUwBDS3Q6cgtH99VAMa2crSI6+iV+LsfFUUc0NIgwYuTy/cD2SXhOLdV5mNysBjtqAfzH3WNSdts1KvBdcTqCNRB9SRAWUKgu7ezT2MkW9p+qGGIa1o1JtIG5MAR0Gll22oGCXHUj/cQ4T9lllk9bo5M0uUmG1ILTntDuU9QVDXZIAuCGi3Tol9PFyC0k5S6b7OBsL7aox+IEh97G/tt6Ie9auvj9/oS0n4OqTy1gm8dfy+32U7n5+cwBYfXp90PxU+aRTpkSHXk81/i/43WMouFEBlwM7nTJkaAD3A+qvlLm4raX9jESUKTC5xv0aBpffv/wBIqoxrWAaOJ12Lj07wuOHYEtzB0dQZganKB3/dYazchMmRmnscsfkR9U+EahtUFVbI2UswBFwdL7LEVgy8MaGhsRbln77rEShrf9FpRKrga76wcwfEOWNw3PnzdjBP0R1KjDXU3uzMBDhJjKAHMLQ46ajZJaLWsmo18S5liCdA8RImTlcSj3Yl1S55mxB2mPiBg2Nx03WFSjV+4tV7hlFmV0xlDfhN7NaQSAL9Hf2Ur86XPc/I1wc8TM/M8gR8wiI3+pRFTEOIGshpgDWCW2PUxm9iO6g8mm6oz+ZlqDK8tc1xBLS1tzrcUz65/q2+emFpqhnTyglznw5tgbQ5phxDndSSfuuHtpNZmabOGhGZrgHAwd5+IA69rJVjKzg99RzgWOA5f6ZgDlnUBoJHVqko4OaUU25jq0SBzZrHWNDN9ZKpzfgrV+AvD12vaT8LZGpIkGCI16i56Lrh2IeAW63tENtlltu5kIZrQAWOLmgmzSZ5ZBMHQg6W/p1UBcXHlHK0EPN4IMAGdbQe/wBlOVpAL6rHLHUmuBhrgbEbHbQakmNdPusxWKdTzNYYaIcDbYugkAaGL73PeQhQysINjnBBOt3j4TvOV0zuJnruuD5tNpkZgSHGO7WgRBcTlOlhI9Ue2WkC18QXNLgOVzw8OdJMiM3N0JyiOx9t1GlrLNglocCTZp8wBw0sZZO8R3tP+Fc6mGAOJYRGUSQWF3LEfDBEmJt6KM8LxD6TWkHNczEtLS7NlJdF81NpJ/1Sd5JQ3yK47tE2KxcNDnEFpBLp6yLWvEk3CDxWIaQ1lIFgJBcXExsYsbn0+ylxpcxjaYbpn5hc5s3UTezrdlHw7A5S19V/JcNuLvcOUeslpvYz2U8touXmvYi41hyyrLntLXCQBqHGDAMfT+4q1LF1KGKht8wh3TKROa1v8q08drNDjVLRlLHTHyvGVpBIvms06dSq5i+HeZzDVxytI3YGnYbh7DG60RmosN5m3ssj+LCrQe0kAtymSdGAHOfZrS6OxjVVKr4gcHAPaHNEOAnleO3UH/N1YOC8K8hkEF7H5c7tNRJgdgGtPUPOxQzOCOohmHeWVG80aSQSMr6c6ENgR0mdBDO+r2EpF24JxAOb54IBgSNizK0x7XI/3dVbQ6G1TGbLt15QSB1kfmqXh6Yp0RkEsAYAYy7aW+GMpEwRZWB2LyU61N0jNmabw5pNGeUixiCBeeULTjyr3/fJTkVPjPHKT6x8ozLQxxj5gBMDsDJ9CoX4hz6Ra+wqERlm7XCxIFgZebHv6qv08N/ML2iwIc6LkuPK5w32H/IdVYuGhzKYdMkZXtEgBoMARfQZgJI1B6rnz6hyl9gFNNkXDqAp+ZyFoblEQTlu6TbYQLqyHFtFLPnDWtEC8ek9Lz9Ek4Vi6jP5p2iA4GRlaAba/D11sl/EGEjOXSHXhujpft1Gp9+tkcOr4R8fJb6jRVOJ0q9WpJzObBzOE2kucAJ2jSO6svhwimYdAziHNAgc5gujqHHToAi8BSAc2LtbkLWg3dkJIBnaSfQxsVwzDWktN5s6Q5ki5aSb6wY/VZnmWi1nldndalUPmWDXMkEfKYGWx3NvsVFRquNMZzBcDIg5hlETE/1Bu3XumOOp/EQZptc0hos7la3OfXMQPQd5QDGP8wkNaKhlsGZIdufSLdT0SskY2Lk9m6LwKcudAnubl3xDboTNvqnDPLcQS4B3LmYQ6dReRP8A2l7Kry5ufLaWdi4F2Yu1y2AP2WNc6m3MYgwQDcNdnDWuv1vMHTuqXFLx+oqKS2OqFACoXmsRmMyAM0EyGCQYnrPX0JjssAMe5uYuMAiAxuUlsZTHxNtrY3VafiXlxpySDcXN+UxA+Xb3RmCbUdzEzBFzIDnTMtE6E23tKfHJukhyyX4Q4DyXMHNlLSGukWeTIGgHp6hZUIc3KwjUujfLvPe0e4CXVOIBgaxxIZcsMiNS0HSIkgadPVDGu9wMkBxIIBJ2jOHHLa4JB+yZ3NEc02EAtFi99pFoixsRfRYjcNiYY3KCBFh5ht29FiijGvJFRUzUAw7C4HMS94AiBeLnoINh1UdHHE5jF2hsiLHM6/qbrFiwrbEp+qv3wdDEZi4zBm9rFzibekfp6o7E0M4pVpytzhr98xBB0mwnbTdYsTF5f4v+h0fgH4m8m0AZ3NyHdpY2HjXYlpB15ih8KXyQ1xeWmSSYloDr33IAWLFJr1oCaXMaUaBq+YNWNac2xBcAS5voCy291tvDvLa6zTJF9ZBnLYwfkCxYncI8b+z/AO//AAviuHL8huHptL3Cw5S7I2YktaSb2n9SusQxrW3AIaM4nmghxBIBssWIYv0yf5Kj4b/JxTxrgw1HOJGfLqYBAO1vlP1B7KCljWNdLszho12vKSMoAPzENMk2k9ysWKKb1+CJ7X4CDSHlPJORufmInMAGkHLG8k+w6oDF4KC1hs3USZyudBkd8uX79SsWIprSL8pP8EHFcOxtBh2eCanepN3EyddrfmgRhnZWFphlIEvbu52ZoaB0mIJutrEubqS/fYVdSDQ0VS1lS7oD+W0nMHkA9Dlyyf6VFXOWRV57csWyC8Fpi1h9lixDJ3EbPSv8DSjLqTqgcMoA2g5ZE+tpHopK2Ic5vNYvNiDc5gPhdEiA0x3KxYl4ss1Hz+2KTbiLamH5TAtUDQGmNIZ8R6gT6mJUWMxBYGvb8xvExAtNzOxH19FixF/ua/fIMtRQSHZ2MLOrbHblk33MZb/quK2GLHMa42B5fUvcADHeSsWK5LVgx2rJizI5jbkuEjNu0kBkx3N/RS4ymcuc75SRYlp+E5e0hwA/RYsVcdSG1swjLmcdNLCIkF2Ye/5fSCmC0Oe6ZkGmdZIIAH+kQ4fb2xYqe7XwgF5A3YyWsDQZMOEkXcYBzSNAQI7Iquxri0ZsjSA2IJzTzAiNBAnY6rSxGl6Wx8IpxDaHlMa6o5hMFrWzEOcTGlyBE3J+UWuVDgqpcX3BYJMxfZ0XuZBaPb67WIk/pX2IvFEmAwjn5G1Iym7QbjPAcJjUGfuRvKjbTc9jhZri5otud7jo4s+ixYrrVC5eaF2PqZKjmkOkdHCNAVixYgaVi2tn/9k=</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExMWFhUXFxcYFxgWFxcYFhgXFxcWFxgYGBcYHyggGBolHRUXITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGy0lHx0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS03LS0tLS0tNy0tLf/AABEIALEBHQMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAECBQAGB//EADoQAAEDAgUCAwcDAwMEAwAAAAEAAhEDIQQSMUFRBWEicYEGEzKRocHwQrHRFFLhIzPxB2JyohUWkv/EABgBAQEBAQEAAAAAAAAAAAAAAAEAAgME/8QAIhEBAQEBAAICAQUBAAAAAAAAAAERAiExAxJBBBMyUWFx/9oADAMBAAIRAxEAPwD5/CsAqQrALCS5SHwhkKQEYhveqhqrphDLZUl/eKQu90FEIRqk0KKoQ2OhS8yoKAqCVMLoUXAq8qgClSWJVC5dK6FBZj1JehqpJ4KkYa5c56XNVVZVUjBcpVZtqqCVRCQoAXNKsHJGOyKcigvVS9WrEuaq3UF5VmuSk5F0qZVSouAVsiq1TKkkABcqqzVJUKSqueozpTiwLsiEXqpqlSwctQyxC94VIqqQrmqgaQuFZEFQIqS1ygrmMLjDQSTsLlehwXsfiHgfA0nZzr+oAWdhnNrzZldmK2Opez9egYqMPmLj6aJD3SfC8wJlQbhdWxU2AVqtMIbMOXG3zRZDNVzKoY92g+dgtKhg2tF7nk6fJRWnQW5J1Wddefi/ss2kBq70COyowCwk90JzJUtoxEfkrOus+PmD/wBRwFWpjnE3b2vEKQztCq92ojwmN0eW/rHNryJgK4qEAeER5KadLfVUOFlwtOsDUpmq88ofiG7sXOYw6GPX+VSrSiwG+kfNCdsHNIO0fyNPVW2MX4uaY/pCdL/ndBq0y0wQQeCIUU6jmnWy9Ng+oYeswMr4ceHR9I5H/dp8yE3qz8OPfx56eZF1cOAW57Rez7KNNtehVz0nmA14y1W/Zze4XnGmUy7PDkYkLmkBCaJU06biYAJ8gT+y0hHFUDwoK5jE+UhwhVTDaJUigUoJjVbKdkak1WNkgqAVMK+cBVc6VasJZVdrFOdSCVJf3Sq+iFDnlFplSCZTTXuBCGxHa1SbXs/kotzEDMZh3AWX1Tq76bi8VHarT6WAaYMTlcvYD2Vp4hgmm1xcM0i5EmL8G6xmvTzfDP8AZj2o/r6LmED3jB4o/UOVNHpzq7w3IHECS0QLDWZ8l5HH4Ct0zFe+bRcGCxIFiODEibL0fTPaWT75hgxI7HQE+Uos8tXzP9A6thaLGPYaLTDpz3D9Iy/+IK8/nEW0C0evY4ucZOaZMned+6wjUtO6BzDbg50kAkDUxYbXOyCByV2aBr6Tv5I9CgDrNwbzv9xCy3pdrREyPuiFwT46dsACNZBBtE/neyVr4ONE4tUa/X5dvojU6sQMoJiBv630S1NqYBH1/PNRxVlOZ2+qawrywg6G8G+4IQmHaw85sjMqAG8mBeeDomexU4tpqkuayAPiLQQ0WiJCSw9dtN+YsDwNjz800a7nRe4BDTJHh/tA0SD6UiRzv+ybfOxSfiu6njRVfmyNb2aAJA00180i4nUWBTDhe8+uv8AJqjgg7Q/nms7afGYVbiCRldcbXNvRFpMYXAGwP6grPwuX+UFrPwplc+uY2aXSGSQ4mCLHaeZ+y1cDUo4XDvfrYydye6zfZ+oasUzcC3/KzfbbFe7w5pjVzxppA1T7Zkk8gvxNOu0VGiHEnNwq0mQs7oLv9L1TpetTw49eaYFQA3KHWxEmyAXKzWpDhUKuyd1YNVXlIU92qOplQ5yu15QSwEIzKiEWmJQkg2QFUwl5UAq1GNE2ys1IOdIVzhKgbJbCyW30rHjMaYNj+6+jezXtBSax7TLKpgTAywBHpefovilQkGeF67ovWG1gGvEOboeYRuOvF/FfQPaKr7yk6kCCHCSdp5XzPB9Mdh3EO/uMXERYr1eC6w0OM5Xa/FIbbSR+ryXlfaXrRkU2ZQXSAQTvsI01Wd307ddF+qVC5zjsLD/CSDdyLc7TGllWpIEEkmIE/L5/yrUWRYAzGh2I3/dQghE5QXtHYuE2m4Hp9FouovptJ+IN+IWzAcjkDdeR6xSe6pPwgj0kcLV9lut1KDm0qzQ+g8gTbwOJEEEzGkeRK3Pjuaxfk/D0mHxzS0N7SDzMawdRe54vsorVGyARqT9ATr5wsnEOZSd/pTlDiBeTlzOyz3HYcpvD1w4tJ0G/ExeyGoM/DftePzuEI0yLfvwnGuBA531kXPe9ht/zFU6214POlvSZ7hFjc6JtgH973Ppupa+45+kK1amBcQJOkiPrdBJt62Rh1eGm0AmZn7SrCmCTrA0I5vDTO06oJH5/kIwbII5EzxxJPnqoKupDYX3vA9ESm+J4I3Mkm2o5QqWYAE2O0akcpetiAASYtu7Qa6BS01Uqg25MDfy03MQsz3lzlOaNePQ6GPNJvqnEVmUmmMzg3WwmxPAMTunPafq1LDu/p8OGOLBlc/8AQD/a2LOjnRP1rn10P0vqHuXTczxpzqvP+1HUffVW9tr2krYxmMsKpgzlJiLGBtERdeaNI1qjvPVXNY6r0PSGRSHeSjhk8KGtytDRsEMTK3HEZlKUb3cIdMIkwlKlLuf2TIdKggFRBZSlMNwyIxsJgVBwoPPAlXDUNlYBSzEzYNKiJklR7tVqV8v6VzcVy1QQW8IpquIuTCqMQ0jhVc8fNBVMDUKtKpe0qWAuMJh1Ex4BdZbnKauNYweI3j1VuiYN5eatQEWimJ/Sb/ws3p3Q6tStmqjwg3v8tF7wYYNbPA+ysdOJfdedxbfETFo0V8HhyS2Sb6c68T2KNjIJgD1tv9kWhYAbSTYCZtfk6bojTD67/sN2LKjhO8O0n1BWb0w5nZPEWxLiLwQJaZFpmF6rF4RrpNvFqHDwu9D3Wc9j2AimBHaGjygLpO8mMXnyZxGQtAFie8yPLYz+6pgic0DYxOnf5oOFw5gmoBJ1M3HZp2013TlBvfn+PnAC5ukOOfGkTxJgTHmunmyHcCB+fNU9wfK/z9VE3TjaOJP3+aWxLxmgkjXaQY4JHcJmhhDEifnKpXoOHJ4B01/lODQG+La9+P8ACksg3JiZ8vz637SfDAgxliR3FtvurY3DE3Vi0k6QDBB0vfTXfRZvUKuYQbA20EEn/CdewtsbT9e6DjqUtLZEGCNTpIB7GDosln0KTqYfVZbIXFtzJIEaHWIN15xtQF7SQTJ8RJmSfiP1K9A7C1adEuLi4biNtJvt37rGqYJ0NNJrnB+wBJF9DC68uHbYyitQdlnMHQ7zBt6QjdO6YaRJJknhMdI6UKLW5pzvu8cNAMgD1Wrj3MYc4l1Pk2dHJAWfG4OubmkWNJ2TDWwtnpeCZWHgM9tCtP8A+uAbfIrTjbjylPDucdE6zB8heoodPARzgRrCti+zygwDeFB6eF6WrheAla2GcDGU/JU2+jsnthnCQoLANltf0h4KTr4V0qyj7R4d1BQHFqkVDuuD4uBMc91l0UrOzakoLn9yie8J2Hn/AIRaVAnVKJjDFyep0YiRomGujyTPTqOd0nRZrpzynDYYnaFq0cLZGw9MXhOOowBxuqN5iMPh4Ft9kPHvgR6keS0KZAElJloe4uFwpv8AxlHDZpif8o2GwhK1qGETtDCmdARHrMoanDFGC/I3QH4cAgxa0xH3/Lr2H9Jna1kGBmNrG8SfKwWD1vCGkXNcRsQ64kGBIEai9v8ACJ5PXOR559IT4dNz6qC8NgWnvI3IK5ri4+puY1MofU2y9kG4ERqANrlLnrRwzDs3MZgACTJ0H1WVV6y5lf3RpjwkNdJ1M3Jk2MEi0DTunen4sh7RJtBkah3KP7RdCGIZ76g5heD4m/C90ifhNjedCdCtSbDM/Na+Mwwo+7qtj3dRoc0bOaZuRs7UR2SzyHaWEc2WeTiKdJra7XAD4ZGgIDtjwR/+kz03DONNr3A5XyWnYgWsTxceq3HLqncNRcXQJkTYE7amAU5VwxnxAg99eNECg2o0trAmx8JO/u9pjUAi+uidxPWWtq16j4eXZsozFwipoZ3yg/OOFrPA15b2mr06BYCC7NoeRpvoe/YpL3rSAWzG2mgki6RxdR+LxIYGkhpy6E5RoXH+0XW/7S4bDUqgZQcQ0ADe5a0B2VsSBYlcrHXLJrLoYiIEiDt95hMBjRpOp7b7mdI2/AthjNMzGYE9jDSdI7R8kI4wuikwS9xIBsAdDptv8llaeeQ0G2u8yYHmrYGCSDo75eSuenvgEkDUWki33vsEQYTKbXiDMev3/ZSscxmVwg5TsR916DB+0bmgMqgEf3Lz+NdHi3GqsHAtjXj1VfLneY9HW6q3URClnWWkfGB2F142sS05SfCdOyBVZlvK5/S38seJ4x7pmNDtHT9FL8cfl3K8h02uZ1WtUxQWp31z4lF4l/Dbp9Teh18W4nb5JLCYgHWE09wT+5L4rN4z0+aBo13UkHhQTyrbStFZguCjh22v7oGFIJAJid+CdJTYESO601F6dMErV6e0ApbCUphEwtz+6K6c+K3MPTDXZSNbgp3FsptBGYutaB9LrMxBcactuW3Hcbjsj9Mx1Ou2CY7HY/ZHp0s1WtimGmQ0EE8n7I2EYAI2SuPwopE8O0O08KOn4waHaxChzcrfw1KdNlrYbDQdLfmix8DWvIK9Hh6u7j+eSzXs+P0PQw0GwufS3eFi/wDUCgAylTYPE0VHkxeDAHyMkjW02W/hazHG8QPFfS33XmvbDqz6lWplIgMyfd28CbTHAC1PTh8+7j55g8uYZnQ2SDaSBebWk3/yF1ZniHME+iBhX+NwABJNxvvb9kxiYMObqBp2Ko40OnLXEi8xAAzF20ACb6WWnh8cQ0tbJzDbQwedJv8AVZeGxOQh2QuINrxB0nvGvoiBzgS0nfxCxMm5Mjc6ytRmtDE4cuyuc7MXEjLwGgfEQSYM7geu2hSe6GsNQlosGj4ZcYytibbz2WPh6omDJcbNgwM2191SnjRni5NwZubHkaBalZx6LEve2mKYeQ1pc4kEb3cGzzHZJVXvDMjC0t+I2EzI0m+gGiUxOLOVubNcWJJEgeEEcix+SE3GZh+oAiwzZpj9VufpK1aJGscWCBTmAASbRJ18RFz6ryfVsS33oOU6gQJtLo1PqtKpjbEZso8PAMbgd4jXRZOPBAcQ7/TJGWZBe5sgSDcQ5x1izSs9eWmnharn5qbj4SLTAAdcgu3AJAvwUf2NoB2IuGg5CRqZcBlJI0kCeZn5YfTWm85g5xBcTbTTX0Wt7HY0NxbW28LgJkAjNLXD/wBguV5dOb6eq6jhQwkA6mwggabDbXe91mV6Vo+3Zej6yG5zI/8AGbWsAfzsvPYyqIMEmTY6eZ/dEdu+Yy+ofQiD6zCr06pNMO4kHzFlXqEU2RqT9kk2v7ugB+pxJjzS8yH4kOF9nEfNCqE6JJ74yg/3SVpNbdLn0vhgQm2PPCAwJljQqsC03rRpVRCQFDhGY0hCeM/qOVweSEb+la0S5Lh3omNL0zCfbiZM7/dZ0cI1F5Gw+VlotjD176/VFq1sr50a7fafss12JzgAgADi0nudSjsrGIixU1K9FgMUAIsf3Va3T8rjWo+FxuWnQ+S8+2m9jppGR/a4zHZpC2+mdbFg5w1iCdws+Y689S+z9PqrK9M06lnR8jyFg4htSjc7zBtDgDC9VUwuHxQ2Y/lv3Cwut9Oq0aYa7xsEwRySTc8/wmHvm+1+l9VDog5XcH+V6XC9RJiRe99bnf8AwvmLKsXHy3Wvgepvb380WDju8volLHjc3J4FxtrcXWI6oD7wk3Jdc3nW6RwPVzUOWDa5OwG7ncATclCdiwC5rjrcRaeQPzdM8Rrv5Pt4eZqgmZkCYBB3F7b33V6Byu8TzltIJAIidCRYomJw8utcEFx8JJESQPlv/CVDXAQAcp2kE255EJcRy3wl+V0l1jNouCb7/Da+pR6HUIY6k5gcXwQ6JyxGYh2zjDdtoWa/EOOpaGssA0XcTuZvwNOVL6wizYLW5ny482hoHhIG1rkypHK9R0ZiGmbwdIHIAgX2HZK9NF3PILgeLG0Cw4SNfEvqycovsJA/tEAaTH1TNHFFmodIAALiCQ0GIsIF0jWhXcakAnKBcDYnb/junGYnMLZWiTHMk3dbWYETMLJ9446F2UPiR9Z5ix4TIdoxtQPcZEQfCAbSb7TppCbUs7FOMNsJNyQfpa8mBG0LPxWMcagzEtLRcgBx2gQ6xF9FDMSJEDM79II1O8H62VKTJmXEm5PiESS4uDQN8v7HlFWi1HGC5jQbS69hN/hbcC/l+yH0TGNNY5WkQx5JJJuCDIyxImNQTccJOriZP+m2ZLvGQ8zFg0RIkzfa42Wj0htKmC4E5shDswAAmMuUHQ2dO1xG6L4W7XucbjPe5SSA0iTyZHfVYfUOosYIBkrGf1WGgCDAvwPVZWK6iDpA7/wsf8deu7WhisSXmXfJBr4mIJ12HCzG4su+HXk/ZO4TAk3cY/dMjjb/AEY6ZS947M7b8CbfVubrv6gMaWtlJOdBEa7prN8HDXIQnYlc91lViMC7cURpPzKM3qNXlCbAUl7eVZEpjnyBolGETwESpEW2M7oN1qIXlcChAK7yI38kpPvAdh9UyyqQIB/j6pD3kI1KqTZrXegBn5qxqVrYXFA2y3AJJBP4ITDgxzHFnxgG4dFiIiALnzWQ+g6Bd47ECAe0KHYKrHhnuRI+cpxKDEVqL4ZUIAbmMw6CNZI0+npC1cD7bvjLUcCD5x5Gd1kVs0Q8P7ZoI0iXGLx5fJLPpN1ABEaESJ57IvMPPfUepxTsPiBmYGtf20P+VmhhYbmPPhYzMMGn9QMW2v8AKYTVX3n90zoCCeN0ZWv3JW9g8cACCJBAkCwMOBAMXItz32SWMql7nOc8ucIAJJNmw1onsAB6QsvDV3ggHfcftOxTWIqDKSdZ/CryLYvh8Y4E5hq112iTEG0ffZQzHNgZ2S2bgyAdJEjSw5SofMAH5n8hQ8SBoeNJUtanTQx3u2texri4tJd4Wta7wySQTFyfku6hgKdz7+D71wyu8Ti0ZTJfYEXgADnSBObRqQAz9OaQPD8RtMm8WFphEb1JzLBrLHUNbmjieLpg1s4X2Yq1g0M8WbcA5AbiPeOi/b916On/ANLamTM/E0mmwIBIEE7mL82Xi6ntNVyta3wwIJDjLjJOYzoYIFrWVqftjWa0CCXCqyoCTIIaPgcABLTxKcanUeuxXsFVptkNY6BfJU9486/o1jsvL4zogaLvbT1EXDhEagiw8QVavtI50Pa5+a4cHFkTB8TQ3LAvaZ01ss2p1epVJzgukGc+Ui3c+qWftGpgOm0HPAqVg2zjMuY3M1stGYDwguAE91mY2uwANBdAaLF2kTYCL2tM8cLPp1tYY312M7KhpuIu/XtyiyjWj/VANGVpDROW4GgBcJ131j9kjiMZPi5189fRQ2kQ0DeXQSZF2gEZTbgzGwVWYdrWkGXTG9t7covK+weK6i94i0cAAD6JRtzqnamGLv0wOwUMwY4VILRsJlb37rQZV4SNHBQbLV/oCGyNU4tLud2sqsaSU27Cz6IuHwwRgAqyGoAqHYLSfSVqTANkYcZrQ46BX9w5aLhEQj04jZM5WMg0+EN9OEwX8KHOtolgo1XDAquCqkiNaBsPkjNxZ9EJoV2tQT1BzHfEPmtPC+7izQFkMplNUmHlWNzpuUsKx3HrdJdQ6IwzAieP4XUzH6kd2JVLWrleTxOGdTdBntxCoJI8t+V6fElrokAjhBd05hE5YPDd/NOxj6vPU2zpM6pl8uabCB4je+oH3TowrRewPc2S1ehfVsk/C2TH55pBQMETH3XPptIHhjXzvHP5da+E6LVc0kjKP+60+mvCJT6TlmYPlB17fdQxiVMGDzcKHYGxk6gEd/y63XYG0h09oMqv/wAbUAz5H5ScoMENkCYmONlKx5z+l23CkYQ+X5IW7iaOQf8AcUkxmYwdY9LKWEjhxPaT8rfwjGm0Qbm15ie0FEdRMj6bqfclILUWCR+DZWMh0aHgaI7KJKZp9Pm5QWYWT+WRqNNwFh9t0+cK1pRg8AaIOMw4Mu3t6pin01qYa66MayD9QBQa3ZEc+yq8yoawqKQ5VcOEX3as2knFqrPJTqdEdoC6BwtYzpV4MrmscmiJOiK1oi4Ri1igFWDeURpV4CNcsDbTBSuJwsXan3OjRL1CYRpmkWusjUnBLvUscptosqwiCpKRa5OYOs0GXNkcTCUYY9S90CZhF940mwhDxDARdR0szGBzg1sk9gtPC4cMEGpAN4OonaVn4eGaEAk/EbwPJaODwWIqeKmwPaNzAWL1JXTnnfQnuaXBd9B9kWm8tnIxrR6E/PdKHHljsj2ZXC0QoONvYT5aLW6sw27EknxSUSnSY7a/nf6pakx7oMQJ1P7JyWtF3X+Sl7CrBpJtAJ7CBrtuFOFL2mQZto43A/5j5oD6on4rcJmhWaA52doDWgZSRJlw0Gp2TGaVxFEVL/qsC2b3Egjtr3SL8IGnMCLaj82TGKxrMwLW24J+dxBH5dIvrFx1ToxWswO00XUmBsEagj6KcyrKNWLBvZWbWIsrDRRZKCc4kq7RKiFdrkYdcyjKaGHG6GxytBKZBriwBUlGdSceFDKXZIBBVwVZzUWnRndSALlwcj/019Qodh4CQqHhGp0swmEJmHTVLCdj81Ynn2rlC5c2XFVXLlkkqi5i5ctoY/ZFpaFcuUTNLZGraLlyCVqfCV7D2K/2iuXLy/qv4vX+k/mxvan/AH0k3UKFy7/H6jHzfzr0w/2R5LKdoVy5bvtznpn0/jVn6n1XLkAqVC5ckVZXYuXKiqXLmrly0EqWqFyCPTR6OqlctMma2iDS0XLk0AVfiTmFXLkIUoY3XLluAUaolXVcuSn/2Q==</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGB8YGBgYGSAbGxsgHh4eHR8fHR0fHSggHR0lHR0aITEhJSkrLi4uGh8zODMtNygtLisBCgoKDg0OGxAQGy8lHyYtLS0tLS4tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBLAMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAAEBQMGAAIHAf/EADwQAAEDAwMCBQEGBQQCAgMBAAECAxEABCEFEjFBUQYTImFxgRQykaHB8AdCsdHhFSNy8VJiM4KSorIk/8QAGQEAAwEBAQAAAAAAAAAAAAAAAQIDAAQF/8QAJhEAAgICAgEEAgMBAAAAAAAAAAECEQMhEjFBEyJRYQQycZGhgf/aAAwDAQACEQMRAD8AhbdCQSTgUpc10kmBQZtnFD79DWx2EpVzXGscUONfNW5gmBXQPCdmppoJ2c5mlHhbwyl1vzVEz07CugaW4hCfWQCOa7MeJx2SlO9G7LhDZqn6boCVJeedRkrVz2HBFWq41FpchkhauyTNHWSZaHmAAkZFVpNCdnGrxxSMKSQDwT1pXImQKvHjt5kuJQiDHMVQ7pfrhNeZOKjNpMtFOS2WC1cxJrV5oOgx0qNhpRbnA9u9LGr9SSUjiaRY9q1oaTD9PcLJOYobV9SU4ZJmg755XNepaJE1fjcdk3tmqSSKKsNOLqto5NF6HpPmSVccCjbJksXICc5/KlcapvozRIz4OdQQowU+3Iq02PhpGz1Qe9H3GpJLfp5jilYun0on0gHiatHHCMr8G+i2aOEBvYAPTiKoeg2DTepP7o2/yzwJyYqZnXfKJM7iRn3pNq6vMX5iT8gcii/yFpoZ4pIzxjooduj5MZAntNW3SNMTbWsBe0xk+9KfCuhuvEOFRSP60/8AEGiEIncTt7nFPFyacqJlJsFXH2uWlblKJye3vTvW7rUGiN7qShWPSIiodOuQy5uI6VB4l1py6htACUg8nmpxmnDfYzWxpZWi3GjuUTPHWtfDd0/aL2vghpZhKuQD79ppdputqtklDi0K6gA+r8KsB1S3umCkkDcMyYNdEKoHQp/iItTiQW3CBwQDgiqXpliVkSYrzUrtSVFG8qSDiTOKk0u7jG7FRyT8oPFhmtaMttO4Kn2qtaLqC0OqUnnin+q6odpSMzjFLNIsdgKnjtJztGVZ79qgssuynC9I6dY3CVacd6sls7j7kVzLTbJDk7jxwBT9L7ak+XCwgc+rApNf6Wpr/caUVI69x7H296t68ZVZvSlGJ1b+H92n7MESPRKfwqq+OHE+fuFVS31hxpJCCRNCN3alqlZKj708p3GicbQbeXKlZ6AVHZPGZmK8ubuBG2KhskeaqJ21zyjvQ76HLusLCYUQR0JPH+KV2KUl8F0+lRyen/VavhTbmxXx7Z614dOwfLWYkwTnk9v7RVY7EpVstPifQ29yW7cAK8ouLM9JASPrk0v0zSilELTJnofikTeqPtQoEqxtUrr6Senb+1Mm9deczIEYgD2B/Wm9l3RpRb0ANqUnBphbWyF5UBNRu+rMV6xIribfGinQ60nU3WfSg+ntXuraiXE7czMz++lKUXQTk1IbhMT1pYZ51xFlFPZaP4fXKGnFJVyoCKuWuatbpTseMBXcGDXLNG1YMuhcbo6Vbk60zfHy1oKYyJrswZFwUV34JStFY1y3ZSSWlSD0maSotMbz1p14mtEMqhHHMUoYZcdIQ2kqP9PmudqptVv6KRdRJdYeUlpAGMc0utLYkT1rXX3HWyG3BEcUV4eXuyapJvoCas9LEjjNRuIIpopvcSRVf1V9U7aSLb0yjpFn0i5CEwDzQN44rzN4OZpS24oJBqVF6Tikaae3oRu0M3PEC+D0pu7rinrYHaMEj95qsXVrAmiNGclCmz3kfrWbaHxP3Kw2xCVfeJSenSfxwamuLFfKCAR9PypG484g7d8j/wAViU/4/CiG7lRxH4TH0mmcbWjoTp7Lp4f8RllEEAge8RXmu+Nt6doSfVgDmfwqq6ghTbe4q+9EDvNeW6VeY5uVADYCAsgJE8/l+lGGWaVCywxbslun3HA5uUlvYJhJBjrz8f8AVCPo+5CZJQnkkSVTJPHAE5ojTmSGt3mJdbU5tUNhgDiE4k5iVGe9DujJCRiAkjcVJAxkmPUTAwOADmhyYyiiG3YQmFn+bERKgrggJIMgcz0+tGuWQSdrgb3rEpQmRx2JGTGcEcUXYNlLiStHpBCd8bNqtuCrO1YiE461AlIL7hcTcIJT/ONyDtA9SRkJOAQPmtyYaQuu7FKjtGHEfeEnI7iUifpQqrQpgic9gfwpxqKVOuhJDgaWkAnAgiTuB6dKFU8orCQSmUyJ4kGD+NBSkgOEWSMMeWgTHmK69UjsOxr20tdmT6le+TQDjTiVEugz0A60axcOQAJH1AP0xzWSb2F0tIi1HU/5SPp2/wDrTbwbckqCSlKtxAzxnHGKU3LHmEBYV8wPz/waceH2UMKC3CCE+oAHJI456TVLqqE8Ns38YaWlm4UgD0q9Qqs2tuTcIb4lQFO9fvVXD2/6AUkuAtDyV8EGarOS5HLTouninQW22gpPIx8zVOYsXkqC0NqKSYmMU51LWlvpSlRwK6D4MDSrVPEgQfkVRRjkdoEtKii69o62gh12IUAkjqKK/h7ZoUh4rIV5SzyckHIJ+s/nW/j3Ui6vyQIDZz7n/qq1p+5sqU2tSSpMKg4OZIgjrjPIg96V5IRyMKTaNtYWkNtARvO9So7Faon6ULbrAT0E5/T9KZWdu0YKzyfyqG6QgqMEAdBHSpuV7K417mCtP+9EfaBFHDwy7s3hP0NJ0NKKtsZ7VzyxyirrsXmmiZobuRiplJAHtUzj3kgBSeaBeO/2FSdr6AkeWT+1zA3U3VqPqBCQlQ6pxSpobTiscuetV6jVg8ht07uVKjJPemmh6ghgGUkz25qu2bu5ea6B4Q0tl5CwoAmY+Kr+NGTlyT2aTVFU163VeqlCTigtI0lxJKQDI5mr+4wi2WW4gdD3o6ysTCnNozXd6Km+T7JXXRza4uVNq2KEGoDbBZk0x1pAefUpIwMf3r23sFFPpE1w5MDjP29HQncdgFzYKO0JySYj5qy2X8O1kJVvHQkR/SgGGlpIJ5SZrpvhrVEutgnBGDVMfpzk0+yclQo1HwchTJQBBjB965xdaY4w9sOFDII612vU9TQ2mVGq39iS655pAOMVWeOMnXkR6OSaop1bobCAkxO48QBJx8imXh+0eTKnfudJ4P5Va/FOnNSlQSJgg/WkOqXBQwAnPeBwK5pri+KOzG+Stg+ovq3+YoDaEnaFHAnH9e1aMXwUlRKkOpBCVIAytZ6f+qQJ9zXqvENs2NpcDzih6wMge33TAHallleMEhLY2EuAgHHHbAxGP3lapdD3b7Hz+opQVJfZUEuNjI9QAAONvSJj5UKCF7Lno9USnYoQpQMyIjsBFQXj7gcUlTitpTtAAlQ6gj8D9SmsccWCSpIUkwknhSAQN3qGSqCTI60oR1ZOodUGghflIStJC+AtKklPziSDQNrrrrbd0FqDikbUpn+Uk56QQImvLNpbjqA2tZQ2lOD1IMyeu6AJ6EEd6X6neqZecaZbC3CreonO2f1zA+tBbZnpDHSvtd0pDhUlACSFxAJ5iUT+/bru5YqV5aUgJhRO5BlPv/xBGR74pN/qd600bkFKgnJSoGfj7og0wTf3KnCXGPIcUkeWU5k4JzP3e4ina+BUye4s1OwCr/cTgKxB+QcVVdTsrlpZ80wnptJBP4GKtarJBc3NukLChvQeJIHHye1TaxbJUESJX+P4YrRnWguNlPcdfbCFIVu3mNq8xx/en4t3TCpnHP8Aarjp3hZK2UlfMYjpMf2oXUblDIU2YMCIq3pNx5PRzZMlOkV5LRbUCqhtbu0qIAp/rlun7PvByBM1SFKKs0k4SjVg5prRK2+QqKuvhyyuUo81s+lWdvQ1RQ2R6jXS/CviFH2cIPKRFWwR3sSXQrt7Rd06qTCuvtQN/oDjbhRPAme9Eo1YN3KnGyIJzTvWnHHElYxKenNI4w6e3YytnPlLPfFTPuCc/wBY9v0o7T9NAtkOLncUyQRBGaSXr0K5/TqaXg49lcb7Z2/WNXZbTEjd0A5P0rmt5cpSvzdu0ySRxTfwJam4cU+vI4FZ/EBpCVJSRk9avmi5QU+q2c+N+6vkR3bv2ghaRCBUQbAk0Tob6G0FBFR3QSVQjg/lXFmp+6x9p0DwDUbNrKsDmrOnRm0sFYMq79qTWxVuBTE1KWKUZJS8hW1Zq3pYKwCIM1etH0lVsFLQoqKhkdMVW3FFR3EQetWTwvfKWopUcDiu/wDG4KTiuwTi+NhX+nLfUlbojMx2prrFyGWFKI4EAUzWBGKrGs3yVuIY5JUCR8ZrtW2SekB6B4bhkqX99ZKj7T0pah5DS1NHEKx9a6QhACPpVFFm2q+JMR+tI38DL7IPsoWSYI/Whn1OMZaJk9O9W7V20JbJwI4oXw+wlw7jBNcMsaWbXb8j3cTnWqX9ytQLpIjgdKas+JCERB3ARM10LWtCbcbI2j5rlN9ZBokKUIBIk4qsoyg7j5JpXoh1TXV7QkDcteKBvVu+WgREiHOoT3Md/wC9BNX+5SlNoKlDCevSpmdQSlsKV6isklU4ls4Ed5mud9nZBVEKt9BQlwPWoC0qTtcbCgFzP3k7jzPSag8RWKwwfKYdBBncuPSZnGTn4qfVrS33SFyVGVJUVencJn05xgAdJoiwfDTKm5lCpGZKTjkbiYkR7TFC32NSZ64+24hpxACVBGR1k8/nJrayAVJ5z1gxxx9aWW6ShKNqQZ5zwOf38UwZdAMjv9KnJFExpb6khklRniPkxg1XPDmlXLrrt6XEthRO7eJSR25EgU4v2gtBHMjrMD9+9CsLWG0oIVnG0d+Pz7D/ABRg6WjSVsw6u2tXBeKBvSCny2pEkEJypZESAcV46X7ob1+kxvQ591J4KSnqIyIPQ0QiwICFKVvQiVmEFDu9JkQMFXp9JHWoLrUSUlULVbqKVJkeps7oIAiYEdfemVeBX9kNvctvtOPrbUlSElKkA87CFApMTinVq6FJCkkrAMAkcfPeO9IlquUKeQlsFtOUSASYgmfZaZFXvwcUOh0JSEwUynsYz+RTTRhzdCTk4xs2s9TUE7Zqqa8j1FUyTVs1fw04klbZJzxVf1DQrgp3FEUZY8qSTVnLyRU7m8WpOwqO3tU1qEhszHvU6NLnJNROsAYowlu2FR2RXS0lECpdHtFOEIHWlijCvard4StVKKVgYB5rLl4VjaJdV8M+QgLmYImpUaqt0eS0CVEcnAA96sXi/U2xblJUCoiAnrNV7wPcNtqUVkbz3rr4RUqWiV0rF+s6ddAb3IOwdP5sjB/Kqnq+1Tk7gnAwZn8hV/8AG+sjCUcEgGOgmf0Fc9v3ApapJxgf1/qT+NJOuei0H7TqP8MXS20oK4JkUd4g0lN64nMBE8VQ2NdWw2QBNMPDeqvhK3N07jJB/SmhljVMi4tbQuvbZTLqkcgHFb2ijINe3V2FqUpX3qgZcNebllG7iXq+xyq7WBsH3fxr1uxO4dJoa0eJUB79atytMKwnac0OOXIrjuhFxTpnjOkeiSrP5VJoLSUrI4V0p3peiLj1rkdBQXiPTC0PMR0yYr1MUVFJ1TEcm9Dq4CgmQaoelamn/UVFzB+7PvRL3jUpbgpkxVS0tPnPLcWYkzAp5T649gUfk7p5oKea5hrrmy5UUmKs+jX07UbpEfWk/iSyR5iDMblZrTg+OgxlsQXd8476VOGKs/h65DSUkGcZqpeJNiNoRg0iOoLSy4QspRxu5JPXaP1rhx3DI1Pf2N+36nRvFX8QG2WTtMrOAD/U+1co1PVVXO0uuD1qw2gQB3JnOcCT3oVxtYLay24sFJKwciCYHHU+9MrZVv5XmqSQd4MIEqknANPlzN6RbHjSewu0dbtkuBUKWlO7anJGIj5NA3gSlve40oIWj7g5SoyeKO1q7b8zYE5Vskp+9k4BHMd62U66Vtq2R6+D1CTz7GJqESrJ7FpY3t260leCsufy+kRGODivA0DjeFIElS+s8q9XaQcewrWXVtOqcahal7cGCUA4PyBU2nqLg2REEg4iYMdMQZrSdBigJt3cJjB4PtU7JE0MzftyGlCFjlEgKB6iO0zmtlXyG0laglIB5Kv0j8qHFjLaCnXFBaQATJyBiB3+lHu252+YgTyJQYX0MgzEgjg80j02/XeOBNvICSC44cJCQQSkYzMfvo5XfNhLgS62jaUgkniT7YJ7UsotNBi00GreauHEJdkPNS63tVggYBKo6jlPzUWl+cFrulrStvyzDTcmSDP17UJY3LbifS6lakKCvR/thRTmM5AJOeRzRqdUKFJKA0i12kqVIB3EnAnuczTCC3U1XT/lXLQDTXlqLiSevH4jmrV/D4LCFKUk+YUp34xMRj6AH61VLBba0PsIW4lLi1AFQmSocp/9ea6X4WSGmm2ple31fPv9Irq/Hh7rOfPLVFnZblIkUFrJQltRMYFAeJ/EQtGtxBJJgRXNL3xK9dhSSranqBXRKSi9nP8ARpYtqcJMYmoNTsth9jTnwtaSmBkzmi9Z8NrUgkLEDNR9C4poMZ72c/vmR0p3o3iLymQ2E+odRVfu9yFlCuQanYPWk5yg9FWrGSm1LJWpUqOfihvJIMkzV88F+GUqQHXU5VwD2rbxT4ZbGWztPBHT5oehkcLb2Tck2UG+eShI35BVAnuM96UsOIMlUyVHpVx8XaQGmGvLXK90qJzuG3kDgZx+PeqOu7XJjZAMZT/aBTKDjplU9DjUGCltQ5IxW2mW135EpQrb3oNdworRvONwJFdAvvEzBaSw3AkQT2p4Qi1tiN10UW1nhQM+9MkJ6Cp78tkgpPHUUEXwmuDNhly10FNtEpWZrodnrCEW6VTwK5i3eAK5mmH247SB1qmGTw/9EnE6ppfihtaJnI6daYsX7dwiQQQelcZtLspMTANHIvXGctLIB5FdcfyE90LRr41sPIcITwSSKUaTd7TgwaP1K6U/BWZIFQo0aE7j+I6UqfKTcSkZUqZb/CLqVLJWfV0qDxzeJC0QfV1AqrWd3t6xHWhdU3KIV5gE9zJPx/mmnl9vFA4NvRHqVytw+kEgDJGT+PSp78o+zBDRSNkFZOQSf5Z6qPavFae6z/t7VKQvICQpWem8iJHGJqBTvmkocEAbfS2QIj7yzGZ6QM1zN2dEY8TbTFuodKHgVJWkJ9KYCfx7D+tMrR9pFmpYSUJ3kDar1KgxMnqaCaWtQGxxZQshQcVgBMxsAOZittXtbdTCHRvLTJICGx94z16xNJqyngncs2Q6LoTuKQNgglX0rW4edVcbUtHYkTuyZ+ACMz09s9Kk0Jtq4KbkJUmAUoB6Dr8mhHb18vPNqG1CY2mORmfyH50YvZmH+QtS9ygY3SJAJSfiTFRy006dwuAZ3emSg8Ex8xkUC1f+SsJSkBBEekZ+Z5AFHHUxuQlTrqSrgpj49U4/rTtWhbpjfUNBt79G8Bbbo+6spIII/rVUY8MPPXSrZ+EoahxahkKSRA2/OfjNX22UENjetRAydyh2HYR7/IqoX3jEC6KkoUpsp2lQ9jMjuBNbGnQJMt9wE2rYbt7RSwP/ABgD8Scn+9IvPuinaLC3CTMpUocD7s/Jpjp92w+kQcSCRKhED/x3Yx9JzVf8QhlkSWELOB6So8ZyCfUAI61NQ3vsflrQy0hp8q2PBoEq3JQwdsYzuKe/uaYX1mgAkszBByEqGBjbOTHvVX8P6ludSQ2j0yRsERPHoP8A/QKutH/aVbleW8pGcelJJ+BtGPgk1VxondnqXEhYWGghwEwotiY+QmAfqauHhK9IUpSwJgZ9vpVGum1FHnuBCkbvvIwof8p7GcjafenHh/VAgzuKknvkj9fpzV8bpkcisO/iBrIeUGU/y5M4n4rnpWptZKTHcVbPFL7TpCkKE9+lVhTKlmDgjg/of71zZpP1GTS+R34a8Thlfr61dtQ11TjRLaQcfjXJDYLnirZ4ZeUE7IJIq2HO/wBWDiVx9wqcUVck068P6Ut5QKR6UqE0r1BkodIUIJzVz/hsFuLU0BCAdxP6U+NXL3Fpuo6Lfr94WLUlseqAEj8ulUX/AFe4UoJcCitR6j+ldTTpiAsTn2pT4r01O5pxAG5Cx+HWrZFy6ZFaKH4ht1obQFg4kjtVCtEnbwOT/Wum/wASLwKS0EkyNxIHvtH9Jqh2rcJGOlRmvcXh+qBbwyZ6UfZpBTgZqG6QAAKK0+4G5IUk7etc0vCRrpDnTPD3mI3eZCu1F6j4cbSnc64SRxnn6UTbPpC0QIHtTtFkh5O5eROJ6V6EcaUa8nM5uzmF1abc1ffC3hpm5t0qJyeSDkGq/wCJGkBZQkiOOah0zVnrRQZQr1LyE881yY5Lk1JFpJyWhh4n0H7MRCpHSq79pVxTvUE3TroCkLWeTgRH4jNeWPlpWpFy2hCiPSAFEj/kUggfjU5JXceho435NVXFuhAT6lOKGAlJJoe2cKpbDm09UwN8ewJn8qltNJeQtKgUluZBStB2/RaAfzrfX9TtmLlK/JC1R6loXtX/APjgLHxRct+1DrEltgwswSV+SooRz/uJJ/5KQBPvg0J5UsgqS3u8zckttuLSPc49R9pimVu4m2Wblf2dTDsgrSgpUJ6KiU/jFSWOnFpwuWSm127plbZP3Z6pPBT7YpHIqkTaGp8urUsSNsIKl5P/ANBhI+lIFWIbYe+0OoQsr8xWwBWN0wQBJFG6XpotHHrpSkFAkgNEmB/x4oJNxai4D4Qp1N11P3U+0dPrQ86D/JtqTQCiUjc2pCSj/cySP5gg8EfnRtrrXksOS3/uITJbjBk4VjoaiatWrx9SXGw2pj0p2q+8kjqKltn/ALOlxzyvN2AJCxnegHuOSM0HRgfVr10BhpB8lTpH3U4A5Iop2xSkqXvKl7YUJxj26GgvFmpvIct3EkeUuITGc9pFFeItWDCEKKCQswojp7mjTpJAtWVRnU0Ld3AkZO5PPsI/CiH3nSQkt4ORGY7Z6q9+lSXWjoguNCFKEiOJ5qbT7spTLhA2j1fIqqrwJT8lq0jRHH2wXnSocbAAkfXv/SmF3oQSCEBIEEerPQ/uaA0jVyG0qbgz0ph/rOPUCCJOc+0UyBRHZeGWz95JmARtG35mDzQHiTwaktKUhbggSJVug9Oe1Hs+JGyAoKgiQR0xSXxN4iWAIWAk0UAr7rSmmxsIkZXjKj3AHB9xTvSLgusnzEQY4Uc/jFVe7u1bgsLAAyr99qDf8QOr9LYODzzSuLkFNItmnWjvl3CXAQAJQrMjOM80s0292r2q47xHwfmrNoyXvsC/NVKonPbsfmqPcNlKog84/tWTvQHRablgEFY+8M46/wCam0Vk3C9iYBHJoPRkqLZWVI2jH3hg9vmpNLvVMPlxEKSfvcx+MUVCD/YlJOtFwe0RKCEqgz1oywtG2CVY9Vb/AGTz0pdKsgSmDjP9arF7eLUsgmQnAirTUcXuSIxt6FnjO7St8FHCRE9zR/8ADnxCi2cX5hgKjPvVd1hcGKJ8PpR5zQUMbhNJCbcrZ0Ne07uwS4PMHUYrn+veJH2nih1EDpGZrpNo+gIEERFcv8WXSDqKSqCgJBA9561eV+NECu66l0kLcBG+CEnok4GO5I/OgkJT+xP6038a6gFr8wcYSmOyRnnp1+tKlIBg7eR3P6VB9s6YrSMuLhJXPlq2p6kH+2fitW7kqlQhtc+hK/ST7xzH0ottAccZK3SjGGwoyfpwBUdxp7xvfMKm0pAxBgkDv1rmc1J2U9JIhub99CR55WZ5UgBI/MT+VHX7LykILVxsaP3t6zJ+v+KUa02rzErceDo3ABlPBzj3NWLxDYIbaTcqlRQn0tAY3dCc4A/Sm5ydbBxivAv1RnyGw66FuJEFASNifqf1/KjrS5bctw8vy7dxw7ULO4qj/wBcyT8Vv4durx5harhtDiSCUJVgnsIjArzRdLu1OF25Q1CUny0DkHoB0AFDSD2eizuLZaAwhT6liVuq4A7QTJPyaP8ADemPhbjjzaUCZQjaj84BP50h8La5duX6231mEyNifuJ9sUn13VA/qIS288IVtgE7QR2APU0WndGtUOfEtu+gl27fCLdSo8sDzAO38tb3btsu2Is0blqiAUnYT15wPpTDxo9asstm8StzMBEnJ7xMY968ZU1c2am7FQaJA4MbPmOvtSXpMat0KfDty85LL6C0B0SQPbtB9waxrSrcXSkygqaEkQpsqQRz6TtVHxS/w7attuOJdfS4+DCNy+ojsSaM1S2fQ6h1xxoBJkFtCisgTj9PrRfdA3VkgetrJyU2iw07A81C97eeJHSi9E8OusOOuIWhbKyVoR1zn4pWLZwKUqxehKlbiwtMCeoAIjPNNPGNq89bMhpxLTkg7J2yewPcUGt0FMGsbnz0vXDbYbfALZQpXoJHE1rYWrrLCkoQtCi2SAsgthR6dY+OKPNkF2qWrxQQ4qIUkjJHBnr9a0udDIQQ9cKcSlAMACfTmQBQtB2A31ot61Q9cBSHGDJAHMdh2NJ7XxS28rY7ATGARirTa+IWF+UgEwsEQR9PUehzVL8ZeEwwC82fSTMdpqkN6YknXQ7ZeUVqQUQ2B6VA9uB9KU6jpYL27OxY9YBxI4+mIpdpOvO+QpCfU4nInqnEinjd2Ftg5BcTIB6HINNxcWDkmiZF+hgAdhgVq7rKnEbQIJBE/j+lAqCHAqckD+h5/KhLW42mVngiPenSFbDrW2bQAtS1FJER2xmkGo34WSlKSqTImrK7bBwYMJ6/qBU6bRtCMAYGK3IFFVtNFefmfTnFWrQNMRbbQRuK+esUTa6g2lsFfpJ4ofSFhTjm1xW6Mbh6RNLJthSQ5avtzixEIAAJI9Ig8R2PemfiwMOIQ0wlIcIBKxwgdcxmqgy44hLqDLhUTJOEjvt9qivtUCWyECZSOvb3p4NpMEkm7CnrBltMI9apgKUPTu5KtoxMdTHFasW6nkwkHbPIBAJ7pAPHvxQ2j3bbaC64U+vG3uOvx/inNg/uAUlI2E4g4AiZPvn+tKwmiL5wEwpMN+kBJMjuTjb+E0bpzaVNlRUSon0kDBk8R0ikFyle5I3EqSCTGN0/+o6dM96c6bdpSoNJBKyuVQcDj9OntSs1IU6jYuBXrSR89fitrNogg9jNPL2PLc3GTPoyZGf6H9KXMOjgijBNAGd3rjigkBwyOxpWpZUresyfevVW0qx1qzr8CveSp1S0gJSVEQegmKVqU5Nok0kVPUm1HkykAAD+v1/fSvf9TU36PLnbiQInr1Bre6SUqUTAAG4CccdM5yCKnsQtSAoiZyJGYpy5Hp+kO7vtL4SFoRDbQzHaaSaMvzVvm4WfMVI9Rj4immllNkQXnFOOOYTmYom98LIW/wDaC7sScwDkn5nFQTRSiS38GqCWXd3/AMYKtsSVHpUvhK6uN7712hSURI3jAHYSeKL8Z3ymrUlokKwJGT8zVR0PxO48DavyQ4NoUOR+PNUSbQjaTD9EvX7vUSptxXkpPAkJjoIEDNDeI7jUGLhT53BJVtTB3JjoAOlNdHSi2ZfZt3UrfE/e9JnoOeaG8C3N15ykXHmFCQVELTJn2JpvsA7a1Vqztk3DzSUvu/ypT6lfOMfWofCOvouX1FNu22QJ3wNxn3ivHNcbuSoP23+yk/7ZUJUfeOg/xVc8Psts3RecKtgJKQkRE8T7R2peNp/IW9oM8TaBc3F4py5dCbRCpClKAAT1CR396cpSymwcTpyCvd6QUGCScElSs/Wq+9//AKlrevXFONiShhqY9hMAT9e/xXmla9cBYbs7INtz91ZIn3Jxn8azi2q+P6CmrI/D2jW9uS1dPIDyiCW0q4HIClDr3FF+KdJ8wpf88ot0J/lPY9M8/jRes6Xp6HQ7clIdUNxRuISo9Sfr70r1TxDdJbIVaNm1iAU+obehBn9KG27RtJUw231sXTYZtXih1I5UnKhxkkGjbxxpxCbS5fAudoKSkFOekHIJNJ9QtPLsEu2bbjRURIAlZHurkCo7oocsW7m4bcCmyBIOxSiDHJBkUEvg12ObzS0Ostt3VxtWlXpUDEkdwRE0db6Y0LkOB8qOzaUFUyOmO1C2+pMXtoSlpKij7yV4UI7KHX3oTw/aMl77SjekEYSTgng/JEVkma0T6bdMv3LrRbADasY5jrTF64bfU6zhSE4V7Hsfx/Kg7fVWXHFJbTsWqQVdYFKvEF99nX/ttgpXhZ64M0VHZnLRV9e0ly3fK20kJn0xTWz1FDre0p2uJ6R16x81ZrjUW/LRuA+6MH3AP61Wr24O4rQEgDBOM/vvVe+yf8CkApcImekDkz3o5FkSSV/dAwBzNaPtblbt4HeB+teNsKXzPfJx/miCghBV5agqUjoU+r8hxRDAKWwEyvkyvFaDTEhMhYST7g498zWN6WCJS4AAQOvPesGif/UmwgJO0rHG0SBUSbzbKkrUtRxGAP8AqtBp0iA4DnIAM+9YNKOCFfkcfl+4raNTDbq6TAAUCCkgx3Pv+lU1d0UAoMx0Parm3YoGJMRlRzn5/fNRvaOnbCgCB9D07CsmbiUpFxKdk9ZE1YdG1ctlSVHaCMHoDU114eQRKSY7xx9aU3eiL7k9qOmDaLPp1wpBKvStSuCYJE+46UbYJBeSZCZJmBk8gfHzVFtWXWlgkKx0zmrGxqLsKCG9ijgKPOfypaDY/t0elxZHpKvT755j4FSOISoYEGktsp7ha1+0GB8RXt15wkpUD3TP7M0X8GGCNUFqrzFAKWEy2g8FUwCfYc0r0rxZevurS5duEOQkoklKgTkAD0pAHXHMdTStbK3ngIUgHnd0jJJnoBJovS9QQHmGGUzKhuWQApcBR6AYyfy7U10qQOPkJ1BlX2nykieBxwnr7DM1f9PZ8ttKTVNYB/1BRJMHj6Rj34n61e21pI+MZFIOVVjSWrhX2hz1BI9I6Ae/9qqLrzt5dENq2toMCMAAfrV7QhtFsbdDo3BO2ccxn61za0beacWhLayFGNwGSPY9Kjj8/wCDzfRd23/JTC/9xJ9Pf8fzrbTQyp1RDCQ8gSAD7Y44+tILxq5WUMIRsRgqX/WjbzU2LdxKRO8D1KA5wee9NHfYsj1y5F55zDrabZ5PrSrr6e/U/SjLK/faY2rfKz1ECY7d/rUSXVOqDqkpKgISesHvWzO1AIESTz1HuJzyapQoK5fp5UJM9Z/Adz+lRm+Clf8AxhAPcjB7YBkfhU7gxECKRatcbZg8QSPbp+/ajRrD1p9W1QhJM7knE9iM8Z/GpWyUoSoQtJJCQcGAeZE4HEc9qUDUw42pIOYIPTpOP70fM7U7gYBxMxj9/NYx668y4tIdTvQTtG7lOcEGSR8TTjwppQtVLV9o8xkyNpQdo6yCVQY61VLm3lwIKjBM+mBJE/nHUU7trcOIFoFK8pYMZnacwZPUH3pZR0FPYxQxeuu71XjbbSCQjYJCk9yBgGMTQXiXVnjetW7MqTKQpJRhXE+xEZmmvhjwyizDpW95qYyiOIyfTPPHFQPfxDtS4gJZJBwVRBHsBU63pWG9bGTOhWrd0pSCQsolbWNhCsTH0P4Ua7Z26GlW7ICV5WlGJ5zt9qrXjLT3HHA7ahW9tHq90mVCO/X8+9Y1or9yi3vGndj4bET/ADHqD9MUEunYfqgS4O0kj0rODAzNT2ulKWhON2Dyon4wI/GmPii0PmI9AC1IBUkf+XWO9eaU+QmSkgSBHJ+kfTFWvQlAa7MJ/wBtwAKUOYB+Pf8AfWtF+H0pwVGY9hTq6ZPIBJA4n8yKhLk4SlQVEkEk/WIrBor19oyhB3THYAfjFSstttkDYVE8KUZA+n96OcUpeScAYEfpQKWySZEnJ6j8M/HFEBGq3ThQgDM46fHX6+1au2wB7jv0/fGKIaYUPaYg5n/utlW5jPq2iTAyOprGIQqDIlI9oEzx+cUbZ2EkEhRTOSrGemY71NoLqHHSnyypQG5BAge+OhE8/SmbqSTkE4EYEfH77UAgSrFG5QX14IPHvWqrNsgJTIA7QJmeZ/eakLW4mYBgxGD8ZqVjcgRKSIziDjmPaaxgW708IIAOD0kTJrLezkEKlJ9o5P8A7cHFRhanHSlQO2BJEkCJgCZEH7xmpnlAEDaCj5z+/esY0c09AUQdyQE5kg5/L9ild3ancZA2jhSTOe5PQ+3FN7ptKU+tQKlCR9DAiDhQ7mK9YHliSkwewOOn8w5PGD+FYwlYcUBtKimSIUUz/wDtiD/WtdRukj/4pEfecJlRPTAxHsfarSzp5c3HhJMhJ9QA/pPxSd7TmkuCCnmNpMgmffj3PatZqFouAhCWjlbsAggGEq4Bjvz8RTbR9C2vpcCAkNkgkHKjB/Af2pS/ahl4qWQFH1TMmeOnA7Cnukuy5hR2lJVtndgd5z1+a1mr5NPDlotd04oJTKSqc5zHQDMj981aFlSMGT1HwfiqdYXLiXN6SY6xiOOCO2BHzVo/10DC8qGCcZ/Af2+KzMjnVjpRRdiHBsB4nJ+lNPFGsvpcS20EpT1UYk/4rKyop21YzVdCr7XcF6VLAQOo5Px/c0RdOqdVIbQD0xJ+Sf8AFeVlXUUJY0sXClsJMkqEk8z8/E4xQjroJJzOeRxz3+KysrGI3XnFr3fegQAD+nQZ/Oqxrb7hUpKhB/SsrKKA+i1+A9MtBbum5MLfQUJjKggjkDMGYP4UubsHWlqQle9uYS4RG4f8eQeRWVlL5CuiQWpncfvDIImP696Id00kBZUoLA9MHjpP0PesrKLMkMfCZhyXd5XtOUn0LA5BH/kBRvhlnSy6Vt5eWSfLWMp6wEnivKykauwrVBN74vSpD32ZEOsQVoUmCUJICgPxoy7Q1qFuy4w95ZS5uTBjIBBSffrWVlI4pdDKVkfidh15ZQltRCEBW7ooHkfIOfrUGl2itm1KyiP5onAzAHSvaymg7QJLZmoMuISMFxauqRHHEnn/AKoZ66dG1XpJjM4iM5V39qyspqM2zd5hKgEDkZz8/s/Q0P5HJEYweAfzPxWVlEzRnl4nPE96kctHSkRwSTxz9Af1rKysA0sbVLS0qQdk+k7kSc+/3cfXimeDBBwDBEkTJ6d5rKygY0WqCU7Nsg553ZEwe3yajfuwVdEgExI4BGcdeYwetZWVjEDS0JBAV6vYxAGMc54/6FasXKy2CCNpiOArmOT796ysooxEkIUjatORnj0kfp/ip39pSAlRQqI+9yB/x7GvaygwpC9xx8qS2TCJwRmTB9+/0rwsLWlwuKAIjYjbJUQR16ACTI5zNe1lCxqFeoqcUrctKczEAgDpMHIo7wgSHnAQVDYdsmO0/pWVlMuhH2aIdAwndKvUUxkAGST2FMri5UkjaeQCYAiT9K9rKxkf/9k=</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExIWFhUXGBcVGBUYGBYVGBcVFRYWFxcYFxcaHSggGBolGxUXITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBAUGB//EAEYQAAEDAgQCBwUFBgUCBgMAAAEAAhEDIQQSMUFRYQUTInGBkaEGMrHR8BRCUpLBByNTouHxFmJygtKTshckM0PC8hVEY//EABoBAAMBAQEBAAAAAAAAAAAAAAABAgMEBQb/xAAkEQACAgEEAwEAAwEAAAAAAAAAAQIREgMhMVEEE0FhIjKhcf/aAAwDAQACEQMRAD8AkyhJVynhoVxlCEVtNezkeQoFRtFEbSVoUlMU0sisSqKSmKSsimpBiWQUVhTT5FZFNSFNFjorCmpNZyVgU1Lq0rCiqKakKasZEsqLHQAUpVwUXubGUwOCFlRKZIMgkKJqy4OgAwTp4d6v0ajmCP7IBrO3KP8AauzGW/FYyg2bRmjNxud6pHBvNyDGkrfp08sacfNPVJnW3BCnWyDG92Yv/wCHORzr20tM/JZ5wx3MLvMM3MIggaE8VjY7o18nK3sA208+KenrW6YamlStI59mGJsASeQUj0bVv+7dbXsldEMIKLc5mdLKrU6TdoJjystFqyf9FaMnpRX93uZ1LA1Q3Lmhp1G/wTUTTpT2cxt7wnThwWgMUHCCYUKtBh+8ColOX1GkYw+MCzFszZhTaPBZ+MJJJaLK1VoxsgtYo/TT8M9wPBV6tArXfSQ3U+CLCjK+xodfDALVyFVK9MpWFGSW8knsGytuw5UDh+JRYFKAhVHK+7DDio/ZwgDMhJaRwo5pJWB3ApqYpo4YpBi3yObEAGKQYj5FIMRkPEAKakKasBikGIyDErimpCmrXVhEFAHdS9RFLTZS6tOaJ4FaFPDTdSpNg3n9FL1Slpdma6gRqIUMi161SVXrU2cwhavYS0ujPyp20iVdfSbGn15oRdl90pvU6EtLsnS6MJ+8PVQqdHPB4pNxztUUY2dys85pmvrgyq/CvEyCIUWEtN4+PwVwuB1JQxlGyPY2tw9aTtMu0H5h2nW2CLUkABpF+OqosrXVxmJtcA+CwaNkwwjL+8aD3jMFh46hSaexB5cO5dHTxIPJNi+jWPHA8U9PUxe5OpDJbHGPpDghmktWrh4JHAqDsNafRduaOLBmeJ+gllCtmgeCgaJ4HySeLLjkik6kDumFFvFXBQJ+6VNvR7jsoeHZac+jMdSB3Qzhmjf9Vs1uio0cCq9TAuGrSp/g+GP+a5Ri4ik2LAqq5g4LoG4SdlF2AA1ak+Rp7GGym3giim3gtX7O38KX2Zv4fVDiwzRUbRox7vxSV4UxwCSjBjzRrBikGIgaphqvIjEGGKQapwnhGQYkMqUKcJ4RkFEITtKllT5UNoatDh/LylSOIKGQolTSKyYjUKjd3zShOAdij/gL9APBGyGXq9mJSDBMkBPNhiioxsqbKfJWXNH4Qm6scErGMxpO0+Cd1OfuqdMQiZlI7/QLMPyVgUSOCjmKUlLcLQZjXbujyUcXQcI7UjaPkhyVVx/SLKYBqPibDv4I43DnYT6UKBalg8bTqzlcJGoNj5Kz1auOomtiJabi6ZWE8URgPEdyN1SXVIbTBWgLnCLC6ZtVw2RurTdWlUR5SAurHgEKpUcdyrJppjSTWKE3JlAsPEqDqa0DSUTSVZE0ZxpJupWgaagaSMhYlLqklb6pOjIMQNHGD7zovYHfyUqOMcasENFKLOkl2a1ssaarOxdI9WczRMZZbO5F9JHwtdC6NoOYA3J2LQd5sDm/pwXz8fImlye/LRg3dHTGtSOjo8/NEAYdKg8bLFbQcfnwRKNEtO5Bv3f05Kl5eolVmcvE038NQt5g9xlIBUDh7fBRpU3t10MzBOvEfLmuiPn9oxl4S+M0ZTSgsdbWVMLp0/JjqbLkw1PHlDd8BWx/VNkCYBPK1yM8UNkTVHNaJJAHOyoY/wBoMNRMVa7GuH3Zl35RJ9FyvtF+0OgG5cPmqE6mHU2gd5Gae4cbixSeokC02+EantB7W0aLCc+Ux2LZsztgGgExxnRYDv2osEZaD3WGbN2L2mIzesLz/GYt9arnqOLjpLiYAucrR91onT4q/h6ILYy7ix3JBv4Bv8yxlrtcHRDx0+T1z2c9rMLjLUn9uJ6t0B0CxtvHJdBC8Qp9GU8we3svY8uBAjSBePKPIiVuYT2qxOHblDusFz2nSRa0FwLoHNxTh5CfJM/Fa4PU4SheUU/2iYxhGalTqDSAHNPLtAmT/tXbezftfh8WIa7I/djo/lP3gtFqJmT0muToUk6SrInEyvajD1n4Wq2g9zauWWlpgmDJaDsSARPNeI4bpSrmIqGoajH5HF7i52bMR973ADK9a/aVjzSwNTK7K5xa0EGD7wLovJsCI5rx3oem0MJJGZriTuezpYd659WR06Edj0R2LJw7MVQDszYa9riWk5oioCTccpXWexnTRxdDM5rmuYcrg4EXgEG44EHxWR0fQa6i3N7j2ZnCMol0Q2+kX5Qux6PotZTa1oAECwAGo1subxJtzkkb+XFYRb5C5UsqmnXoZHn4g8iWRTSRkGIPIoliKmKMgxAliiWIxKgSjIMQRYoFqKVByMgxBZUlKUyMhYmJhOncPUbmbVAbYy7sAz/qhXaePpfxae595unnzC4bHuDqhcwECxIkAAwGyMrtDciQLgqFHCOeO7tHNnyC0k5oMdkzzuvEcEe0megO6WotIBrUwdIL2j9U56YoCxr0h31G7+Kx8P7PsbTbDGvJGpe5gcDFobaLzoFzHSvSjqVRooYaiaYF6vVsOdxJDKdIuPak3k2iTsiME3Qmz0uhiWOEsc1w4ggjSduSFjek6FKBVqsZm0zODZjXXvXnzcdiKQfUe5jXEAuaW03dXUaXA9T90lrGOOWJa0XSw1SsajixgLAXgdYcmZwc7UkWMCLxN+EIwSZNncs6WwrrtrU97h7fmjjFU4Lg/MANgXHwDRfuXDVQ17YqYfNJAgZCZNRzJJY47tFxFiN5jW6EwzKLC2m6Wlxdc5rkAWI5NCeMRq2bA6ZpEgRWE7/Z8RHickDxXJe23tbAdQoktM5XPu10DUNBAIB47we9bfTHS/U0X1CQYByiPecdB5j4ryOviHPe6o85nEkkncm66tKUn9ZlPTivhF7U+UAWAQ8O4vEndWqVEBa2KhYegCfWNJ+pW39n7AaBbfeefnKzqLROa4jQWmdloUcUWEN3PoNljOzSAqjHAWGg35/FUGOIPaJWxXxcjePAf1WTiqwPBODCSMvpD3gJMapsMx2cVKRhzRmibug7AbqvjszjIJ8dgFq+zmG7YJFtZBg2/RaN4qzOKylR3mD9vnmm09QHWEnMQZjhlVj/AB0/fDfzn/isPonpqg5xY49WQS3MI0DuYP0Vp4uoQQG1nAHd7WBkcesFvMIj5D4aM5+Nvaexy/t/7QPxRosLCxgMxMhzjN5gaC3iuBxBcK5YCQHETFpm+y6j2yx76vV9vMGOsbXBjcASLLnMW7NXB/0gcsrQLeIJ8VSdsMcY0egezuJZTPWVM722Bph5a151aXDQwGjv3XZD9oDP4Dvzt+S4roHFuo0hDfeubDhbXZXj0w8/+2PJnyS03hewtWOb5Oo/8QqX8F/m1S/8QqP8Gp/L81zTMTVd/wDrE/7Wj4hWqdCqdaDB3wfg1U9dLlf6ZrQb+/4bo/aFQ/hVf5P+SQ/aBQ/h1fJn/JYNbDPFxh2u/wBLmfAwVn1caGe/hnN7wQE1rJ8L/Qeg1yzsP8fYf8FXyZ/yT/47w/4ank3/AJLiD0lR/hfXmmdj6J/9s+QVez8F6v07f/HWG4VPyt/5Jv8AHWF//p+UfNcIcVQOocO5rFCpWw/+cf7W/JHsXQvU+zvT7cYX8T/y/wBVA+2+E/G78hXnrzQP33flb8kF7KX8U/kHyT9i6D1Ps9F/xthPxu/I5JeZmlT/AIx/6adPOIvWzt6WCBABYSJsOsJBmb2iNANFeY0sbGWIgAF06g+unKTwVKjhXtgBttYNNp3nWZcYEd5B1Vqm14BkECbEQBadhYdkxzvxXknqFnpnpykym6m7VtMhwGUtBezsh7nGBrMXMEWjXzrobA4nEPy1K8sawOphr3QWzEtIhvZtre411VnHdH1nPdUymo2pWBbUbUohucNawQHPkiMzS0i0CJkRs+znQtTDtzNblYM+aHE1A7ObNY1p7IJNmydNd98YxhtyYpyc91sbnR1YFjDlLg8DrA9vu5WmxloDhYXkjsgonR+HqNY14bOQkECSYNnNAGZxIzTIBBy67ivQwxc1jnUXhmSTTOa7QDDHDVp7Ua3y+YcPhK+HazKwVS1zDmAeHaAOgE9mXdqBa0nZYfhsXsTRIcdJzPay+hOaB1gAdTbA+66Z31R6L5f1QLnFtOk4vd7782ZsvsAXdiJi8I5o5yXtDmEOJyuDryTfNngg6iNJHCFGvg3F9N7YBDOreCSZAcXNIPHtO1466ygOd9vqThhgdhUbPiHD4kLz5zTC9R9saX/k6kzbIR+dv6SvMnGy6dN7Gc+TL6KxcFzDsTHcVpU6p3XO1gW1C4fXet3FYOrSFNz2kCowPadiCAfMTcd3FbyoyiXqOIgyUR2NvO/FYxxMc0xxXBRRVmy7FE6lDBzBZZrGFodEvlk8z8UcBdlTE2Gn0UTBdJmkHGO0RA4X3M8EeseSz8ezs2VbPZk7rdCw5kk/V/7o4cYAkxwkxbkquDGXx+QH6LRa2BPihjRU6SvlHIEeHZ+IKN0T0MargQDNyfAT5lHwY6wGAJY4Gf8AI8QfJzG/nXpvsz0c2lTlwlx+EfOVm506RSimrY7MEAxrMogADTSPXxlU6fQgBJc8uBOaIAjuIghdC9om1vCVUq03O0dl7wPNY1+l7dFejQy+653cST8VQxnS0ZmCswPFrjNB3sBrbnG6uYqjUa0k4hrQNywHhxK5Gpg2Uajw6uHG77tLbm52P16Uor6Jy6N/7ZV6r/1aGc+6XSARIk31tyjRKh15ZBr08xEgscHNJn8JZpBix2XNVW5mzmbaR7x0J0NhF9AZ8FDF4J0B4aXTeG2mQbwBxg+IVKMCLZtjEMLJr4V+eJJp0Kg/7Cb+JVCrVw2zKzR/mZk/7o8lhtrVA6CxzTzkAGYg7q3iOk67JBqOc7UFrzGkXIgbbLVKib7CnE4Tetl78g/+V9VMUMM7SuTvZubXuJWfU6fq/iJ5k5iPSPNIdIVHAl3VnXsmmPXsEeCbvsX8ei+ej6Nj1+uktI+JQ39GU/47R3//AGWbicVTgTh6BJGpptabGPu891VfXw+9BoPJ1Rs2ERfS58k1fYnj0a32Cl/Gb5wkscMw38N3/XeknT7JtdHsjag5lGZWAvfyWOKpte03nXwVhlb6+guBM7aNX7SOH18EwxH+X674VBtY6x9d8orK5Kdio0BiG/hSOJEaLP6xOX8yiwouGtunNcDYjbWFTBKl1h2RY6KPtXW/8rV0Fm6nbO3128V5WKZL8reBPdC9axtNtVjqdS7XaiYkAgjTmF5rWw/V1XQfdc5veASIWumzOaK3Qfs27EYtocP3bQHv4RmPZ7zEeJ4L1THYSnVYadRgczhw4EEaEcQqvQeEbTpNgAOcA52pJJGngLK+I+v7KZztlRjSPOemvYOo1xdh3Z2/gcQHDx0Poudr9FVaZ/eU3Nji0x56L2jy8/6KBaD9f1QtRhgjxMtm0+C0sO3q25N7z3zderYvAU6zctRjXN5tv4HUFeY+0mGFLFVGNnKMuWSSQCxpgk6rWMr2M3Gis/VCqMLzlaNbDmf1XR1OgWtwT8Q55zBpLWwBfQSZuFc/Z1RAmo5su2duGASYHgVD1ElaKUHdA8N+zx+QOOIDXG5aaZt45v0UD7B4kmOupZOPbJ8sseq7x2JJ0+vNWhUIaTAMiJt8EKTCjl/Z/wBk6WGvnNR7uybZWzIIyiT94AySdNlv9WJhp2jfYATbuQ62HL4bYSQTqLA5j6BBqYhxcXG0km3M8lLY6LOS+pPjPr801Ycp8p+uSrMxAnWVIYxqLQ6ZXxHRlGpd1Iacx4SDCR6LpQBlMDTtOdlHAGZartSowiWuvYwePgqr3jSQOYj+xTsVAx0bSa4uyAGIkG8DynuMqTcBTJlzQ4TMOaLGItw3R3Pj3QPA/HghmufwXnhsd5/qlimKx8WC4GGN4S6f0krC9pui6lWlloNp06kghwy3F5b7u8+i2HVH70+68HyQ36DM2Qb7mD3lUtg5PPqnQGOaYD89jYtogW2/9SUui8Dim12MrUy2kTBe1phs76QLruNSSPhKYGL5h4SDPMbrT2OjP1ox6vQjJJbVdrrlHmdI8t1nYn2ebIcagn/RvfbiujbXaLCZ3EH9NEKpigTBHj2h8OSSb7G4o5z/AA678bfFjp+CS3xXaknkxYxNCkQZvEclaYQdT4ngs8VBGhJ8gisdAv8AofrwXMdBp03AW17rJ2VW6XnhqqXWTbT04KbCBHa+vJIZeNS8eNo/UKbqvMx5j0KrMrt/D4yfXyUXYgzp5foPkgA78QN579FIV5mIt3ShPrNF7/lb3cU+SD71uYIJ5jkgQLpbpMUaT6p0Y0u4X2Gu5geK8z6IL6zRYve4F1hJJMkmF3vtJgeuw1WkNS05RuXN7TfUBcv+zukHPzfha0jkcxn4wtYuoNkNXJI7nDlogSTbwFlYhuzvikRBNgL9yYDn4rJGhIN2T5QLz6qOaNBc231TdYdpn6vZMROpWngYvz89F5z0vSFTHOA0L2jyDR+i9AdSnWSeU2C4ro/DurYvrBcdcCe4lzp8mqourYmuEb/tdTDcFUYPutY3zewH4+if2Vp5MOH8Q1ot3yY7mhV/bN5GGeDq57RHPNm4/wCX0WtgqXV4ai2Pu3twDQZ4XJUP+qX6V9ZOTIyuJn0PcdFbrkm5IVAuGwjnPiivNuf1wVWKizSdBc69mG4jfsg6f5lRJGocR4BS60BjptMC0z73wsEF20zHgPgO/wBUCDh093ckP9J9D3qsGHYE9xmRx1HwUWAxz59n6PggZdHGw8vXVQD5JlttTsqr36A6/Ge7ZMx3Pzv8U7FRYcdhue+PGbKFPMHXdIjR0Ez9cEMuIkgfP10Ci7EnknYqLFXEkTItxmR4iLITsQwbwDwM+iD9pI2nzP8AUoRc3YHn3oAVWpckSbxO/wA4QH1yN2nvgH1U3VMvvE8rH47qliukmNMBjiTaQ0geMlUiWW69XeSJ2sAPGFTeYOp+uSZrxAsJi+3wKr1XCfdIPeD6DkqiJhvtYFpHkPkkggs3Dj5pKiTQGIB0I8P7ohqei42jQaDaoD3OyH+YD4q9Tr1G/eqRzaHt8wSpen0ylqdo6ynX4ATvr8FYbVMXK5Wn0w8Rem7xLD/NAlaTOliAM1N45gZm/mGqzemy1NM3qDgDfteQvpwKd75mB4mZJ8fq6yKXStKQOtA5G3xV2hXDp0IteQfCxUNNFJphqVze/M7q86qIgWEQALW496otqGePgjZo10/v56lIYRjgP63Xn3Rlf7Jj69MD93mLu5lSCI7swHgu7c/nbuG/wXEe1uWnjaFQmG1abqLjpEGA7w6xp/2q4b2iJ7Uz0OtUkm07juInx1UA47iO7is3oPGZ6LC6xb+7cDclzAB8MvitF9YRp6ifJZ8bFjB7eJ0E3m4ubwkXN208UGo889RE2+PNRB1tbVABqz/3by118roNheDHkQqvslRY2g5+4zE992tvzn1U67ey4nYHhexUejHRg6LZgvzPPOCWt8LeifwX0z/alofSDtmOa7XvboP9S3ukXtDabWm+UujSxgCfy+qxelBNGoCdGz5XE+SvdIMnLe3V0wLW90Ao6GQpuJ2Ftp8EY30t9FVmkxYjz4cSE4qf7eHLn3c0wC1dr3ud+Fvh6oPXg6m5097fdKrScMrHmXAXIAAMkuAtyI22UWVhwkX8ALeV9OSBIRJGh8tPBSdiBli/6eu3ogkAnT69E7YFog8NfrZMCL683gb3ggxrHw8lKm8DhPf9fRQcut+Bufrl5pU2zNxtvEHcJiLXW2tPmI8LaKtVN+Gu4PdvIU6bOz2hfjr67oZOth4T3fXggYMvEa34fL62UXVzpPPiB+iHUpbEmR8fAWQZvB8wqJD9cTwM8rbckJzR94REbodU8I57T6ck3WjS4TExnUm5p0PHdDfTOzp+vJGNRru8ctec6ygVW/3+tU0JgTS5DzToZdxa4niIj1SVEj/Yt+rpuHEAt25A3SOCpzak9vNpJHoZ9FebV04d/wCienVi4t9dyjJlYoA7Bh0ND3Hk7K4gcg4E+CYYAtIyvH5S0/yH9Fea8RdJtME7jutIN9NEsmPFFSoysNg8cCWuHfDgD6oBDvvYW/FmZvjFwtR1Mi5cY8DujsqTf4TMJ50LExBjAw2qV6ZnQ9ofEK3R6Qf93Fst+NmXTmR+qv1HtHvT3Qf7KDG0qkmGuA1sO753Rkn8DF9lb7fiCYbUoP7nAArI9qMPia9MN6hstdLXNdccbE7j4cltu6KpHWmB3Ej4eCHX6J7M0q1SnwEy2Y4IUop7A4ugPsfXc0PoVxFQzU7Vv3mpB4zPnC6GljKbx74JBnVoI8778Fyb+i60kvdmcbBwN2/6gQJCujGvYD1zHPbJLX9lxLSBZw0BBGvO6Uopu0OMqVM6OrWabSZ0274Q21C03nQnTSOBjgVhUcbhnaONM8AXMv8A7TCg8OeexiiR3z5wbqcOysujW6RfFKo6b5YG3vdnTxWl1WVlFmkU2275cfVy5KvRqt1qNcJjtCRNtWmRb9Fp9OdK1XU6VZlEFmU036mKjYsHTwIFhq13FGHFMMuy90iAaTxcyOXdPMbq0aTX0BUbUa/qw1j8rswgudlIIOl4uJsO9cXW9o3tEPpkDQklwAnXvF+S2fZ3HCjRc0tNUVXsgUiC4AwJJNrENMX38BwaW4sr4NamBvzjbbSRqUqbwHAuuA7QjbUt5SI/qo4nUdW6WxIdade+2vddCeQIMTJjXQkb+BG6lFBamJzkncmSNL7xyUTVaBfbgZ0k/QUHsm+buPn4JqjR714ja9+MRKAJOeDYCLyDraJO1r/EoeUnQyPSJJFtRsqzxG40PHbxUWVdwWmeeuqqgLNQkyb+YOnegOpb6SO+N73U38RbxA4A/ogtcBJmQdJi17mRp3ckIRJjo0OUnv8AO9j8Uz+II3AvcDWBHO6cVAYkgjyPh9boJqtkgE2467R6xdMRB7xIJsdPq1jHwUG1r3JA2FjqL8UStli/faCAR4W3VR9ECAII0EcPkqEGk3AIMcoUHl34Lco39VUzOkWkcNxsIUX1YsJ9fRVRNkqtosR3zOnwTmtG078p+aEzEFoiZvYEklQJYTJt3GDpwJgm3BOhBHYozdrp7/m1JDOGabitbm2T5gJJ7E7miOGx2+KkwjRBZe2g8/oopAH0OV/RZGqDADn/AGlEp1I08lSdVmQCYtYb+KmwbT5IaGXOuJkc9I+voKLKgbf5+CiKvDTfW6gJn9NEhlik+XE7+XgPFGcKZuWyR94Eg3t7wHJBMaDXw4Xv9ao7AZkDhNgfLlzSAlRZsHyOB2HIjv0hTxFSLfdG1zG3mqzsRvfXTu/soVKx53t56aeKKCy2xwN/I6m+ngk1xJ48/G6Ccw1EafUd2ymMXlAkSd7Ad1pvtxSodhauHY45X02k/wCbLpHMcD8FRxvQlF0wwztkte9hNlcdjb66iBAN/qVZbimDgYMHWyE2uBNJ8nN0+g30Kmem5j27teCBBnhK0OjGPymm8AND+ta2GD94QWOzaSMroFrG8mAr1SrJIm0bRxsE1R7dwCLbcDN03JvkFFLgBUoEWPjHM/JSpUANWgSdY3jfh3qy6mNhc9xkneEGtVgfrc30vyukMsUWgi0QLc5EHQ7c4hM8i03uOe315Kph45CSOEHSLIhqaaagiDE9w18kUAWq5sEghruYkE32PM7IbHRMkSeFpjvUHvJuNOHARaO87KsZG5tseXfoE6AsFwtq6DM7H6jxgKvVDR2QLfh1E6X3jT04KJrSMxPnGuljtv5oFV/EWseHP+6aQmHFMTGYHmJdbnJv/dM5p0J2tOsgaDkgMAgmTMgg7jx8U7Kg4gf1TEKSO+/yTdYTckG2m+milmbuSSLRvJnhzUKlORLTeY+GqYgLq3aAEX4m1j6b6qvVxAzREQYPHx4KdV5nhaxm9hGmkQdUF437uWypIlhKpa6N4vP15oeZpPyiZ8UBr3MJg8bfp57J69c3aY17rm+26qhWGNP8Ow0uPrVVxWy9oTPCx3jVKnVIPZ8QbAeCjVr3uNd7387JiZI1Wm/7vxDAfGbp0P7Q3cfBJFCL4dfW/wBX+NlIgm+wtw1/oEklmzRBKIGxTZ7m54RokkkAVhP1G+im8mcumkRtIskkkMJQcBeZ0tp9WIVtmPIENZA7z84+KdJKhlatVMRcG0jibDhbZDZUiON7neO7gkkmIsMxTpLSf6QYjdBfVJdJN+EDuSSSGFaYOx8NDx4aWU2mYt73yn5pJJDJVKAgEb/2A85upte06uIOulu/zSSQhki8jTzO0oFelnfmcdBoJje8D9Z02TpJAWHACXcmmO4z5m31KWPwkdkxMguA5ASJ5pJKlxZP0z+udmBm4ImRII3AvaYVjpCs3YENmwPIaGNikkmKymSDztJkTvA+u5RrYgBpsRA1sb34yf7pJJoGQZiJjeBwgGbcZGvqgOde+kDzBtZJJMRKowjcxOk7xb4IFR5m29z9d6ZJNAwhrfXogYhwnQ9+ySSZLCUq9oy6RwncfV1WxGWJA2MnS8cPO6SSa5EAFhfTh6eXJQkjuNgd410mAnSVEkBPEDz+SSSSAP/Z</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEBUTEhIVFhUXGBUWGBgYFhYVFxYVFRUXFxUXFxcYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy8mICUrLSstLi0tLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0rLS0tLS0tLS0tLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAECBAYDB//EADgQAAEDAgUCBAQEBgIDAQAAAAEAAhEDIQQFEjFBUWEGEyJxgZGh8DJCsdEUFSPB4fFSchZiglP/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQIDBAX/xAAlEQACAgICAwADAAMBAAAAAAAAAQIRAxIhMRNBUQQiYYGR0SP/2gAMAwEAAhEDEQA/AMQkknhAyKSkQmQAyZSKZADJJJIASZOkgCKZSTIAjCdOlCAIwnATpQgBoShSSQBFNCklCAIQmhdNCXlnogDmkuwoHoomkeiAOcJoXUUj0SNI9EAcklMtUYQBFOnhMgBk6SSAEknSQBZTp4SQA0JiFJJICCRUkxCYEUylCUIAZMpQlCAIpQpQmhICMJ4UoShMCEJQurKROwV/DZW526TkkNJsH06JOysU8veTstLl2Uhu4RB7KbOFi83w0WMytHJXHdEKGQIt/HsGyapm7Qo8kmPVHCn4fHK6/wAjb0XF+fKsfEAndT+4/wBQiclb0VSvkg4CgPEA6q9gs0D0NzQVEEvyojhVKlACxWue5pVSvl4cmsr9hoZj+EBUXZd2RTF0TT4TUawIutNn2TSAVTAKq/DkLS1qY7Lk+m2FSmJwM2WpkVxWD5CGvZG6tSTIaogknATqhFlJJJIYkxTpkCGKSdMQgDTZZ4Vqva12mSQHEEgaW23JIHIQrOMKxoL3B9MtJaIDCCGgGTpaJs6Zi8i69ZyrO6JeynT3qUwWkgQ6Wzo97fRY3x1QL9YLRDhHptEMY026f0x9VxyytdnSsaZgKOIaWktMlg1O1NhrmS0bNcTYu44I2upMxtNwEgtJ20nU32g3HxVjE0mmlSpthuhrpIEAySTMbk+kfBUqGAL3Fos8TtuP22j4rRZTN4zu14MxwYg2P+VNC6YqOlrC5wBguBdbrcAkjt9mVHM3U3FtZs3/ABXBjrBEkc7StVOyXGgtSolxRbCZRIkhSyLHYd5DdQa87AkX/wCp2Ptv2WkdVYwLKeV9IqMED8PljW7q8zSNoWfzXO4JgyoZbmBdc/JZuMnyy+OkFcdjdKD4nGOdzCsY3ET0Co1CIVRSE7Ga6RuubwZVim2BKgIKvYNLIOpmFVq4c9VeZvEKUiYhGwagtrSLFX8C8gzso1aYJVnDMAKW1g4Hd2McCLyj+V4oPaFnMRSAvyp5ZiC1yTimgTpmlxGGDrFBsZg9AkI3h6wO/MLvWwrXtMws09RtWYylVjcrvXeC2ytYzKIkgqlUw5YOq1tPonkjTZ1uqmPwk3AV+jvdd6eGLjZP2DSZlSxMtkfD03kJKvMiPGzKpJ0lqSJMnSQAySdKEAFMmxUxScYvNNxMaXf8Z4BIEdD7lHaWYAN8nEAuFwH3Lm9nDkTzv7rHIjRx4LdNWSRs7cx0cPzDvuscmOzbFkS4Zzz/ACOqw+ay9Ii0ci/PAVTJMUxmHxD3H+oGwBI1XtIDuQSd+Vo8pzJ1IObHmUXTLehPI6e3+1bPgyiWGpRdqD9RM8l24jjpHC56rhmrieZ+Ks2a9zKWHY6lhqbCKdJztbgXkuquednOc5xv/wAQ0cLiS52CD3GdFYU6ZO5BYXPbfcNOg9tfdWv/AB/EOpmqKEskhodMkDY3/fquPlOe1hc5sN9LKY9LWX9RNgAZ368rqc0YKDKIrkEjoTvIg9uhRvL/ABI8t0PcTGx5juhWMwGjc/sqTqQ7/Ox+5CSpiaaNNVZqvNjeeqJYL0NWby/HwBLRpm/UxaxRnD4kP2M/RTIuFMtNry/qrNYSJVBrYcEdw+F1NUyajTKim7RxwzNTYT0qBmNlfwGF0G6vEMB4WbyfDRLqwNTwvq5SfgnauyLOrM6hM7HMlLdh+oExGHIcLKLzpIlGHYimTMhczQY8hNSfsXD6BhfqMKxoAE/JWX4MA2VLFsINtlaZEkW6OOEd0TyrNAfS7dZph0mN5U6WoOt7qnFMi2jaVaINwqz8E14jaOYWX/mz2mJICmc+e3UNcqPG10VsjSYfK2TJJJ6JnV6QkAiQbwslU8RuBa8kuO2kWE910fmz4DHNFNpMvdF4KNJexbL0aukypUAfDRN4JuBwksB/HAWbVqkAmDfae6ZX4w2JpJJwugxGTKSZACCdMnQAk7GymRXBYYRJUt0CRPLaElabCvfT/AehI4Mbz+6FZa0TZafJ6AIe9wsGkCepXPJ7So3xouUsXRqUy0gNMXa7+3ULE4fwoyl5l9RfUqVNo0tcfS35IvnbtLTA9vdCqWf1m2ewVB1Nn/Pn4/NZP+HS8Xsy2YZQz+M8kthrqepsGPUHX27IZm2Q6LtJ+NwthXq0sTWa9rXtqUpkEAQ146zBFvoqWeUXFzPLEjUNcj8vMd1W0lRi8bMY/AVGw0jmA0EH/V0wZUo+omCDYTPv2WkzJoqGGtJdNoB+c/Jc8Zl7Ax+vU94bP5Yb16XnlUst9kOFEsqzBlQeoibffsjIzBrBYrzqhiix1otwRZGqs1W/0t+QLhEsfIKZoMR4hDeUKr+JJ2KzAw73OgyiWFy3qtFhRm5ssOzqodpTjGVTyrFPCALs1gC0WNInZnCnVqdVfwuPe03XJJPRBszQYTMg7dWK7QWyFlwYRHA5gQRJWUsXtGkcn0ckyo06hg9UW8hr7hUxhgA6VNl1ZRq4klsRPdUGUpd3KIUbMIDfiutHBtIlxv2VXSJUbaB2JpaSbXt8FYqY+PU6HuswE7AD+6sYfDPbVg+ob2491LNaLWxpb1PYnmUm7aTGlSckB9LHXiElxeaBM+r4CydaUZ2EAEkoSWhAySdMUAPCYhJXsvymvXnyqTngbkQGj/6MCUAlZWwdKXI1UpENCJZX4Xey9Z1On/2e0n6FaPC0sJTvqa9w5/FfsdgsZT54OmGCTQK8OZE+NdUaW8A/id+yPYyuB6WiAF1qVp2P37qhiqn/AAEnm0rKXZ2Y4KC6BeMpOqHYqlXwUdAjBw1Z3b3P7K1hPDwJ1Vnkt9iG/wCUlBIJNvsCZTkpEvDSS/aASS0c/OfkqviKh/DNa54DnFwHlgyQOS4jb/K1uZZu1gDKQjTbV+YiO2wWQxZ1OLiJ97x+6ieRdIzSlQHxjy+HQKYmbAA/S6zWaVnOLm0zAO+/6rQ5lqcd/pHy6oNXwpHH7qFKjOS9GOfSLXw75rRZZRcw6gWmBBh0G/HuF1r5V5pAAl3Qb+yehR0HS5pmNNxBMc9yuqORTRz6asIVsvLgXsieWnc9bhcmjtCtU/TtotpNnRPUQd3K3isGx/rYHb3AEyI3VRlrwxNXygWmSKYlbGY8ppTSmlAEiUpUZTSgC/hMcWeyPYbEse2BuVkpU6WJc02KznCyozo1NLCfiHCpYOkQXECBtdU8Pm5ggqw7N2FoEwJusXFrs1U1wW/4F7I0ugv39kUxOCpOLadSpYDi1+6CnOKOoS6RFuyrf+Qhr3DTqkc8eylqTGpJBGrgKAJDWAgWmem/1TLK1s7qajDIHSUlVS+mdovpQnSXUZjJiE5SQAwXs2QZzg8RRa2kW0iAB5Vho7Act7heNwu+DH9RvupkuCoSpns2MwDTMCm4H/rP9kLOWNB/C0f/AGB/dCaRMD1GPcqrinF7gKZJje5XHbbPSjlcY9mkb5bd3UxaLnVxbaVzqY+gzd09NI3+eyz+LxjWQ2PVyumGo+a0ulFurYPI3Ko8sMfzxo/Ay/BdB+kIHmGc1XPIMu+K4V8bFg2SLSoVaQA1kESq1Xsxc5t8FWtmgmDM+ykzENdyI6nj3AQ/F0pcuWFwvqOl4EXRLHFIiOSbYdZgmukUzqPLogD2lCM3yqtB8kNeQLucbj/rx8F3w+JgxUgDaRsfdGsPgHO0VaVUgsdLWmCwuOxcOVjrTsUn6M5lGCfTLW4kGiSzU2Gkkg7F3QohmeR0q1JztbtQGoG1iLzHeEVxdbEafMxQaXklpdqAA6NaI2QmnmRYSGtLzrvBiDFmCWnU6D3A3PEuULlcQT4pmawtOZeQAASS7TLZGkCJiZB26lFct1ay1pJaC50bQGkAnpHq4J4UamI0BzrO0uj0f/q8AMaC1skAneJ324hQxA1anhpiNWkaGl/pJosbAggi7jc9dl0y65Ml3wNmmADDqJMS4xuDe4a4CCbyuX8LQMQ+J5lVvEGagkNBaS0EuMm7qhHpjqBN9oQanibG4BvZON0hOrNQ7I2cVN9jwpP8MPH5ws/gsYdiZ+l0UwOPfGklw6QVX7fRcE6vh2uPyghUKmAqtMFjvkjmFzh+ktL/AG1Cdu6JYTPy+mZYHEciw+IS2mvQVExT2kbgj3suZXoj62GqM1ODQ4EAzB36dlzxnhihUDXN9IsPTsjypdoNDz9ItBELU47wVUa6KbwREjVYntbZZzE4SpTJD2OEGJi0+6tTjLoTTRUdhwU5oA7qepNqVcEjCiEk+pOmASSTqQCAIFOE5amhADqVIw4HuoFKUAemZRpqUfgnweXmmCR1lZTw1nBYQwmy3tCuKgibLhyRcW0deOa4v0ZXMqjXVAIvsrmJ8unThhhxRT+WU/N1ALnnWWaoDACQhyTaRcLSlL2zM0sPUc703KnmVero0PAR/LctdTk1AQ7hZ/PA/wAwg/NVsp5K+CScMV/QdgQNV2l39lVzJjA/0AiEfyVr2tJDZnkoPmE+cS+PgqXORky/XCv+FbLKPmSSDoG60OCxTaDmtk24PAQ7JaL3lzjTinNo5K7Zw5rmGGERuefgon+06RcFWJthjPsS11OmIDtTjxPDnGO9o+KC1KJFF0n0+aTBqaHaCAGSGEaQZHpA/K2wRH+W+Xh21C4jymNftMGS54B5cfSI4gILXqea7ztABeSSD69O2kEnZsgGwO5RjV8IiVRVv2VcdqqEwRA0wS4kDQCATzck78jiELx2LNJkt/FAY0ySWu0y+oRaXbj9AFoKuSuczUAwhxMhsS2OoAme6G5lgvMa5hAItDwTANuvy+wtFrJ8MzlGUe0Yk1dUWnex32Hq2FyP7LlTqw/8Jn9Pmr2Myt7Bqc1xE3cBJjsQELqhw9Vpt/j6LUhIK0azGOEtN+O6P0hRBaS57SeOPqstl7Xui0ulH8xxrtLWuYJ7XUSu0i40otsJ4jBDzQKb/Mm8CxHYwnyzB1nVCWtII2gTt7rjlVek1oc6mS47GS0D4p2Y6oKsU6psSWtJLg3tKScuUgajxJ/6Rde4BjgDoOqHaiJnoAQrJqVA1gh5Ig+lxtaxA6Jq1B76Jqv0vdILiDcCNi0J8Gyl5bXNe7WzdpksN5A3BbExI+aFJNBLG0/gVwHicmrDnNLWiIEklw4vAn3hG8LiKeIpnTANSQRabahJ3jbfmLbrAOoSReHuOqRDRA/FqdMFsEm4kSnwOJcyoXNLWumDUb/UGhrnNHMFh9V9xaO6ljT6JUvoZznwdTPqoks9LSQYLb79wsbjcE6kb7SQDwY/S0H4r1elj5pMfBFw7SQ38U/mtbi3usv4gxoZjSbvIYdbXDZokmIdAgPcbni9lOPI7pjlBdmIhMrlTG4QmQ2o0GCG3MSOpF066N/4Z0WinC6Oak1qskgnayV1FNWaLAlYFM01AsRCowLjUbZFgU2vLXA9EXpZ88EQ6AOEIrhUSSCplFMpOj1HB5yDSkq/gcyphurX6h1K87yvNgGaXLgcb/W3On3XNpzRpseqDFGr63OAgbIfi3trOGhk6TcrB481I1Co4N6Aq/4cziqAYuB80teLHt6Nk7F02tLY9X/EC6qfyalWEvlh3PCBvz5zXmq5gP6hWqniZlZrYYYBknsp8bTtFvI2qYTy7DNpl1MOls2JXXOMuadIL9PUWugmN8c0gw0qVIk7TtB6olkeMoOAk63RfUZKl46e7LWZtaLoJ4eia+HDSWsYQQJ3jR6XEWm5/usuzw9V1hxj+nAESGap1OgcyCLK7gMYaWIPmD+iNREkwS0lrYHSNPay0+BxHnNeKTW6WkOJnlwmPldDcop6hHVtX6MnmpY2oHN1MqXP/obRdVa5DWtqCCSYeHAQQDbSObLY5rk7alDUT6okGBIcBcLzoUnsdJJLb7zbrA5V/j1rT7H+TO53Hot4dzLkegzHLgQdx2KoYnwvhatb0jSy0HXpM8/ZVzB5c95gAhrpMuPp+A6o3iaFhoY146QJsOVpOagycWF5E38MXS8IikbYjU5xOiAXEe5A7Llh/DOLLiPLnqSQLT3O602NxbnaCzTT026QeZVLFYpzXOlxe8gXa6QZ47Klt2ZOk6KuLwdZlIMLNbRYkCS3sueAypk+Y9lVpFz6S3j5o1hWPbFT1Ni+mZB+Kov8RFznAuc95MBpJaGwe26zjK00jTJFxalL/BRZRr1Q44dj/LBAdPyuQZaPdXK5LGmgaXrcQWnV6mG1w+wi36roc/q1gRrbTaD6mghuoC0SFVxuNqlgpUyKQM+oODnunqTeE76TErdyReqYhz6emoS97pLYYIbDhZ9pBsfUJ/DB5KqUsIPW5zm6SXCRDhqG7g0D02k3627B6mMdTBp0dRaYD3GD6vzESh1Rr9DWwS0H1euzpJvHFlaM2a/MPGPltDWSZEB5LpubnSZn2gBZT+Yv1uIqFhcHaqpLhN5A9PdoNr37KpUxLPw+kad9IBLu1+x4XOs4VGl7d9jNhAECO9kJKIcyC2HbQDRNMExMk03G99y2SEll69V2oyYPItb5p09ZfRXH4boi6cBIuhNqWxkOSpMdCaVHVwgCwKq5vMqAlIIAi5srg+grbQk9nRAAqpShcTqF0X8oLg/CSkMq/wAyeGwRIUsvzQMJIsSp1MJKr1MAeFLgh7Mv4rNG1KZAMEhUskzFzG6XOELk7AW2THK7d0tFVD2LuOxLAZYBJF1eyTMKNOmZHqO5m6ztbLjG5VSphX/8ik4WqDbmz07Ja9KuJdtSGot3LmzPy3BVT/yCP62Ge5rdUaA38YIktLex/VYzw9i6uFxDKhJLD6Xjqx1j8Rv8FvcT4dbTY3E06hc3U17mm4Aa6Wlkfl0n9Fm4qL5KUr6NTkGYMLXfxDSHOuAbDSenQongq7HzSYxr9IniwPXus5RwXmmjVcIpuJcGn8RBHpJ7Hou2JzEYdxfTYATYgW1cD4rBpN8GylQYwuUhzqjXwy8tHB6qk7BMpuLAJLjaDeeyD5tmGIOkPaGneJMgcSf2RPBeKsK9mksFOo3r1HIdylLC6s1h+Q1wY/PcoxFKsTUZ6XGZ/coUx2mqdLCSDsAYhepYHMDjmvB0tayxJuSeyq0WYfDh7XhpJvqi/stHmajVcmKhFyu+DH1MN5lMP1PZEw3hYnGuc+p6CJEiPblesY/DvfADC1hiSR+U7mFn8x8FUGE1Kdax4O/0WeDKoNqTN/yY704IyWUiZc4Nk2BNxI3XLNXVdbQ5vpuAWmFpsl8ONPmDXbeD36Sq3iLLg2mGtd6gbHlU8i83AlD/AMeTIVsWATNI7yYPpPdFA7+nNJjQ4jmdQlTf4VxLRDgNBEzPVEcuycOZr1wWHSQOYVZskKtMywxd0zGVaL9fpZDhMjeSumE9ZLXHQW8zA9yEcx+VNrV9LHhroJnYSOsKvQy9lKsBUIedjpmAOCVflTj/AEnWpfwFYjKKjnE/i7ncjj6JItXzRjXEC4Ft06lZMo3HEF3bKL+kpyB3TRfqV2nKJoTgJiFEFAE7ynlcXP3O3smDkAWXvUfNsqxf0lc9fZIC4XJzV7qoKhI9kmNJ6oHZaa7jlSYbnsuTGxdTabJDOrHybKTqzZuFWdVUKlTp80Cs6vqN24VeoR2Sif8ACgW+x5+O0IA5mCtX4N8Qhh/hq5/pus0n8pP5T2KyhmZ+7Ku/lTKOypjTo9sfhiaIaw3YIYfb8Kp06bH0S7TNQel07h7d/ZefZF4yq4chtT1s+oHadx2W4yzxBhqpc6m8S6C4cyBEx7LllBxNFKzHeJ84rHEOLqgIsAy5IAF7Lv4Xp+bV3gaC6QO8cra0qNJtQvDWnULkgG6E51QIIq0rEEBwFpaTdV5eNUGvsq4vHOw7gKLAJhp5k9eyj4jw+imHue4vHqIER1si2McAyGNF4KD5uauKoE0mNn8LgXQZCyTtpl2Aq3jnFFv4mvaBvEEdlY8P+ISHGpVZLXCBPB6wsdVwdWmYfT0w4T0N1q6mFFdgLPQyN+NuAtckIJcLsmMpfSefeJGkej5tB+qhhvEeGZSa2oyakSXESCfdNWoMGGa1sEiQTzKw+KrhtQ2MDgz+imGKMlqNzkuTZ4PO2Va0PJ8oT7TwCqOfZzTZPlnTNvShONxLG0h5exGyCDGgWdTBPXm6qGBXaFLI/ZpMR4lpNYGNplp03NjJ6yqDc4ikW6fUXEzyQdkJwzg59x6YO/bYJ3nS4OlaLFFcJE7tidjng8hMqz2uJJgpLbVGdnogB/2nDbD7/Tddvv3TFvx++FQjiI+H3/j5JaRN9utv0nhdgCoFh/0gCOgGR/ZcjTH3ZWN+P9pyz5pAUjQ9W31nZI0p46fYhXCxIM+/vhAFNtL7up6I2NgrLaSfTPKAKuj/AElpm/wlWXt+5UWtugCsGSY+/uVPywO/w+/sqyWpiz5oA4OO0AfL6dkzwDNlZAHRRc0IAHvHtt9Y/VV6lMx/nuURfTn91zOFCQAd7TyuLarmmRYjYixv3CL1aA6W+X0XI4YC0JgSwPinEU7atQ6H+x3RvC+NhtUaRPxWbqYcfYXF+EkqHjixqTRuW+KKTtnCE9LMmNLi11nLz6pglzOFeNnFZ+BFbm2zktrUiJEpv4sNpMpg2AAWKBrjaofiJTefiJ3B+CPE6oNzT4HG+W+oYEFC85qCoC6BqNgUJdVxB6fVc3urneE1j5sNg07EsZTDGtG1zF+6CtazUXOE9BwuTqNU7uXL+CedyrUKFsSxFcFwNrXXCriJMqw3LDyV3p5WLbq6SJtgs1CkjrcqZ/x+qSYGzUgkkkBEbqSSSAJYcer4qVbcpJIA4U9ynbskkgBxsmSSQBDoopJIAnx8UkkkAI7JmpJIAT0zx6QkkkM4hcKoSSTEcnBcW8pkkAc3bqI5SSQIQ2SaEkkDGGyi4WSSQA7Wj6KOkWsnSQB0DRey7UGiRZMkgDs1oTpJJgf/2Q==</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSExIWFRUXFRUVFRUVFRUVFRUVFRUWFhUVFRUYHSggGBolGxUVITEiJSkrLi4uFx8zODMsNygtLisBCgoKDg0OFxAPGC0dHR0tLSstLS0tLS0tLS0tLS0tLS0tLS0rKy0tLS0tLS0tLS0tLS0tKy0tKy0tNys3NysrLf/AABEIAJQBVQMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAECBAYDB//EADcQAAEDAwMDAgQEBgICAwAAAAEAAhEDBCEFEjEiQVEGYRNxgZEyobHwI0JiwdHhFFKC8XKSov/EABgBAQEBAQEAAAAAAAAAAAAAAAECAAME/8QAHhEBAQEBAAIDAQEAAAAAAAAAAAERAiExA0FREmH/2gAMAwEAAhEDEQA/APZAUziobk8rvjhpg5S+ImUSEs6CqujXKsF0BRYZXeUlyBUi9RitdIShRa5SlBIBSTJwsTp0gkpJwkkE5WJkkyaVgknUQpLEkkkkMS5vKmVyqHCYKyPql24ELz0P216Y8PB/Nbn1K/8AEAsXaaa+pVBy0h0h8YGRAXpvpy5aJ+qlj9j/AMJ/7Ac+Z/UIZr9tLm1WAc7TMwQc4I7LUVbSMvII5PEj3BBkLPeoawpjo6mu/laOcyD91ysdZQq2YRVeQNxDADHZ/aI/X2Q7Xddq0GGjUc98iNwEGHA7gT/2HMhWLO9qW5fvpua1xw7YYHB5PHfldK2tUrhz5DTTY3a5x5LzMtaYl3jHlENZ5mq02NY97WTs6GsLi+O3TwPcpWhcGVC7+FTf1B24lwETMH5+Fc1rT2sFIMpODoGyk3pEzINV4zA4j3KHasDVrl4ZLWBskOEOIEhpH1ToSFe3dS2tc5ucvcO45OeTIA+qsU2PZS/hsbWpxuc5zuniQQORKF3NWmaYcMiAdg4Dt20xH0RLRKVRr2zuFIAmCRncMsc3vjutGxzOtUXMnaA0EYgbS45458/ZbHSKlSpQad1N4mBsJ7HJM8CAUIdRtzXbSp06cfzNLYmBIex3DoLoI5VileNY99BlJ1N7i74fO1waB34mBwnQ5MEXFRzzGGwJ8/8AtG9Dtn9RLR1mSYgNZ2aB5hC6fpi4JFc1RMCWn2n9Fc0u4eHEVaoAgmRn248c8qfahy9vwylVLcANLQRMycdP17/osNa3tWmet7i3PSAJe09/b8+Vsb3VaLaZYKfxHGA3dhru4kiPsswAalUOd0lrst/A0gRgQPHcqomrVtZlxd8KAHAFodEyPBJkqP8AxwWkHlp7Ykt7Ej+6v6pbNe1rhLcy0cQZ7E8LP03E13M3EseN2CDBjJVJXW2bag3BoHYjdCS4VKJpkgPP3KSzY9qlM1ylCiWKvDknKeFEKYUlGFIFPCW1Y4kEoSAUlKjMC6KATopSlSBUU4Ul0CdME4UqOkkkgoOUWro4JmtToSASSSQSSSSWYxVe44VlV6wVc+09emK10dRBWVs9Qq0qjmMPIJ4BIjuJWq9Q1Q1xlYq/aWv+Iww4CRkZ9l6Okcq+pep7gOhx3DEYB9jiBBRD0+y4f1upN2NJIBcZcOxAPb2U9L0l9d7alQCABIPDj8j2R3UCGQGbQcAtGMHEhc8dNAdd1Iv2tYdgd+IOaYAEB0zjufKD3VvuDW29MB4na8gdEnLojBjGVoDZurvjhuP4k9/+o8lR17Sn1TTtKEsY3NVwJDi2eAR3K2DWZvqrm7bf4tLe4QQ9znPO7jA+Xc91et9D/wCPSO4h5/EcBuY8dvmUV1D01SwKEGqPw1HDcW4gEzk88FRs21qtKoy5YGQXMlp/G0SN0HiYJWw6xNCvUNUFlGd0ObTMAACCSSPmYWt1nSqT6W5z3Uy0T8QGNuM8c4lD7ajQNSnsLnF0lrpMgMG0k+x2lv3RCvqhc+rQdbv2NYGh8F24vIGBx/6UyGh1jpY/hvZWY92XDIaHnyP6vJEd1YutQqCoww9rtwDmFoLS3PUPuimnekaf/H+BUIPdp4dOSS3xlW7G1ADbWu4/Ea0lj+7huIaB5MRg/wBlSVrTHtD3u3zMABw8gceeVG89OMfO120zOBGeM+6o6XYvpuNMgbgZaTnpzO7we0Baa1quiHZI8DHmSSjG1lLyzNOXVKs7QS0E/bHntH3S0sNrNBjrGZI5P05z3Xb1FVcyuB0yQAS4bgJPZoBBMBS0kOBc0biQJyROcjHZNZU1SnUdUbmGOO10kc/I8LtX09tOHMPMnOdvmCuz6b97g7pkSIAyfuoV37mBn4T/ANTglv6BIdWWbecH3TIdbvewFrSYB4JOElKnrgUoXMFSBVuB9qeE6QQrDtCkWpAJ1KkQE8J1IBbWxFPClCRCNJgnCYBSQxwVIFRhIIUmCnUU6CdJMlKGOkmSWY6SSSzEuVULquVXhMFee+tBBMLL29Ulw3O6e8T+vZaj1oSJkIHp9g0URVezcZMD8RcTwAF6a5c+hd18W0yaYEROTtP3z+qB17nBq7fiEkNa0Yc5xP4Z4IRyvT3UgKrYBaS5uOB2EFZ7SPUlB1WGsDGtB2k8AjBkdjClUDLjVr8VQ19HYwNcQ1vAMQC4j3Rp1/Vt7be5wL3ECd0g7vIPGPHCrX3qWjXd8NhJJBPSwnAPMiEB1ioQzYXuDdzSWuYTAnJkcKaqRr/RlEik6qZ63OcA4gkCT45ygmra4+qarWtgU7ik3/5Avbu/uPqj9pVZTpsbTEgM6TPIgeVmbi9q1Q9goFjyxz4xAJPRJHJwD54U6qxZaKVCtQABDR0jiBLHO3O8cH7oyzVnC8ZSNP8AhvZ0uiesH8J8YygNxY/GaaLnbQWAEg5kT44Exz4V60uagFKnS21H0XNFXf8Aia2MunytowV9XMcAyo3dDXD8LoMEH9/dc7x7qlvRugIe3wMwJwPH+0SvqzH0H7jAAIkHj5ZyZ7LMen9ZayiKLixpgyXmDBPieYK2tiFjrTzeOad5aRvLAwjY2BkO8eR9VrrS4pvgh/ciJEy3mQfH+EN0a8tKT3AVWue/P4gXfITwE9nUoV6r6TWgOpmZ9nY5H1H0CoNBVsWPMlsznI/P8ll3UnsvSGAx3yAIjH1Wh0Ki+mX03kuDSDTcSZLSIgk8wuGu0NlVlUAZ6XfTgqPvFfTnqrYYHYDgcQT+Z8Qs5qwqhu5vVBjPaexyjWvjbT3A9U5gHJ9oOCsuy+LqVQP/ABk8fLyZ5Vz0lZ0i6eQ4PY0EH+bn8kkHp9P8x/8AKQUlPk5HuzVMFcwpBdq4OoU2hcQV3plc6qJJQpBJSswClCQThBIBSASThSTFqjC6JFbWcwnSISCWSSSTEoYklAuTbk42uoTqDSnlGMkkmlRcVsJ3OXKo5c3yoVMAq5y53pjPWYkFsrjtDKdKniA0Hjgn3PdVtfeTVg5BIAC4+sPiFgZT/H0wZgtjkjyu/SOfQHX9QVXXThHTSY9zmg/jLeACutmaJc0Gm1jqnOJAccwY+oXex03Zuq7SXPjf2yRBx80hodNsEvIcCeQ7JJ+cFRfTpM1n9CpC3vq1GoNvxMMJxGdzQJ4kfoiN5opbUqVHOO0gdJiARMmfGVbutKbcDa8btvSHidw9piCOMH7oVqXpO7LHRcvLGidpngZ/7FTOj1z/AKuaUz4lnuZjaXtB8sDiB/8AmPsuVs50lu7nABaIaAD1HyJI5V30vQ+FbOZ/V0jggOaDn6z+ae30wOcXlxJ/2pUoUqD21C4AOMAPPAIj2mCYBn/S70nh1Utawte4s3uBjiDDj3wf1XXTWB1VwkjjOcx4/JXrCxbRqEzMmR5/fP3RTFH1GwGrRtHE9e578xgDpb7Sf0XKx0Z1Ou4bWCmWt2EDq3CZn24+yh6s0avc3PxKJhzXMptH/juJ+Uu+6lc2+pgfDqVWMZEGps6447T94CrnrPpHXNv2r6Po1KrqFV38lMz04AeA2TI7ST9iimoaiymwm2p9RMlwA6m03gzPfBKfS9IcKBo0iWUyet7sVazu4ETtbz788cojS9PfCpYjc/azaANsmAdo7GO8rSy02ZFzTdY+K9rxJpuoB4P9QdBnxhEdcYSxsNJkgyDAAHdZ7YKdu+jTaR8JzaQgzJdtcee3UjNXU2/C+GDL2sBMxzHHzU9TyZ6UdcpE0CWl2BJ8H7rMUbRlRwe3bHcHpE9ziFq7imalDJI6ZyAQO/tCzFi4U2ueBhsg5/VVPSTHRocZO7OOcDKSez1jeCRET7n9Eks9cCkFEKQXSuKQU2qAUwpMdWlSlcgkXKMXrsFILk1ymFNhldAkSoyqte45Hdac6bcXN4VWtfBphCauon5Qht5eyZlVOJPaf6tEq2vQSIU7fXgTBWcLwSqty0tO5qvJ+Dy9Fo3DXcFdYWB0rWTMTBWx0+93hR1xnmKnX6uFqjtXRJc9ViICdPCSzEEoTJLEi1UtSqBrCrrisf6k1OXbAunxza591ltde8H4rTwZjlEB/FfRqAEbmmerAMDtwVX1Cn/DIPcK76ZrM+E1kgFpjmc8mCeV06HLne2dTe5joNNww8HLH9iRxCpOvYpgVtu8YwfGC75f5Wqr0Iy4gj94QTVdFDwTG/wMYnGDiQp3VA9vdtIAdUmDII/KI/furlXU5BHtJOeIEAeEFt9JexxbIbjqjGf6ScxyiNxbhtAgES4EAjHbMIkIDo1y6pSfUJIJqvDfYE4/fsjFJu1g5nzIPzlA7J5YKbAOnc4n79kbqOJAOB+8qVVV06nFRzj3OY+4/RFnOIcMQe/5oUB18ePurd5dENEDj/OCimI6frLmXVWmRjbTLT33uO2SP/qiVa5FXDgZ5O4TP7j80GtmRdfEc3kAGRiI/LqH5o9WpN3buCOZ2wfl35RGrta3QEAtAHmf0EDCtVaoc4VCCRTkhoBO5zgRAHcx290LtrUVd20dTcCQ4NcfAk5HGVotPtv+PSaHvaSPxOIAEnmBwAr9RFStLIilueAHOO9wA4J7H5CAszVtWuuPiCDA2/hnPkrbXNw0NBJ5IA+vhDLi3ALQ3GZOVOmKV3IpEAcA8EifmsZaMY4PBDpM9xGe8LeXrBtJMwAeDledXlKA+oBwSYPMEquWrna27aQLMnJPbv5TqF5egtpmM7ZMY8JKkvagpBQCkFdckwphQaVNSYkE8JBIqVE0rq1cFMugIsMpVqkBBb6r3HK632oAYKA31+0ZlXJkTu1cDNwJKGPtCScqVLVWEYIXCtqY5CysUroPaYC43F44dJCuNeXiVCtSJnErRnG3pzDlpNJv9sLH29d7SQRCuWl0Sfqs2a9Rtawc2QuyC+n3HbyjYXLuZVckE6SShRQmKdCtX1DYIHKrnnaOriGr6kG9IOVk7loncTlVr6rUL5PdT+CS1dvE8RzzfNVn3jTIlBhqfw3y4FzRMf0j2/wo31I0357lRuKfScdsKvpmooX1O4aGO6hA/mLSPA5yflKNWpZG0E47GZ/PK870K56uof0gACQPM9vK1elaT8M72GoGnO0uPPkgFRYp313TGuaC1uZ7d/BWdrUnF3U3paIAH5mVrK9SekPLD3ME9u8iPqsxqVtchxd8Zj6YklobBc2MZ4BnutfR59gWi0HH4hJMbzsk9MCGnb9QfrKJ1qgaIP7n2Qy5bUtGtrPpFzXUtlRrSCWEOJDh5GcqvpGqNu3ODajXOBnY4FpDfaeeyJIrLaKUngESQf3lFxbNI3HiJOeyAmyjc4dDWTLnOEY5PyCr6Nr3x3OtqM1HPlrahBaxuI3O8+2MqbD5grpzXua+d5Ie8NkAECSWj6f2Rhts6tsJa5sw15HGBzyqFjY3QNanS2gh4bTfUk7g0AE7fkFq9Pp1W0QKr27sbg0QCZ7T7Qp5jdXwtWNsGAA9u8QPt2T3tJlQQ5rXRkB3kKNerDcSfof8LL2te6NcEsinJB6vzjaulcxZ+4VQ98Q0Q0ePkP7q3Sqlxkx7+U7hu7kge3+lzvK7abZkA9iYUWKctYv202loPUcR345hZOpSOeSHTzwPlPZdq1Jz373u6hkCB0j2MKFe8ABxuPLTkHjwFUageo8M/CemOYIjzCSFXgcT185x4ykq0PfQphQCmF0rjDhS3KCSkxPKmCotKkgnlRuHdJ+SdQr5afkhmH168cJHfsVhL/UqxBB4Wy9QtgErLWtoapg8LrRA21u3kgNmVo7XT6uHF0go1p2iUmt/CAVcqbWiJXK10xTZLQArVGVWo1g5+0Io4NaOUSMFXVmX8YQoUX03dQxPK0LL4TAVx3w3tgjKoaKelpj6LSLMabdCiIjCu1dfaOAp64tvhp1BpcLi6awSSspf+pncNCGX2oP2y6Vp8X617/Gku9e52/dBhcl5JJlCKVdzxA7ovZWha3Kv16GfqDtpOVYZQEINqNJ4MtlQtqtf+ZT7Lnrv4mxggyDGZCE0XyS0kn6D/KK3tT6lZGvckVCR5V+hFy0YwVnDYZ5JLtv9v7rZ6FeA9O0fMndx5wMrFVaZqwWTvOMTJPYBanR6DaZDT11AJcA4bW4zLhj27x7rCj9xaAGQJnkADIWL1K0+E/cys5tPd10nAuxkuDD/AG7QFvHHe3j/AAsh61sHOYajahpbAXOc09ZA5wBnsAO6nFSrej6hQuqbadSNxBBByMciUM1P0HSFRlW2LG1GmdsxuHcYVXSLpzXN+NUNZzg54bTh209Q2kNwIDc45Ke49WDinTLYx1HwPC0kntc476u8o09GfeNfTf8Aw6YqxVkxO2JaAORwtZZaTZWNOWhjPfEnE/VYSx9TvpyT1hziSO5KLVfUNJ9Lc+i9k4DgTy0SYPmJ91s5quvj+Seb6W73UnVKjhTe2ntIl7gThwOWAHMGO0Z9kds9ooksc+qYy8uO50D+UDgLDaTZm4qz8d7mA/Ea4l21zSXMfTf5Ac3BPk89tlcVW02FrGAHj2lGYi0+jVSSSXPzEBzhj8ir9c7jDTHmQD9MIZaMc87niPHkd8n7InvDecqKYn8QsHbj94KA31ZzpJb9vnjB7q9dXIccH69iqNZriBEnPHYfJSoD9Q1XBuxrdzndx4/sUOsbVwLd/iZJn7ohqtbZVGDxnIA+ip/HB3mBEdJJmfl/pWlTu3hzyGtmMcn9hJU7VhJe5zi2TgY4+qSwe8hSCiE4XauKSUJJIYwwpgqITorJ7lJoUCpsKKYy3qXSg4zGDyqGnaexggBbDUaQIWfc0CU3zDPCteXDWNWRvNR3OJnC6+rLiSGNOT4QW1tHFwHPlHMVa0uluhu8hc36pvdtB7wut9RLKPjCC+mnM3Eu5lMDX6cxjfxDJRmh8ItgCCshqeogOBafC0tnc76YxmFcTU9ReMAFU31AAh9esfibSVG+J2iEWtIVOoN+UQvaO9uAhlvbmQe60ls0EKbVA+mWzmnIR/dhc6uBhU/ivnhBXnUpXOpbYT06jl0BK0Gsjqbg1+3uUC1DR3F+CADkknj6cn6fkiPqvpqBw5U6DzVoyD1ASPJd/LPsDmPIVe2kwNqXjKM0aLjO2H1DhxJHUwD+Vo4Mc+YRfRanQAHT5xGe0+VmNPtnteQW9+SFs/TzTJBEDj5ojUc0auS0hxBMxHcD9/ouWu2pfTe3dEjIABJ+6s0KGwyO/OFcc3chnjlndVLXUm1Km5wO74hMSQ4OkwMT/mEa1j/hPcXMuKTRyZcG5M8A/L81rNa9PMq9cEOGJbEx4z2WK1D0qC4tp1Jc3kObLQYnLhxwtePOx0+P57wqWNO1aJdcUvkHBzsnkAT5lN62um1Rb29qS5jXQS2Yc5wGAe+D93eyfS/TdZ5d8TA8NA3dInp7DkZK1/pf09QEVWhxic1DlrgYwOyP586r5PnvUxV9PaO+idpcQIA2kCNsl3SZnkmR7rRm2EzA7A/TA+iuV6cAniByPZD6NWRzn3In2UdXPCJ58uVa9bTIE/iwPnnt9EBvdTe5xp5DYw4QY7eePIWgudOZWkHmInuIJVa30RowRxI7EfNROl4zFW5qNaS4wc7ux+bSp6JqVao4NBGzyRDh9VpLjRaMQ7AH2XIWDWiAOk/f6J1gjWW7+AJiAZ7FDLWgdwpAQO/f6jxlHNQosAMGMYJQuztf4zXbp9uytNC73T+t0ujOAAkr+p0f4jjjOcj/AGksHr4KcKAUwu7glKUpkxQUpUpXGVIOWxnUpNqKIKbYpMSrCQszftiZK1DXITr1tLZATPwV55WtP4hfylpMfFyijqQDSCMqtpFDqOO6aYl6pvgKe0d8Ib6fsdzZjKueo7LcJRD0nSAZCmelUCr0HB8R3Wusm7aY+S5axbAZAyuliCW5WtIRcMPxdxRUUd0YXepZgwVbpU4QNxxp2mFyDiw+yJtK4XFru4WwWutF0rrtCq0rdwVynTTg1B2Fzp91cFuSmrUNoOFsbWE9QW+6sJUNNofDJHYrr6tqFkPHE5Quz1Hd3nwtLFYOXVqIkJ9BDd8GR9cLjZaiHdLhBVlzmMIM8+FXIrTNhIOMqlp90HD8ldLuymwasNbKrVLBmYAEmTGJPuuzHkYU3VVpWVKNkwHAiTK7GgGgxjk4EfVM8lQ3uOB9+8IvRkDL51RzekiDtLQewM7vsR+aq2dkGu3OG5x5Pb7fUo3/AMcJnUMD991x6musrjUodx8/7qyKfDh3GVB5AaBPAOVXtr4FsgyIR/Ktdrhg8T9FQrW7YwI+Sr6vrHwRI6m9/l7e4VSjfMrNO158xPB+iZyNVNQduwBMc/7VahbhpDoEiYyY+iG6rXc6rs6mkETzkfNEqBDjIJkDjtxzlXidUNYrSWmMxmCkuM5PHMYTLaXsAUgkkvQ86QTuSSQXFyaUkkh0YV1CSSmmE1PUYCMpkkfZAtQs2ZwhdtRAJgJJJ6HLtcUGluQqGkja4gcSnSUrG7hgLcqnbjKSSAuNKmUklUCNMZV1owkkmA4ViiwFJJZhCiwQo3LAWlJJcvtf0w/qCg0tIIlZDSrRjKvSO6SSr7VPTS1rZpzHZUKjYIKSSqIolo1QyPcOP1CM2h5KSSalcCdJJSTALo0JJKaYchc6pz9EklFXArVB0P8AYY+ixtvqlXc9k4bDhjOd0j5YSSWhptTuDsLsciRGDMchddBtGimXCeSOUkk9NFLmq5x8H8uFTpvLd7hzMfnCSS1MC72oQ7B90kkkF//Z</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEA0KEAoNCgoODg0QEA4PDg8KCw0LFhEWFyARHxMkKDQsJCYxJxMTLT0tMTU3Ojo6Fys/RD84QzQ5OisBCgoKDg0OGhAQGislHh8tLS8tLS0tKy0tLS0tLS0tKystLSstLS0tLS0rLSsvLS0tLS0rLS0rLS0tLi0tLS0tK//AABEIAKUA3AMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABCEAACAQIEAwUGBAUBBwQDAAABAgMEEQAFEiETMUEGIlFhkRQycYGh8AcjQrEzUsHR4fEVJFNigqLCRHKS0hYlNP/EABkBAAMBAQEAAAAAAAAAAAAAAAIDBAEABf/EACgRAAICAgIBAgYDAQAAAAAAAAABAhEDIRIxQQQiMkJRYYGRExTBcf/aAAwDAQACEQMRAD8A5XM4AwA0t+mDXiuPPAckBB5YlhRpqiX3xMRbEQYjbrjV5Dg6bMJNe+JY22O2B0HjgyNAcDLRtGtvkP3xLpX7/tgOolsdsQicnyxyg2boPeUDl/bEfEvtfbAha/W+I2ktjVjOsZcSw2xBJUnlfAy1PTEUj3xqx72dYUZ/PE8bg9cK8bpKRg3jMsMnHnjSJ7Hn/nEAlJONibYzj4MD1nxOsu18LkxukoFgcKcDbGEcmBaye3LGpqBvY4BmcsfEn53OOhj3bNCoao9Thll1HNUFxFGWWMAu36EBNtzhp2f7O0ixrUVkr1FXKyrTZZTG1RIwIN3k5IOfyOL92eyYRQGnEcaySs0sqL3VEjG4W1+S3AxmSUU6Q2GJvbOTvrR2jddLLa46cr3xvI62w2/EKgeCojd10l1ZT7tyVNxt8/pir8QnG8LpinpkNQN8QjEsq4ixTHoE2XHthjTHt8ccOYqncjrjeRb/ABwAgIIwWZemJZRroPwSLTCx8cA1EdjsMEmoxpqvjo8l2ZQDIxHlix9k+zE9cW0twoFUsXsGYWNuXXr6YrtQR88d5/DiJVoqQgBZXgXb9bIb72weSVRDxxTezl+fdgKynHEQrWpvfhgiVQBe5Q4qJUg6SCDcixuCD4Wx9KZnqJDGPhAWAZ3VYwwPLxGKRn/ZmGrUkFaeq30yrZomfwcfLnz/AKqj6hxdS/Y2WBP4TknLEZOLBX9lKuMyLwGZkvqRe+Sn8yn9Y+GBMs7O1dQ4jipJGuSNTKUjWxsbt5YpU41diP45J1Qpw9yfslXVQEkVI4g2/OltT04U331tt0PLF+7E9mqaKQQrQz5xmYuXfhFaGmseV2sL7Hc4vdR2fzB92gyuniW1nqpZsw4YB5rEAqj/ABiefqZN1Bflj44Ipe9/g5An4ekFUlzrLo5iD+VE01dKLX2sinw+uJ6f8N5G0kTzzqRuYqCqVQbA21uFHXHRPaoRemftTLO/P2bKaVKVVtud0Bbp44WZrm0FGFMqZzVMbtHFV5gFdyCLXiU38eY6YV/Pk6sYsMO6Kxl/Yeld3iLTzOmzIk8UUg6dRbwt8cMI+x1FcquVy1TL3SjZ5QpJqFj7oHPceuN6btDnfEkqPZD3v/TrTMxYhSRcHdbXA/vjMu7RpUTLBV9m8uq6p3YPClP7NXp53bY+vXGc8j7f6YThjrSJqvslliDTLlmbZb3QeK16unXfnxE1D1wjq/w6Emp6TMYp4gv6yrNq36jly+uLl2fTKKzWtNJX5NVJu8VNUzUs8bDmBESVO/l0wTVdk6hpOLS55HmVMB30kWCHMI2sb3kAHlz9MCpZO4y39Ga44+pRORZv2MraVOLJEpXb+G3FO/XbA2W5JPJrYJwwjKjE31hiR/fHcjlVo4oaudpb2haRQqKJNttXjtgB4qSFmAiJjh03LENGbm9gOp5ffPf7eRKmjl6aF6ZXexHZs00Xt8wHtM8hEQJvIkCEi9uuoj/tGLEM4SAkEpFKxuoMQd2QtbuqfMHfzxmdVepg6zwRnQqQ7l5FlII0qB8Ry+Pwljyz2aONiyQuUGucQpHUykCwsG5KPrgITc5cmFOPFcUVP8UEMyRzl9SR3J0lNSsbC1h8PvrzKPFt7e1aTSjTUe0afcIWOJ415EWHPl1xWVi25YvTqJ50viIHW+NfZzgiNLkbYZQxC3LGSycQRAYzjdackXw+bLri/XHq0VhbGf2UcJml73zwXzBwqZr74PUnSDg5RoNEUjbWxtH18sQM1ziaDr8RjWqRiB5+eO4fhRUJLQIrE3i1xkc72YkC3zHrji1QnTD/ALEdqGoXkiYa6SbTxFtqKsP1AeOByLlDQWOVS2dczVDdnNPpTcaQ5eQR+YwlldY9MgYxQ2HckvLEp5g+IHPflviWlzwSIXp71XMIAVkdfLh31YHny+qqLTH/AHQgENLGZYYy176QTv8AL7EjjfZYn9An28NGFAWZltpSMl1hkuR7/wA8McwzyKgp1lqi0tQwUcJWsWYgY2oaEQIJpo4lKgHSyFQZNu9f5YrnaJGq1Z3eGGmVhqqZbaIE32H8x8B54lilzood8bHnZ2vzGs77vFQ0Go6Y4NQmm3BF3+Q88Z2xy6qYM+Y5pBkmRXW4DPPXVH/JpHU7+mLp2FyOKGngZCXi0K6ud2lYj+IT48se9r2oad0zCXK2zXNSNFNBHEaudj4hTso8W8vWzFiv3v8ABLky17InK4PxHyukC0uX5LLIltLSNoppZnB2O1yb/wBeWGdJmKinkzSLsi8NYLkAqpkeM/r1EavDkOuD4Z8yknepq8opaUxwNKtPHBG8lPSl2ADT8yx0t3Ra9r7cisr+2MFWfYocqzKqJsupXahYNcjmN+n0wnKlyqMf+uxuJvjbZX8pzLMYaoTCKfMSxAq6dVYGEtFE9rdCLkf9JGHOafiRSJPJBUZPLNHE68GVkCTFRbvaXFweeN4ZZaOOuzFYXqYBIA8SNoqgoYqkmvqlgoI8ycE5rnNPVUBzN8qhrFprCemqQ0VRTFiLlHI3FyNtr29MXGUk+OutBStRqxb7Z2ezOoFR7VUZJmBNxJJppo3ksDqLi4B573HzxY877LDSonLmde4lbCdM08BAAJYczuPTEOV18UEcUeZ9kaOnyuoSIrmFLTK1KI5FuDIhBZNjvc3FsdINLE9OkMQT2cxrwip1RCMqCCD4WtinJguPtfRPjzNOmcHy3NnpZnplzUtA1rwTkvol122Lcjt9cWXM4IGX2yGtENOHBSwuwkawBB5+8TvgL8U8lpadBWTQSzu8hjRlKpYkFrFuvX75LMjqmRFq6KeSrp1AEsLxioljAA7u/IXJOESja5DlLwMqyr9oMMck0VK2n+MhVmWxItZuh+/IGfJbgjiaVIN55XeSVr/pt09BjMwyqDNAKmKrNJXADbSqRlwbk323/thTLFUUoanmuriwDM6zF0vcrrGGQ4qOuxORy22B1mWoOX5wHJgUU3+O59cCpRi3LDF5yw08Rwn8jHUo8r4gvhUsjZEwNKMXxOKe1vDEtseO2Ac2ziRMenApmx6H64zizio6T4G2HGkaR8B+2IzCLbctsbiM2+WPRnOw1oXabk/HE4i2HTHqQMW2UkDyvg2Fb9N8bKdAASx6j54kWkw0gpR71t8TcHltthDz/Q4zs7LOJ4okV5F1qGWMNrMdwOnxx12DK9UhlkcCnQMEVpLiwFvdO469cctyuZqeaKrjZkliYMpWxJPhb19cdNzjOUFDFOTTtJOyIsMqiQPIzWtY79cIyzcqou9LTTsGrZuMxBlFLQUyGWaRSJEFOpAtqHXFeyhGzmphnmj9l7PU1QsdPFuoqJiwsp/mJtv4X+OLzMsUCUeUFYpWrnfi30iNkCguwTw5bYWZjm8CZ7lOUsI6ehhV30m1PCKp42CMPHw/6sZhW6XY7LLX2GXaD8U6WniraajhkmqqQx08ZMemlNQxK6b+Wk+HLDDM6uUQ0WWSVTyVkkETTSIeHLLIWHukcrG+Ep/DHL6NqiqeepnopFZmjltIkVjcPqG9weR8z82bTRvUZdXrXpU8NZoCLIkrcQAglem6fXFeSWqJoRV2Hdps9WKSjyhf/wCmoDSu+1o6WJSTv4kgD1+dMre0kss/s9JDFwopJEM0rBEnqhHdYU38evkcB5/mayVyVTygmnjmiRVKl1kkaxP7euMy8APO6tHKHczoxUErUM5QqvgALYgyTTfKvBbjg4qvuee01NJwK1AWjjaoWtd7uslMJVtsObd9iPgcWSpzaAz0gcxVeWVcpy+oi2IRpACjEdLMCpH/AD4X5uUkp3hZuEjmNib89LhyP+0+uKd2jrI5PaNH5MjvC4sS0XtURurk+Yuv16YzC05K10bmVJo7T2kqOCYbPohvwyLlkZLciOvI+mKpnPbaLK54qMUghoJaKRoioGinq1uQmkfpsF9cKM57YNV0XDjVBWu8UaaxrWPUQGJHkCfTDyremmRqNpoeKUEKvG8SThCAGJcnbF8H8xFJaorlVn9Nn2WVZl4dFW0oDMjbwhyQFmV/kQcc57My1NHWRwmKYJMypJGFZeLCd7gfDfHaZ+yVHlWU5gsahtcMjmSYo7NKEIXflsSLYpPY+uWagR5RxpoJJFLMonk1fpO9/sY6b4p60zIK2t7Bc7X2Kpjl1FKOc24iIrsj89On9WLBWhKqBZImaQi5V5ETdrWvbc4ViQVdHOdWuVeLH+XoLs6E2G/LpgTK61qjLdTa0qIW0tw9KrIgNrkeOE8dX9BrfgUslmKn3gSDsVIPwxoy4OzSEjRUAgo6gX5EyAeGAdV/PE7VMicadERbHrb22xnBLcsH0lJ4/ZwaiaoA0VGL7jGGEDa2GXs9+R/zjYZZ543jYxY7KpHRWtfl4YL9n25YmkO+NgdsdLI2IJaWAadrDxxEaYXJAx6NsecTCld2bdo9ZbcsaB8es17Y0IxqBCcuoZKqaKjiQvLK4UCzEBerHy2Ppi29o+DDmuTZcqAx0xF21e81v5Ba3L76sfwoyNg7Zo7skdmjjQK35pP6r+G2EH4iKI81oapUdFM8Qd7skbd8C2r4YfCNv9lWFcYtllz2oP8A+QZdGdIVKKduVmBYPz9BywhzjL4ZarMwE41dqgkcsCrKhW4RT05Dzxas4pgO0lLpHdbKpCBa9rMwvigV2bw02a54s0bpGxsLECQsthYDzuDgXjl8vhf6UwyR8/X/AAa9ouzq1tClTlmYV9bPSMprMvqp3euHXWI+hHS2xHLcb83liiiUyJWTJUKwPCMbpIsoPU8ufXyxfaVnkSHM6YTRSNYxyJM0NTE63FgTz5m4Ox88WHPMwlqcpnpKjRUZivssgmZEjEhjlVjrAHgGGHxzrp6FSwvtA3aGopcwhoc7pkSnqnj01KoNJ4wtdW8bHrgHKlLBtTG4Y7AgnSQRYD754UZDSsXn5hJZGkbT+Wmpjfl4bjDhKBgpVWAve4DaRtYWv88SZacnXRTj1FEmaSlIiSbSBdJNyXG3O/y+nrQ2gaQ8MSEapB3iTdQTzv8APFonpZWB1v3zq3PdYeVvl9MIZYSpvqYSC5vYk7Dx++eGYVQvK7I+1s0MDw5dTtw0RUM0iks/FI5X++eFUNEwcCCoFRUynQkUQ40khYjmPvlhh2Ry2KqrYxU70+qZ5S2ocRipslxyP9sXOGtdKl6ajpKfKaQ6EM8Ka614gLG07e6bDFspqCJYwcmVzOKKqp29klr5qp0jDVVLAbQ07NuEI5E+WCsngNPKxjlcQ1cDMFAKMkygHl6+mH3snBhbXDBEuliSjmaSSS5OsueZ5b4QdkKzjxVTSd8rMCt7IoVgRa3r64n5vIm10OcFCl5BOwtYziohbvBWEqtpAYSEm5+mGnYiVmmr6FwQhdn0LdLX6Acx0wu/DyAf/sH09xVRbkjlqO1+V+WF/Z3MGgzAvERpLsjJIS4Zb4fKFuQmMujoEOTXElM+p4SS0UgbVIpA5McJa7LhGWjMejT12N/O+LzVRuQKhEUg6T3u4/w19fnhf2loGliWojRdSjvqUbi+nLxxBlg2Mmk1ZTYFAHLEjMfDELvtY/2I+WJo5hzxilehFk0ExHMY9euINrXGB0lBPPb6Y9Yjyxkp0bzaFRXHgGCJwMaInXA2IImxgixJItsYhx1nGujBmSZU9VURUqXAZ1DONPdW/O5wPyv/AK46F+FuWRiWSoezVKrstjqRT1+7c8Fj2w4q2dHpqGOCJYVBKRoBubAgDmTjjvbJhV5xllI3EELVcWpksvdDDYE/PHWsyrl0OFVpTuAq952cdMcWpKZqjtFRJNY6Jlfgm0ltHe08/L6Yuily0Uu1A6LnaKnaXK2JK+0ZdVQptqQuhZrW6dfvlN2p7I5ZrqM3npY+MYQZGcaoQFHv6TtfujFe/FzM7V9BJTK0uZZaktQ6C6gQMB16+6b+X0n7MfiAMzq6SkYQx0jUcntUcqXjNYGGkBiPp54KcbugIvjTYsp4YZooaiKmkpoZUIisioOFqIuI+nI+uIsyW68D3VZje/dJQG97/LBeXUto5q2CuYy1NZUwpJKpVSqOQ0oj5CwVgo5DbA8z/wASSzWHdBY6mAuBufljzZx4yPShLlEio4lWORlsrEWF7ncW3t8xj2nva5YahzsbEjcbHHtGxKkX3Fx3mBRef98bC+qxNgRYhSRYHp9McjGCVNQUDKFHIXIIUKDfa3r64qrXLFwe64N/1DXfx++WLPUo+wuQx1bABtK/ZOEdbca002sbgc7W+z64fATMAyVAtSqltCTCRLCwUSICwP1Pri3U9Mv5iONI0nX3lKMlj3rdeXT/AEqZGnhzre8csbbAEBDdb2+Yw2zecLCixxlZCFeIrIYo9aN3lv05k/6YOacmgIvijKzsyJppWNfLHA4sYg2vSLAix8NuVsNciyZaNFpYwzcWQs0rcigG39MVsKkaS53BVzQB0kiCVC8VmnUAX1Le/L64cdh88ikApmmeSZUDuxDXJ5nf75YoUJKNCJSTdi/sjCWHaKkjVGk0MyawRGdMji1ufUW8xikZNUCOdHfULPuebg38MdN/CyoVpc0n/icSoJLadStESTy6c/rhBP2atXyupEVOJTZ2QPEHJvpIHLrhzaVikujq2RVazU4CyJMCACoKsW2/l8fL7M1ILiSB1j21DSBJGyg/HAuW0kfDAaGI7AalbRfbnfGJDobUkh1WPvaibeBBxNOOh8Xs5xn9Pwp5I97BjtcOFvva+Fd2J8sXPthHreNzGNRUjVYkWB5A+uFMNGoFyMStJMW4UxbTIdyRiXQfMYMRVG32ceta/LCJUC6E0Skm5wxiQAeOFoksbdMTiTYWONkhJ5UAX9cRK1sSleZxkcN7eH745G0SIl7b28+RAx0D8OplXXToqQo665CDqqZTbqfDlc+dhiixR9bYuP4f24rM8hES2LKLhpZei36/DDMfYzHpl7q3kYGCKLhKR7wsjHbnbHOa7I/9nV1Nmutd5CG/MKEKebeLW39MX7Naub+DCqRySso1tdreVuuEXaXs+i0rcR9dQynW7WWR2O+m46bch4YqT8lX2KN+JtXURZnBnsaSGi4cQhls/DZQLFSfO59cTUPYdYpoc5ikStydp6SpE38MiISjXGYze4Fz6YT0nbDgJ/syppxJCodAGcuixkmwCG/j9cX7ssYfZZTRhJqGS+unbW0IkNiVUjl05Ya24oWkmzJaHQ89S8BpQoljgito0xPKZXnI6FifRMBVlN+SLm2sWWP37oet/PfB/bOL2kwRe01GXwQR0bOixvKJpJiNCfRtvLfBuTxK8sV5Y5oLJZtSyFyCe78NvpiDJH3WWwl7St5NRtMpmBRkIuNJupW239PTE/Adb3WxJIOpdNxytfFY7WU1bkcphh01GVPIXheRA+hTc8E77e987Y3ftmyrT1Ud5I3YpKsjopR73KW5273oBh0vTvx0LjlVfceyQtpbu3JBB21Kd72sN+mKdmErI4DnUSzre6rIDvtbHvantcSVVODKzKxbSS6IxIGkeW3x2wt7O0U9dURzOGFIkokY6mCagBsCfhhuPC0rYnLlV0hxRUuqJkteJVsQblhtflgoIGjeLjLFICDHIzJw1l6BgRyN7H44ikYpJKI2jQcW6ubkG5tYj75YGodUdSeJIklE5fUjEPItiAduu5G3ngVG3f0NctAs1NVa1ymRtGXy1EhaFWRuHIFDWv0G4t8cIjxaKeYROGKKyGQAsFRhb1xbs4zNIZxHFT24blRaNWLMYgLffhjyoy+F47zPwormRwzaDI/ixxWp+CZxBfw8zEU0NbUOwSIaLa9SozkN3Qw67eGL7klNGpLiQiSQK6s+txpI5XHT7+HLsyr0lkioYEEVKrgNpAIZrjvW6jbHWMkpFeJVs8cqKSulirghSLA4yZ0QysmgUKpcwcSxVom4ZLDoG5Hl1/18ox4ytMoI1awqSKpvZr+mK3HVSvIY20hA6q76OEWB5O0f6W2FyNjb0sVHDZEb/h32vcqrXuh8RscKkMiBdo6YgEqO6ly6NqBv/MDirPUbeAxbquduIYeGQvDbfvaVBuAQeo8umKXVmzGICxXnfYjEWZUzMnhmc8YHt1xrFfnzx68e/u4QKE7oScE06EbnEkKjnj12G/TBuQFG6uDsdsSJa4t0wCynmPsYKpDbngGvJoSz2+OGnZiqkWQ6GWINpu5u0gjuL6R4myi+FhAOC8qr+A6ssSySA6hq9wMASGPwO/y9DhLZqdM61IugGVVElUAEUMbBTa1sAPR67tK4lksdz3lBItpAxBleaAgrxOJKEV3Y7nUQAP8AyPy9dMqdnlEz7RkEqGO8cQHO3n/5YriyxO1ZzTt92RKu00Y0jSzkAXYCw2v8xivdje1NVRN7LFqeJjvEBd3a/IeH+Md3zijEyNGQQ0lgwXYLGR7t/T1xQpuwoZiIhw3bTFGVFrMx3YnwAA9cNjkpcWDKFu0dBHaYeyU1VJAZ6OeCI+0RETrHKSEMbAeBJ3G22K5SQ5RxEqYK+CnY3VUEop917lmB2sP64gyPMVyqQ5H7aKel1kwPUKJKNb3PCY3BVju1+W/Lxcz5IZCauoyjJ5WKEqzVAak0FgeLpK737u/w+QTjydhQlx0OJ5qCoQ0slbR1SWbiRcWF9ZFhYr495fXHGvxI7NLlzPJGnFy+WWPhMNLNA4UkwMfO9wfAY6pBIYy6r7CpWTWy00BchWHIyHbmD3vLFF/EvtPCKb/Z5/NdpI3MZCanKODqJHTY/G5wyHYEnSKvkPYpp5PaqmJqSlZY2RH7jOpUAH9vj+919jip4jCtTBGI4zqfiopWMXFzb72wxTtHBWgVcchqAUBliZUYx9Qtjy/xhBV5Yr6y2WUlS5gfiSQFoXZgxawjO/XBcm9MCvKFVPTZdGxjkqEqSyoG1yk6oyxcfHn0wyy3Mcv4h9moFrqliXLAApGeRYsdhyHnthbPlcWpWHZ+dpQ8epDIsSsNOzLJ8LennsPmudSCN6WJYctqRqDU8TXknjJsdUnK+3zvjIxNciPO6we1TSLwpqrvEKrlFZ9iWW+zHf47YqueZvJUWR0EYRjcWI7wuPl8PLG1HlskvEYRFd2LRtfQzi/d8jsfvm37PZIZ5gztr0Huu3eLqB7jeY2+7WcqiKds27DZBxHSoblfbw0m24+vpjomYzCGN4tdplAeJzezKBextuLWbfz9MoaaKFTCq6QL6QOSgjl9DhH2ociejYk6WuEuCVkQjvxE9DcN64C7dh1WhrTAzLxnGmUhBzBJDbaSev6f8YbQ1JgZbx64ZAqlWOl1NuV/l9MV/LbrCpX9MRGnVdipJAIPj8fAYNlzyIRuHZbFozpYG8Mjra+nw1A/JsLoLo0apj9taISdwR90FVLhDY6CR4bYr1RDqkkY79838zfEvZUFzPVNCUd2a+5QhgSNN+v+ceQSkkhh3m1d7bSGBta/piX1CZslcDWKMbDlvibSPM4jU94+GJL4ichFi9Yb8uX7Yglitgmne3d+zjJVvv0x3LYJByAxpGp58sSHwwdTUtrMTz/fG2cgWLawviNxuDbVv19032thpPEoGrb++BCvytjk62aWPs5mCanj3aTVuzNYySGwvYdPLyxbZZ0CTSggwwi1zyLAkc/k3rjl1LLw2ZlTVI1gB1be9r+Gw9MdByRA8bGWUSaSssqC4QOFFl/+Rv6fOzHKx+J3oaUFVqRah78Ru8F9whLar28f7DBdJMkatUyWVgpKre6xJuB8+eKrmmZNHxbWawAJt3QOkd/DYk+P7a5bmRqKZmtpQHSNRGqRgL3Hrz88OsaVbtGHraxImIhplJkmc97/AHdQCU+G3zJ+FleWUTzyyVFPT6RxYxGGOq0jyX3B2ayxqxH/ALR43ez2BkVRq1KNTBSSxvq0/DdfTB/Z+B454pZGMdPrACKBpEgQAhj8T0/bBqTSoFxTY5p8nzQQKgq1VNEA7mhHSSwJa5HLnt54ptR2I1llE8VTJPKQhYSh5WFyXZyNrXX1x1vNatQ0KjiPq0tqismwPJj0Hw8MJKysIKtIwLCFlcrZVDFgxHorD54xOjmkznlN2UqKRxOjyxy8ZYtVLDqp2v3LspO4uRbpvbba+2dR1wqIw8KpJHPTpJPA2hdCgm5F9uuOiVY79Q8RMdQ0UQZ2kJhSMuDpA6Hb6YSZgQ7t3b61iYSBrMQYwLk/fLBKTsFxRyZczqZIXWaqqtcXDYAyunFpbm679RuQfiMCMrF1VxxCCFkO1pob2El/GxP3fDvPsvKF42VWQmJUdUMQYgSG1vHf6YTRxS3WYXIUlT52PO3wK+mH8tCeJfMihtEnJpEWPfmH0ORe/moXBUIWJpAg7y94rzJUMSf2woyjNVBCaWVCIx42Rbg/fniarrAJNKMGmVS1+Qkj1WK/X6YUMG+Z1wWMVK6WCtZxfZowwuv1whaSSVGvIdEU8tjtZo7EXI+S+mFDs51rqIjcFHDWA5ldR9MaDMhDFrvaT3GU95WAAF/S4wVA2XIVyCESd3VGDqFjpDAbqR4EfviotLJVzKqs7IxGljbUIVPusPEf5wD/ALSaVzBCp75QcyVsARpJ6ixb18sW3s1k4o0ZmsZD1DG4v5enpjn7UcvcxygWCBKdQsQ08rfqt/N88I5qN1R5VPEKkyBd9SsNrefXElTIGfe+xO5Bsb/HDKkfYEAbdRYA/LEOSeyyENCOlm4gDoRZgDzBt974M9nY73vieppVib2hbcORu+otpEh/VbGGbwG2JZRSlfgjyQ4SoTO1sbJdsaHe5viWA2BP6R5EgYB9CkZGh1X64PnmsotztgZA19XCfTbmVKoR43wwpskqJbO+iipt/wA6Y6VI8AuNSYyOKb6Qpap6Xxsj6tlBZjvbmbYudB2SplAmYSVh/S0v+6Uw63t1wVNS0JK8apBUAjhQEUtGeukt19cEoWOXpX8zKRQZdNNMsaxP7wuLAMEvzti79nopZamqpntFFE8WiF/yk0qPetbxC+ONos5RJEp6engZG2PDBuoG38TrgWu4mX16T6iaeqsdTO2hXtv3ANz/AGxThjWhn8agvaNM+yq4ZA5I8NOhWcm5JPpisRQtGTH7iNcctJEIYFm8r2G/kMX6OeKoTixVKyxXJ1RksuoefLFfzWiuP+IbGwk1EluY2GG9M3tClKc3Ei2NuSm4/MYXuR8x98payoESDvanCyKhOxaVrktb4E+owuMksMy0zkyPcuUAIjVQBf5kkDBGZSLI0khtxC6xpzAB2FrfHV6YIA8bM3F1DMdMJfmdyCP/ALL6YlzTPU4gJAMIs4A31MvPfzuMK5qFiWOs94lb87R3tb6DCLP30RhBuyhU8w1wb+gGCSsFuiwwZ8eFKxOpn7o6ghEBLW+nzwsOduVCBrWHQWPvcsK6FzYQk6VYkKeekkE2+rYDl1CzW09+PYncsSOvywVA2O5DxCxJupQXU8g58vvngXSoHDFr6ifkFAwuMkj6gpIUnd7dNxb6Y9ijLad9J71999XK/wBcajDeoYaSqdbg72IBIH38cexBi4lJuQx6X5gi3344IpqECwa7E338EAGB6mtWFWvbWiKSpIDl7gf1PpgkrMbo8rK1Y0ZmWzalBHItz1D49flivinaokECNddWoMb2sQvX5YmjgmrZJNA7jFSb7WsAL29fXF6yPJEpgt2RZLC7WEhO/K2DbUQUr7PezmUJTLfQHlAGpwf6YIzOpNuGEBLHzIHnhpIdIuGZ9v0kKAfC2Eslgb2bVb9Q7xPhfEuWRRjiAHumwNx5tcg4Mopje4bvDodjbwxFJzuR0NxyGMhkBGod5fICwxL2UIaiRWBU8mBBDG4byviKlaNAVe5bU1utl5f0+uBxUXG9ivgNycaR1LAWDbAkDccsdxsDJBTGGU0aTSLDFHFSqxA1GP2mQAjxJ/phrmdHDQezqIjWTSsRxZnJIv10jbGYzCx6SUdBVBEZZ3iXhxMAGMhj4zWFtgCbDE1LUKJ3iWFWkUm885NVMSfC9gvwAx7jMajpCTNneokkgeVysbgXYl9VzblyHyxYX7M01OIZmj9rDBLxyfw+nT54zGYoXQh9jopEqRmKmSnDkAhbbYD7d5YklKJbATRC6uRr7o5i3r64zGYCHxsKXwRKx2Nqm0KeJKIlOiOHWvCS2xblckkX54tOcmyICNZa51X0G1xt9fpj3GYol0IiV2pjRgJeGq8KaPSvO7FQ+onr7owBm8H58SAgamD8r2JA/a5xmMxiCYuqqo6mgtZI+Hy2ZtKg8/PCEjjcN25u7m3QElz/AEGPcZhiFMJo4APO2k+G97f0x7JRK6lzsdYAFrqAEJ5fPHmMxxqDxlyCKw2HAp38TqN+vyGFz0SiRTc9PTUdsZjMdE6RBVtpUeSePxxVahPaKohmKh2jBtv+kYzGYfHoS+zoeWZNHGqRISgc94gC5FuWHBiCKd9VhcenLGYzCmMQCy3BY2uSBsNPPrblfAVRLw11adVr7dOWPcZiWfY9dFfpKyStkMbPwoF30JsW8r4fVFAIUV0PdAI0kFtvjjMZjsumkbDpgUIFyCNrE25C/wAMNVpkYBiguRjMZhTGI//Z</t>
   </si>
   <si>
     <t>anna</t>
@@ -155,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,11 +465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,157 +490,127 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1234</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1234</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1234</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1234</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
